--- a/data/analysis/US House (2012-20).xlsx
+++ b/data/analysis/US House (2012-20).xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2664CA-9C49-7546-BD33-C60995B1700F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF2F267-67F5-824C-BD8E-20E48CC685EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23560" yWindow="5900" windowWidth="27640" windowHeight="17500" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="9" r:id="rId1"/>
-    <sheet name="Chart" sheetId="8" r:id="rId2"/>
-    <sheet name="Formatted" sheetId="3" r:id="rId3"/>
-    <sheet name="RAW" sheetId="1" r:id="rId4"/>
+    <sheet name="&lt;= Use | Ignore =&gt;" sheetId="10" r:id="rId2"/>
+    <sheet name="Chart" sheetId="8" r:id="rId3"/>
+    <sheet name="Formatted" sheetId="3" r:id="rId4"/>
+    <sheet name="RAW" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="pivot_by_state" localSheetId="3">RAW!$A$1:$M$62</definedName>
+    <definedName name="pivot_by_state" localSheetId="4">RAW!$A$1:$M$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="161">
   <si>
     <t>XX</t>
   </si>
@@ -541,6 +542,12 @@
   </si>
   <si>
     <t>'18-20</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Table 1</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1047,9 +1054,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1082,8 +1086,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1104,14 +1107,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
@@ -2430,10 +2430,10 @@
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S35" sqref="S35:S51"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2449,78 +2449,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="str">
+      <c r="A1" s="43" t="str">
         <f>RAW!A1</f>
         <v>XX</v>
       </c>
-      <c r="B1" s="47" t="str">
+      <c r="B1" s="44" t="str">
         <f>RAW!B1</f>
         <v xml:space="preserve"> STATE</v>
       </c>
-      <c r="C1" s="48">
+      <c r="C1" s="45">
         <f>RAW!C1</f>
         <v>2000</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="50" t="s">
         <v>132</v>
       </c>
       <c r="R1" s="22"/>
-      <c r="S1" s="80" t="s">
+      <c r="S1" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="80" t="s">
+      <c r="T1" s="22" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="str">
+      <c r="A2" s="51" t="str">
         <f>RAW!A44</f>
         <v>TX</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="5" t="str">
         <f>RAW!B44</f>
         <v xml:space="preserve"> Texas</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="6">
         <f>RAW!C44</f>
         <v>-2</v>
       </c>
@@ -2528,19 +2528,19 @@
         <f>RAW!D44</f>
         <v>-2</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="6">
         <f>RAW!E44</f>
         <v>3</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="6">
         <f>RAW!F44</f>
         <v>3</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="6">
         <f>RAW!G44</f>
         <v>2</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="6">
         <f>RAW!H44</f>
         <v>3</v>
       </c>
@@ -2548,38 +2548,38 @@
         <f>RAW!I44</f>
         <v>3</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="6">
         <f>RAW!J44</f>
         <v>4</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="6">
         <f>RAW!K44</f>
         <v>5</v>
       </c>
-      <c r="L2" s="42">
+      <c r="L2" s="6">
         <f>RAW!L44</f>
         <v>4</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="6">
         <f>RAW!M44</f>
         <v>3</v>
       </c>
-      <c r="N2" s="44">
-        <f>AVERAGE(D2:H2)</f>
+      <c r="N2" s="41">
+        <f t="shared" ref="N2:N33" si="0">AVERAGE(D2:H2)</f>
         <v>1.8</v>
       </c>
-      <c r="O2" s="43">
-        <f>AVERAGE(I2:K2)</f>
+      <c r="O2" s="23">
+        <f t="shared" ref="O2:O33" si="1">AVERAGE(I2:K2)</f>
         <v>4</v>
       </c>
-      <c r="P2" s="43">
-        <f>AVERAGE(L2:M2)</f>
+      <c r="P2" s="23">
+        <f t="shared" ref="P2:P33" si="2">AVERAGE(L2:M2)</f>
         <v>3.5</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S2" s="86">
+      <c r="S2" s="23">
         <f>O2-N2</f>
         <v>2.2000000000000002</v>
       </c>
@@ -2589,15 +2589,15 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="str">
+      <c r="A3" s="51" t="str">
         <f>RAW!A36</f>
         <v>OH</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="5" t="str">
         <f>RAW!B36</f>
         <v xml:space="preserve"> Ohio</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="6">
         <f>RAW!C36</f>
         <v>1</v>
       </c>
@@ -2605,19 +2605,19 @@
         <f>RAW!D36</f>
         <v>2</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="6">
         <f>RAW!E36</f>
         <v>2</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="6">
         <f>RAW!F36</f>
         <v>2</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="6">
         <f>RAW!G36</f>
         <v>-1</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="6">
         <f>RAW!H36</f>
         <v>3</v>
       </c>
@@ -2625,56 +2625,56 @@
         <f>RAW!I36</f>
         <v>4</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="6">
         <f>RAW!J36</f>
         <v>3</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="6">
         <f>RAW!K36</f>
         <v>3</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="6">
         <f>RAW!L36</f>
         <v>4</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3" s="6">
         <f>RAW!M36</f>
         <v>3</v>
       </c>
-      <c r="N3" s="44">
-        <f>AVERAGE(D3:H3)</f>
+      <c r="N3" s="41">
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="O3" s="43">
-        <f>AVERAGE(I3:K3)</f>
+      <c r="O3" s="23">
+        <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="P3" s="43">
-        <f>AVERAGE(L3:M3)</f>
+      <c r="P3" s="23">
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S3" s="86">
-        <f t="shared" ref="S3:S51" si="0">O3-N3</f>
+      <c r="S3" s="23">
+        <f t="shared" ref="S3:S51" si="3">O3-N3</f>
         <v>1.7333333333333334</v>
       </c>
       <c r="T3" s="23">
-        <f t="shared" ref="T3:T51" si="1">P3-O3</f>
+        <f t="shared" ref="T3:T51" si="4">P3-O3</f>
         <v>0.16666666666666652</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="str">
+      <c r="A4" s="51" t="str">
         <f>RAW!A39</f>
         <v>PA</v>
       </c>
-      <c r="B4" s="41" t="str">
+      <c r="B4" s="5" t="str">
         <f>RAW!B39</f>
         <v xml:space="preserve"> Pennsylvania</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="6">
         <f>RAW!C39</f>
         <v>1</v>
       </c>
@@ -2682,19 +2682,19 @@
         <f>RAW!D39</f>
         <v>2</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="6">
         <f>RAW!E39</f>
         <v>2</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="6">
         <f>RAW!F39</f>
         <v>-1</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="6">
         <f>RAW!G39</f>
         <v>-2</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="6">
         <f>RAW!H39</f>
         <v>2</v>
       </c>
@@ -2702,56 +2702,56 @@
         <f>RAW!I39</f>
         <v>4</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="6">
         <f>RAW!J39</f>
         <v>3</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="6">
         <f>RAW!K39</f>
         <v>3</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4" s="6">
         <f>RAW!L39</f>
         <v>1</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="6">
         <f>RAW!M39</f>
         <v>0</v>
       </c>
-      <c r="N4" s="44">
-        <f>AVERAGE(D4:H4)</f>
+      <c r="N4" s="41">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O4" s="43">
-        <f>AVERAGE(I4:K4)</f>
+      <c r="O4" s="23">
+        <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="P4" s="43">
-        <f>AVERAGE(L4:M4)</f>
+      <c r="P4" s="23">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S4" s="86">
-        <f t="shared" si="0"/>
+      <c r="S4" s="23">
+        <f t="shared" si="3"/>
         <v>2.7333333333333334</v>
       </c>
       <c r="T4" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.8333333333333335</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="str">
+      <c r="A5" s="51" t="str">
         <f>RAW!A34</f>
         <v>NC</v>
       </c>
-      <c r="B5" s="41" t="str">
+      <c r="B5" s="5" t="str">
         <f>RAW!B34</f>
         <v xml:space="preserve"> North Carolina</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="6">
         <f>RAW!C34</f>
         <v>1</v>
       </c>
@@ -2759,19 +2759,19 @@
         <f>RAW!D34</f>
         <v>0</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="6">
         <f>RAW!E34</f>
         <v>0</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="6">
         <f>RAW!F34</f>
         <v>0</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="6">
         <f>RAW!G34</f>
         <v>-1</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="6">
         <f>RAW!H34</f>
         <v>-1</v>
       </c>
@@ -2779,56 +2779,56 @@
         <f>RAW!I34</f>
         <v>3</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="6">
         <f>RAW!J34</f>
         <v>3</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="6">
         <f>RAW!K34</f>
         <v>3</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="6">
         <f>RAW!L34</f>
         <v>3</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="6">
         <f>RAW!M34</f>
         <v>1</v>
       </c>
-      <c r="N5" s="44">
-        <f>AVERAGE(D5:H5)</f>
+      <c r="N5" s="41">
+        <f t="shared" si="0"/>
         <v>-0.4</v>
       </c>
-      <c r="O5" s="43">
-        <f>AVERAGE(I5:K5)</f>
+      <c r="O5" s="23">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P5" s="43">
-        <f>AVERAGE(L5:M5)</f>
-        <v>2</v>
-      </c>
-      <c r="Q5" s="55" t="s">
+      <c r="P5" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S5" s="86">
-        <f t="shared" si="0"/>
+      <c r="S5" s="23">
+        <f t="shared" si="3"/>
         <v>3.4</v>
       </c>
       <c r="T5" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="str">
+      <c r="A6" s="51" t="str">
         <f>RAW!A10</f>
         <v>FL</v>
       </c>
-      <c r="B6" s="41" t="str">
+      <c r="B6" s="5" t="str">
         <f>RAW!B10</f>
         <v xml:space="preserve"> Florida</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="6">
         <f>RAW!C10</f>
         <v>2</v>
       </c>
@@ -2836,19 +2836,19 @@
         <f>RAW!D10</f>
         <v>4</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="6">
         <f>RAW!E10</f>
         <v>4</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="6">
         <f>RAW!F10</f>
         <v>3</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="6">
         <f>RAW!G10</f>
         <v>2</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="6">
         <f>RAW!H10</f>
         <v>4</v>
       </c>
@@ -2856,56 +2856,56 @@
         <f>RAW!I10</f>
         <v>3</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="6">
         <f>RAW!J10</f>
         <v>2</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="6">
         <f>RAW!K10</f>
         <v>2</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="6">
         <f>RAW!L10</f>
         <v>1</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="6">
         <f>RAW!M10</f>
         <v>2</v>
       </c>
-      <c r="N6" s="44">
-        <f>AVERAGE(D6:H6)</f>
+      <c r="N6" s="41">
+        <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="O6" s="43">
-        <f>AVERAGE(I6:K6)</f>
+      <c r="O6" s="23">
+        <f t="shared" si="1"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="P6" s="43">
-        <f>AVERAGE(L6:M6)</f>
+      <c r="P6" s="23">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="Q6" s="55" t="s">
+      <c r="Q6" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S6" s="86">
-        <f t="shared" si="0"/>
+      <c r="S6" s="23">
+        <f t="shared" si="3"/>
         <v>-1.0666666666666664</v>
       </c>
       <c r="T6" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.83333333333333348</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="str">
+      <c r="A7" s="51" t="str">
         <f>RAW!A2</f>
         <v>AL</v>
       </c>
-      <c r="B7" s="41" t="str">
+      <c r="B7" s="5" t="str">
         <f>RAW!B2</f>
         <v xml:space="preserve"> Alabama</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="6">
         <f>RAW!C2</f>
         <v>1</v>
       </c>
@@ -2913,19 +2913,19 @@
         <f>RAW!D2</f>
         <v>1</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="6">
         <f>RAW!E2</f>
         <v>1</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="6">
         <f>RAW!F2</f>
         <v>1</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="6">
         <f>RAW!G2</f>
         <v>1</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="6">
         <f>RAW!H2</f>
         <v>2</v>
       </c>
@@ -2933,518 +2933,518 @@
         <f>RAW!I2</f>
         <v>2</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="6">
         <f>RAW!J2</f>
         <v>2</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="6">
         <f>RAW!K2</f>
         <v>2</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="6">
         <f>RAW!L2</f>
         <v>2</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="6">
         <f>RAW!M2</f>
         <v>1</v>
       </c>
-      <c r="N7" s="44">
-        <f>AVERAGE(D7:H7)</f>
+      <c r="N7" s="41">
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="O7" s="43">
-        <f>AVERAGE(I7:K7)</f>
-        <v>2</v>
-      </c>
-      <c r="P7" s="43">
-        <f>AVERAGE(L7:M7)</f>
+      <c r="O7" s="23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P7" s="23">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="Q7" s="55" t="s">
+      <c r="Q7" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S7" s="86">
+      <c r="S7" s="23">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="T7" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="str">
+        <f>RAW!A15</f>
+        <v>IN</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f>RAW!B15</f>
+        <v xml:space="preserve"> Indiana</v>
+      </c>
+      <c r="C8" s="6">
+        <f>RAW!C15</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <f>RAW!D15</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <f>RAW!E15</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <f>RAW!F15</f>
+        <v>-1</v>
+      </c>
+      <c r="G8" s="6">
+        <f>RAW!G15</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <f>RAW!H15</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="15">
+        <f>RAW!I15</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="6">
+        <f>RAW!J15</f>
+        <v>2</v>
+      </c>
+      <c r="K8" s="6">
+        <f>RAW!K15</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="6">
+        <f>RAW!L15</f>
+        <v>2</v>
+      </c>
+      <c r="M8" s="6">
+        <f>RAW!M15</f>
+        <v>2</v>
+      </c>
+      <c r="N8" s="41">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="O8" s="23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P8" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q8" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" s="23">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="T8" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="str">
+        <f>RAW!A23</f>
+        <v>MI</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>RAW!B23</f>
+        <v xml:space="preserve"> Michigan</v>
+      </c>
+      <c r="C9" s="6">
+        <f>RAW!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <f>RAW!D23</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <f>RAW!E23</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <f>RAW!F23</f>
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <f>RAW!G23</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <f>RAW!H23</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="15">
+        <f>RAW!I23</f>
+        <v>2</v>
+      </c>
+      <c r="J9" s="6">
+        <f>RAW!J23</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="6">
+        <f>RAW!K23</f>
+        <v>2</v>
+      </c>
+      <c r="L9" s="6">
+        <f>RAW!L23</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <f>RAW!M23</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P9" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="S9" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="40">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="51" t="str">
+        <f>RAW!A41</f>
+        <v>SC</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f>RAW!B41</f>
+        <v xml:space="preserve"> South Carolina</v>
+      </c>
+      <c r="C10" s="6">
+        <f>RAW!C41</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="15">
+        <f>RAW!D41</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <f>RAW!E41</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <f>RAW!F41</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <f>RAW!G41</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <f>RAW!H41</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <f>RAW!I41</f>
+        <v>2</v>
+      </c>
+      <c r="J10" s="6">
+        <f>RAW!J41</f>
+        <v>2</v>
+      </c>
+      <c r="K10" s="6">
+        <f>RAW!K41</f>
+        <v>2</v>
+      </c>
+      <c r="L10" s="6">
+        <f>RAW!L41</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <f>RAW!M41</f>
+        <v>2</v>
+      </c>
+      <c r="N10" s="41">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="T7" s="23">
+      <c r="O10" s="23">
         <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P10" s="23">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q10" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="S10" s="23">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="T10" s="23">
+        <f t="shared" si="4"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="str">
-        <f>RAW!A15</f>
-        <v>IN</v>
-      </c>
-      <c r="B8" s="41" t="str">
-        <f>RAW!B15</f>
-        <v xml:space="preserve"> Indiana</v>
-      </c>
-      <c r="C8" s="42">
-        <f>RAW!C15</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="15">
-        <f>RAW!D15</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="42">
-        <f>RAW!E15</f>
-        <v>2</v>
-      </c>
-      <c r="F8" s="42">
-        <f>RAW!F15</f>
-        <v>-1</v>
-      </c>
-      <c r="G8" s="42">
-        <f>RAW!G15</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="42">
-        <f>RAW!H15</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="15">
-        <f>RAW!I15</f>
-        <v>2</v>
-      </c>
-      <c r="J8" s="42">
-        <f>RAW!J15</f>
-        <v>2</v>
-      </c>
-      <c r="K8" s="42">
-        <f>RAW!K15</f>
-        <v>2</v>
-      </c>
-      <c r="L8" s="42">
-        <f>RAW!L15</f>
-        <v>2</v>
-      </c>
-      <c r="M8" s="42">
-        <f>RAW!M15</f>
-        <v>2</v>
-      </c>
-      <c r="N8" s="44">
-        <f>AVERAGE(D8:H8)</f>
-        <v>0.6</v>
-      </c>
-      <c r="O8" s="43">
-        <f>AVERAGE(I8:K8)</f>
-        <v>2</v>
-      </c>
-      <c r="P8" s="43">
-        <f>AVERAGE(L8:M8)</f>
-        <v>2</v>
-      </c>
-      <c r="Q8" s="55" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="51" t="str">
+        <f>RAW!A5</f>
+        <v>AR</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f>RAW!B5</f>
+        <v xml:space="preserve"> Arkansas</v>
+      </c>
+      <c r="C11" s="6">
+        <f>RAW!C5</f>
+        <v>-1</v>
+      </c>
+      <c r="D11" s="15">
+        <f>RAW!D5</f>
+        <v>-1</v>
+      </c>
+      <c r="E11" s="6">
+        <f>RAW!E5</f>
+        <v>-1</v>
+      </c>
+      <c r="F11" s="6">
+        <f>RAW!F5</f>
+        <v>-1</v>
+      </c>
+      <c r="G11" s="6">
+        <f>RAW!G5</f>
+        <v>-1</v>
+      </c>
+      <c r="H11" s="6">
+        <f>RAW!H5</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <f>RAW!I5</f>
+        <v>2</v>
+      </c>
+      <c r="J11" s="6">
+        <f>RAW!J5</f>
+        <v>2</v>
+      </c>
+      <c r="K11" s="6">
+        <f>RAW!K5</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
+        <f>RAW!L5</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <f>RAW!M5</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="41">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O11" s="23">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="P11" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="S11" s="23">
+        <f t="shared" si="3"/>
+        <v>2.2666666666666666</v>
+      </c>
+      <c r="T11" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.66666666666666674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="str">
+        <f>RAW!A11</f>
+        <v>GA</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f>RAW!B11</f>
+        <v xml:space="preserve"> Georgia</v>
+      </c>
+      <c r="C12" s="6">
+        <f>RAW!C11</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="15">
+        <f>RAW!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <f>RAW!E11</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <f>RAW!F11</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f>RAW!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <f>RAW!H11</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="15">
+        <f>RAW!I11</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <f>RAW!J11</f>
+        <v>2</v>
+      </c>
+      <c r="K12" s="6">
+        <f>RAW!K11</f>
+        <v>2</v>
+      </c>
+      <c r="L12" s="6">
+        <f>RAW!L11</f>
+        <v>2</v>
+      </c>
+      <c r="M12" s="6">
+        <f>RAW!M11</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="41">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="23">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="P12" s="23">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q12" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S8" s="86">
+      <c r="S12" s="23">
+        <f t="shared" si="3"/>
+        <v>1.4666666666666668</v>
+      </c>
+      <c r="T12" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.16666666666666674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="51" t="str">
+        <f>RAW!A47</f>
+        <v>VA</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f>RAW!B47</f>
+        <v xml:space="preserve"> Virginia</v>
+      </c>
+      <c r="C13" s="6">
+        <f>RAW!C47</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="15">
+        <f>RAW!D47</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <f>RAW!E47</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <f>RAW!F47</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="6">
+        <f>RAW!G47</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <f>RAW!H47</f>
+        <v>2</v>
+      </c>
+      <c r="I13" s="15">
+        <f>RAW!I47</f>
+        <v>2</v>
+      </c>
+      <c r="J13" s="6">
+        <f>RAW!J47</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="6">
+        <f>RAW!K47</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="6">
+        <f>RAW!L47</f>
+        <v>-1</v>
+      </c>
+      <c r="M13" s="6">
+        <f>RAW!M47</f>
+        <v>-1</v>
+      </c>
+      <c r="N13" s="41">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="T8" s="23">
+      <c r="O13" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="str">
-        <f>RAW!A23</f>
-        <v>MI</v>
-      </c>
-      <c r="B9" s="41" t="str">
-        <f>RAW!B23</f>
-        <v xml:space="preserve"> Michigan</v>
-      </c>
-      <c r="C9" s="42">
-        <f>RAW!C23</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="15">
-        <f>RAW!D23</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="42">
-        <f>RAW!E23</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="42">
-        <f>RAW!F23</f>
-        <v>2</v>
-      </c>
-      <c r="G9" s="42">
-        <f>RAW!G23</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="42">
-        <f>RAW!H23</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="15">
-        <f>RAW!I23</f>
-        <v>2</v>
-      </c>
-      <c r="J9" s="42">
-        <f>RAW!J23</f>
-        <v>2</v>
-      </c>
-      <c r="K9" s="42">
-        <f>RAW!K23</f>
-        <v>2</v>
-      </c>
-      <c r="L9" s="42">
-        <f>RAW!L23</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="42">
-        <f>RAW!M23</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="44">
-        <f>AVERAGE(D9:H9)</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="43">
-        <f>AVERAGE(I9:K9)</f>
-        <v>2</v>
-      </c>
-      <c r="P9" s="43">
-        <f>AVERAGE(L9:M9)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="55" t="s">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="P13" s="23">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S9" s="86">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T9" s="40">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="str">
-        <f>RAW!A41</f>
-        <v>SC</v>
-      </c>
-      <c r="B10" s="41" t="str">
-        <f>RAW!B41</f>
-        <v xml:space="preserve"> South Carolina</v>
-      </c>
-      <c r="C10" s="42">
-        <f>RAW!C41</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="15">
-        <f>RAW!D41</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="42">
-        <f>RAW!E41</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="42">
-        <f>RAW!F41</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="42">
-        <f>RAW!G41</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="42">
-        <f>RAW!H41</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <f>RAW!I41</f>
-        <v>2</v>
-      </c>
-      <c r="J10" s="42">
-        <f>RAW!J41</f>
-        <v>2</v>
-      </c>
-      <c r="K10" s="42">
-        <f>RAW!K41</f>
-        <v>2</v>
-      </c>
-      <c r="L10" s="42">
-        <f>RAW!L41</f>
-        <v>1</v>
-      </c>
-      <c r="M10" s="42">
-        <f>RAW!M41</f>
-        <v>2</v>
-      </c>
-      <c r="N10" s="44">
-        <f>AVERAGE(D10:H10)</f>
-        <v>0.8</v>
-      </c>
-      <c r="O10" s="43">
-        <f>AVERAGE(I10:K10)</f>
-        <v>2</v>
-      </c>
-      <c r="P10" s="43">
-        <f>AVERAGE(L10:M10)</f>
-        <v>1.5</v>
-      </c>
-      <c r="Q10" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="S10" s="86">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="T10" s="23">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="str">
-        <f>RAW!A5</f>
-        <v>AR</v>
-      </c>
-      <c r="B11" s="41" t="str">
-        <f>RAW!B5</f>
-        <v xml:space="preserve"> Arkansas</v>
-      </c>
-      <c r="C11" s="42">
-        <f>RAW!C5</f>
-        <v>-1</v>
-      </c>
-      <c r="D11" s="15">
-        <f>RAW!D5</f>
-        <v>-1</v>
-      </c>
-      <c r="E11" s="42">
-        <f>RAW!E5</f>
-        <v>-1</v>
-      </c>
-      <c r="F11" s="42">
-        <f>RAW!F5</f>
-        <v>-1</v>
-      </c>
-      <c r="G11" s="42">
-        <f>RAW!G5</f>
-        <v>-1</v>
-      </c>
-      <c r="H11" s="42">
-        <f>RAW!H5</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
-        <f>RAW!I5</f>
-        <v>2</v>
-      </c>
-      <c r="J11" s="42">
-        <f>RAW!J5</f>
-        <v>2</v>
-      </c>
-      <c r="K11" s="42">
-        <f>RAW!K5</f>
-        <v>1</v>
-      </c>
-      <c r="L11" s="42">
-        <f>RAW!L5</f>
-        <v>1</v>
-      </c>
-      <c r="M11" s="42">
-        <f>RAW!M5</f>
-        <v>1</v>
-      </c>
-      <c r="N11" s="44">
-        <f>AVERAGE(D11:H11)</f>
-        <v>-0.6</v>
-      </c>
-      <c r="O11" s="43">
-        <f>AVERAGE(I11:K11)</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="P11" s="43">
-        <f>AVERAGE(L11:M11)</f>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="S11" s="86">
-        <f t="shared" si="0"/>
-        <v>2.2666666666666666</v>
-      </c>
-      <c r="T11" s="23">
-        <f t="shared" si="1"/>
-        <v>-0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="str">
-        <f>RAW!A11</f>
-        <v>GA</v>
-      </c>
-      <c r="B12" s="41" t="str">
-        <f>RAW!B11</f>
-        <v xml:space="preserve"> Georgia</v>
-      </c>
-      <c r="C12" s="42">
-        <f>RAW!C11</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="15">
-        <f>RAW!D11</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="42">
-        <f>RAW!E11</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="42">
-        <f>RAW!F11</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="42">
-        <f>RAW!G11</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="42">
-        <f>RAW!H11</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="15">
-        <f>RAW!I11</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="42">
-        <f>RAW!J11</f>
-        <v>2</v>
-      </c>
-      <c r="K12" s="42">
-        <f>RAW!K11</f>
-        <v>2</v>
-      </c>
-      <c r="L12" s="42">
-        <f>RAW!L11</f>
-        <v>2</v>
-      </c>
-      <c r="M12" s="42">
-        <f>RAW!M11</f>
-        <v>1</v>
-      </c>
-      <c r="N12" s="44">
-        <f>AVERAGE(D12:H12)</f>
-        <v>0.2</v>
-      </c>
-      <c r="O12" s="43">
-        <f>AVERAGE(I12:K12)</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="P12" s="43">
-        <f>AVERAGE(L12:M12)</f>
-        <v>1.5</v>
-      </c>
-      <c r="Q12" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="S12" s="86">
-        <f t="shared" si="0"/>
-        <v>1.4666666666666668</v>
-      </c>
-      <c r="T12" s="23">
-        <f t="shared" si="1"/>
-        <v>-0.16666666666666674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="str">
-        <f>RAW!A47</f>
-        <v>VA</v>
-      </c>
-      <c r="B13" s="41" t="str">
-        <f>RAW!B47</f>
-        <v xml:space="preserve"> Virginia</v>
-      </c>
-      <c r="C13" s="42">
-        <f>RAW!C47</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="15">
-        <f>RAW!D47</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="42">
-        <f>RAW!E47</f>
-        <v>2</v>
-      </c>
-      <c r="F13" s="42">
-        <f>RAW!F47</f>
-        <v>2</v>
-      </c>
-      <c r="G13" s="42">
-        <f>RAW!G47</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="42">
-        <f>RAW!H47</f>
-        <v>2</v>
-      </c>
-      <c r="I13" s="15">
-        <f>RAW!I47</f>
-        <v>2</v>
-      </c>
-      <c r="J13" s="42">
-        <f>RAW!J47</f>
-        <v>2</v>
-      </c>
-      <c r="K13" s="42">
-        <f>RAW!K47</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="42">
-        <f>RAW!L47</f>
-        <v>-1</v>
-      </c>
-      <c r="M13" s="42">
-        <f>RAW!M47</f>
-        <v>-1</v>
-      </c>
-      <c r="N13" s="44">
-        <f>AVERAGE(D13:H13)</f>
-        <v>1.4</v>
-      </c>
-      <c r="O13" s="43">
-        <f>AVERAGE(I13:K13)</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="P13" s="43">
-        <f>AVERAGE(L13:M13)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q13" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="S13" s="86">
-        <f t="shared" si="0"/>
+      <c r="S13" s="23">
+        <f t="shared" si="3"/>
         <v>0.26666666666666683</v>
       </c>
       <c r="T13" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="str">
+      <c r="A14" s="51" t="str">
         <f>RAW!A37</f>
         <v>OK</v>
       </c>
-      <c r="B14" s="41" t="str">
+      <c r="B14" s="5" t="str">
         <f>RAW!B37</f>
         <v xml:space="preserve"> Oklahoma</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="6">
         <f>RAW!C37</f>
         <v>1</v>
       </c>
@@ -3452,19 +3452,19 @@
         <f>RAW!D37</f>
         <v>1</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="6">
         <f>RAW!E37</f>
         <v>1</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="6">
         <f>RAW!F37</f>
         <v>1</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="6">
         <f>RAW!G37</f>
         <v>1</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="6">
         <f>RAW!H37</f>
         <v>1</v>
       </c>
@@ -3472,48 +3472,48 @@
         <f>RAW!I37</f>
         <v>2</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="6">
         <f>RAW!J37</f>
         <v>1</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="6">
         <f>RAW!K37</f>
         <v>1</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="6">
         <f>RAW!L37</f>
         <v>1</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="6">
         <f>RAW!M37</f>
         <v>2</v>
       </c>
-      <c r="N14" s="44">
-        <f>AVERAGE(D14:H14)</f>
-        <v>1</v>
-      </c>
-      <c r="O14" s="43">
-        <f>AVERAGE(I14:K14)</f>
+      <c r="N14" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="23">
+        <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="P14" s="43">
-        <f>AVERAGE(L14:M14)</f>
+      <c r="P14" s="23">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="Q14" s="55" t="s">
+      <c r="Q14" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S14" s="86">
-        <f t="shared" si="0"/>
+      <c r="S14" s="23">
+        <f t="shared" si="3"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="T14" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="str">
+      <c r="A15" s="53" t="str">
         <f>RAW!A43</f>
         <v>TN</v>
       </c>
@@ -3565,40 +3565,40 @@
         <f>RAW!M43</f>
         <v>1</v>
       </c>
-      <c r="N15" s="45">
-        <f>AVERAGE(D15:H15)</f>
+      <c r="N15" s="42">
+        <f t="shared" si="0"/>
         <v>-0.4</v>
       </c>
       <c r="O15" s="24">
-        <f>AVERAGE(I15:K15)</f>
+        <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="P15" s="24">
-        <f>AVERAGE(L15:M15)</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="Q15" s="57" t="s">
+      <c r="Q15" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="S15" s="87">
-        <f t="shared" si="0"/>
+      <c r="S15" s="24">
+        <f t="shared" si="3"/>
         <v>1.7333333333333334</v>
       </c>
       <c r="T15" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="str">
+      <c r="A16" s="51" t="str">
         <f>RAW!A3</f>
         <v>AK</v>
       </c>
-      <c r="B16" s="41" t="str">
+      <c r="B16" s="5" t="str">
         <f>RAW!B3</f>
         <v xml:space="preserve"> Alaska</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="6">
         <f>RAW!C3</f>
         <v>1</v>
       </c>
@@ -3606,19 +3606,19 @@
         <f>RAW!D3</f>
         <v>1</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="6">
         <f>RAW!E3</f>
         <v>1</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="6">
         <f>RAW!F3</f>
         <v>1</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="6">
         <f>RAW!G3</f>
         <v>1</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="6">
         <f>RAW!H3</f>
         <v>1</v>
       </c>
@@ -3626,56 +3626,56 @@
         <f>RAW!I3</f>
         <v>1</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="6">
         <f>RAW!J3</f>
         <v>1</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="6">
         <f>RAW!K3</f>
         <v>1</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="6">
         <f>RAW!L3</f>
         <v>1</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="6">
         <f>RAW!M3</f>
         <v>1</v>
       </c>
-      <c r="N16" s="44">
-        <f>AVERAGE(D16:H16)</f>
-        <v>1</v>
-      </c>
-      <c r="O16" s="43">
-        <f>AVERAGE(I16:K16)</f>
-        <v>1</v>
-      </c>
-      <c r="P16" s="43">
-        <f>AVERAGE(L16:M16)</f>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="55" t="s">
+      <c r="N16" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P16" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="52" t="s">
         <v>123</v>
       </c>
       <c r="S16" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T16" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="str">
+      <c r="A17" s="51" t="str">
         <f>RAW!A13</f>
         <v>ID</v>
       </c>
-      <c r="B17" s="41" t="str">
+      <c r="B17" s="5" t="str">
         <f>RAW!B13</f>
         <v xml:space="preserve"> Idaho</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="6">
         <f>RAW!C13</f>
         <v>1</v>
       </c>
@@ -3683,19 +3683,19 @@
         <f>RAW!D13</f>
         <v>1</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="6">
         <f>RAW!E13</f>
         <v>1</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="6">
         <f>RAW!F13</f>
         <v>1</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="6">
         <f>RAW!G13</f>
         <v>0</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="6">
         <f>RAW!H13</f>
         <v>1</v>
       </c>
@@ -3703,56 +3703,56 @@
         <f>RAW!I13</f>
         <v>1</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="6">
         <f>RAW!J13</f>
         <v>1</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="6">
         <f>RAW!K13</f>
         <v>1</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="6">
         <f>RAW!L13</f>
         <v>1</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="6">
         <f>RAW!M13</f>
         <v>1</v>
       </c>
-      <c r="N17" s="44">
-        <f>AVERAGE(D17:H17)</f>
+      <c r="N17" s="41">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="O17" s="43">
-        <f>AVERAGE(I17:K17)</f>
-        <v>1</v>
-      </c>
-      <c r="P17" s="43">
-        <f>AVERAGE(L17:M17)</f>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="55" t="s">
+      <c r="O17" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="52" t="s">
         <v>124</v>
       </c>
       <c r="S17" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="T17" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="str">
+      <c r="A18" s="51" t="str">
         <f>RAW!A17</f>
         <v>KS</v>
       </c>
-      <c r="B18" s="41" t="str">
+      <c r="B18" s="5" t="str">
         <f>RAW!B17</f>
         <v xml:space="preserve"> Kansas</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="6">
         <f>RAW!C17</f>
         <v>0</v>
       </c>
@@ -3760,19 +3760,19 @@
         <f>RAW!D17</f>
         <v>1</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="6">
         <f>RAW!E17</f>
         <v>1</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="6">
         <f>RAW!F17</f>
         <v>0</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="6">
         <f>RAW!G17</f>
         <v>1</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="6">
         <f>RAW!H17</f>
         <v>1</v>
       </c>
@@ -3780,56 +3780,56 @@
         <f>RAW!I17</f>
         <v>1</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="6">
         <f>RAW!J17</f>
         <v>1</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="6">
         <f>RAW!K17</f>
         <v>1</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="6">
         <f>RAW!L17</f>
         <v>1</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="6">
         <f>RAW!M17</f>
         <v>1</v>
       </c>
-      <c r="N18" s="44">
-        <f>AVERAGE(D18:H18)</f>
+      <c r="N18" s="41">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="O18" s="43">
-        <f>AVERAGE(I18:K18)</f>
-        <v>1</v>
-      </c>
-      <c r="P18" s="43">
-        <f>AVERAGE(L18:M18)</f>
-        <v>1</v>
-      </c>
-      <c r="Q18" s="55" t="s">
+      <c r="O18" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="52" t="s">
         <v>129</v>
       </c>
       <c r="S18" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="T18" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="str">
+      <c r="A19" s="51" t="str">
         <f>RAW!A18</f>
         <v>KY</v>
       </c>
-      <c r="B19" s="41" t="str">
+      <c r="B19" s="5" t="str">
         <f>RAW!B18</f>
         <v xml:space="preserve"> Kentucky</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="6">
         <f>RAW!C18</f>
         <v>2</v>
       </c>
@@ -3837,19 +3837,19 @@
         <f>RAW!D18</f>
         <v>0</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="6">
         <f>RAW!E18</f>
         <v>1</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="6">
         <f>RAW!F18</f>
         <v>1</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="6">
         <f>RAW!G18</f>
         <v>1</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="6">
         <f>RAW!H18</f>
         <v>0</v>
       </c>
@@ -3857,56 +3857,56 @@
         <f>RAW!I18</f>
         <v>1</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="6">
         <f>RAW!J18</f>
         <v>1</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="6">
         <f>RAW!K18</f>
         <v>1</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="6">
         <f>RAW!L18</f>
         <v>1</v>
       </c>
-      <c r="M19" s="42">
+      <c r="M19" s="6">
         <f>RAW!M18</f>
         <v>1</v>
       </c>
-      <c r="N19" s="44">
-        <f>AVERAGE(D19:H19)</f>
+      <c r="N19" s="41">
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O19" s="43">
-        <f>AVERAGE(I19:K19)</f>
-        <v>1</v>
-      </c>
-      <c r="P19" s="43">
-        <f>AVERAGE(L19:M19)</f>
-        <v>1</v>
-      </c>
-      <c r="Q19" s="55" t="s">
+      <c r="O19" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="52" t="s">
         <v>128</v>
       </c>
       <c r="S19" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="T19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="str">
+      <c r="A20" s="51" t="str">
         <f>RAW!A19</f>
         <v>LA</v>
       </c>
-      <c r="B20" s="41" t="str">
+      <c r="B20" s="5" t="str">
         <f>RAW!B19</f>
         <v xml:space="preserve"> Louisiana</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="6">
         <f>RAW!C19</f>
         <v>1</v>
       </c>
@@ -3914,19 +3914,19 @@
         <f>RAW!D19</f>
         <v>1</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="6">
         <f>RAW!E19</f>
         <v>1</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="6">
         <f>RAW!F19</f>
         <v>0</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="6">
         <f>RAW!G19</f>
         <v>2</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="6">
         <f>RAW!H19</f>
         <v>1</v>
       </c>
@@ -3934,56 +3934,56 @@
         <f>RAW!I19</f>
         <v>1</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="6">
         <f>RAW!J19</f>
         <v>1</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="6">
         <f>RAW!K19</f>
         <v>1</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="6">
         <f>RAW!L19</f>
         <v>1</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="6">
         <f>RAW!M19</f>
         <v>1</v>
       </c>
-      <c r="N20" s="44">
-        <f>AVERAGE(D20:H20)</f>
-        <v>1</v>
-      </c>
-      <c r="O20" s="43">
-        <f>AVERAGE(I20:K20)</f>
-        <v>1</v>
-      </c>
-      <c r="P20" s="43">
-        <f>AVERAGE(L20:M20)</f>
-        <v>1</v>
-      </c>
-      <c r="Q20" s="55" t="s">
+      <c r="N20" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="52" t="s">
         <v>122</v>
       </c>
       <c r="S20" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T20" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="str">
+      <c r="A21" s="51" t="str">
         <f>RAW!A25</f>
         <v>MS</v>
       </c>
-      <c r="B21" s="41" t="str">
+      <c r="B21" s="5" t="str">
         <f>RAW!B25</f>
         <v xml:space="preserve"> Mississippi</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="6">
         <f>RAW!C25</f>
         <v>0</v>
       </c>
@@ -3991,19 +3991,19 @@
         <f>RAW!D25</f>
         <v>0</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="6">
         <f>RAW!E25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="6">
         <f>RAW!F25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="6">
         <f>RAW!G25</f>
         <v>-1</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="6">
         <f>RAW!H25</f>
         <v>1</v>
       </c>
@@ -4011,56 +4011,56 @@
         <f>RAW!I25</f>
         <v>1</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="6">
         <f>RAW!J25</f>
         <v>1</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="6">
         <f>RAW!K25</f>
         <v>1</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="6">
         <f>RAW!L25</f>
         <v>1</v>
       </c>
-      <c r="M21" s="42">
+      <c r="M21" s="6">
         <f>RAW!M25</f>
         <v>1</v>
       </c>
-      <c r="N21" s="44">
-        <f>AVERAGE(D21:H21)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="43">
-        <f>AVERAGE(I21:K21)</f>
-        <v>1</v>
-      </c>
-      <c r="P21" s="43">
-        <f>AVERAGE(L21:M21)</f>
-        <v>1</v>
-      </c>
-      <c r="Q21" s="55" t="s">
+      <c r="N21" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P21" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="52" t="s">
         <v>129</v>
       </c>
       <c r="S21" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T21" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="str">
+      <c r="A22" s="51" t="str">
         <f>RAW!A26</f>
         <v>MO</v>
       </c>
-      <c r="B22" s="41" t="str">
+      <c r="B22" s="5" t="str">
         <f>RAW!B26</f>
         <v xml:space="preserve"> Missouri</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="6">
         <f>RAW!C26</f>
         <v>1</v>
       </c>
@@ -4068,19 +4068,19 @@
         <f>RAW!D26</f>
         <v>0</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="6">
         <f>RAW!E26</f>
         <v>0</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="6">
         <f>RAW!F26</f>
         <v>0</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="6">
         <f>RAW!G26</f>
         <v>0</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="6">
         <f>RAW!H26</f>
         <v>1</v>
       </c>
@@ -4088,56 +4088,56 @@
         <f>RAW!I26</f>
         <v>1</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="6">
         <f>RAW!J26</f>
         <v>1</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="6">
         <f>RAW!K26</f>
         <v>1</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="6">
         <f>RAW!L26</f>
         <v>1</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="6">
         <f>RAW!M26</f>
         <v>1</v>
       </c>
-      <c r="N22" s="44">
-        <f>AVERAGE(D22:H22)</f>
+      <c r="N22" s="41">
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="O22" s="43">
-        <f>AVERAGE(I22:K22)</f>
-        <v>1</v>
-      </c>
-      <c r="P22" s="43">
-        <f>AVERAGE(L22:M22)</f>
-        <v>1</v>
-      </c>
-      <c r="Q22" s="55" t="s">
+      <c r="O22" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="52" t="s">
         <v>128</v>
       </c>
       <c r="S22" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="T22" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="str">
+      <c r="A23" s="51" t="str">
         <f>RAW!A27</f>
         <v>MT</v>
       </c>
-      <c r="B23" s="41" t="str">
+      <c r="B23" s="5" t="str">
         <f>RAW!B27</f>
         <v xml:space="preserve"> Montana</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="6">
         <f>RAW!C27</f>
         <v>1</v>
       </c>
@@ -4145,19 +4145,19 @@
         <f>RAW!D27</f>
         <v>1</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="6">
         <f>RAW!E27</f>
         <v>1</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="6">
         <f>RAW!F27</f>
         <v>1</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="6">
         <f>RAW!G27</f>
         <v>1</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="6">
         <f>RAW!H27</f>
         <v>1</v>
       </c>
@@ -4165,56 +4165,56 @@
         <f>RAW!I27</f>
         <v>1</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="6">
         <f>RAW!J27</f>
         <v>1</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="6">
         <f>RAW!K27</f>
         <v>1</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="6">
         <f>RAW!L27</f>
         <v>1</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="6">
         <f>RAW!M27</f>
         <v>1</v>
       </c>
-      <c r="N23" s="44">
-        <f>AVERAGE(D23:H23)</f>
-        <v>1</v>
-      </c>
-      <c r="O23" s="43">
-        <f>AVERAGE(I23:K23)</f>
-        <v>1</v>
-      </c>
-      <c r="P23" s="43">
-        <f>AVERAGE(L23:M23)</f>
-        <v>1</v>
-      </c>
-      <c r="Q23" s="55" t="s">
+      <c r="N23" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P23" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="52" t="s">
         <v>123</v>
       </c>
       <c r="S23" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T23" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="str">
+      <c r="A24" s="51" t="str">
         <f>RAW!A35</f>
         <v>ND</v>
       </c>
-      <c r="B24" s="41" t="str">
+      <c r="B24" s="5" t="str">
         <f>RAW!B35</f>
         <v xml:space="preserve"> North Dakota</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="6">
         <f>RAW!C35</f>
         <v>-1</v>
       </c>
@@ -4222,19 +4222,19 @@
         <f>RAW!D35</f>
         <v>-1</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="6">
         <f>RAW!E35</f>
         <v>-1</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="6">
         <f>RAW!F35</f>
         <v>-1</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="6">
         <f>RAW!G35</f>
         <v>-1</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="6">
         <f>RAW!H35</f>
         <v>1</v>
       </c>
@@ -4242,56 +4242,56 @@
         <f>RAW!I35</f>
         <v>1</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="6">
         <f>RAW!J35</f>
         <v>1</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="6">
         <f>RAW!K35</f>
         <v>1</v>
       </c>
-      <c r="L24" s="42">
+      <c r="L24" s="6">
         <f>RAW!L35</f>
         <v>1</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="6">
         <f>RAW!M35</f>
         <v>1</v>
       </c>
-      <c r="N24" s="44">
-        <f>AVERAGE(D24:H24)</f>
+      <c r="N24" s="41">
+        <f t="shared" si="0"/>
         <v>-0.6</v>
       </c>
-      <c r="O24" s="43">
-        <f>AVERAGE(I24:K24)</f>
-        <v>1</v>
-      </c>
-      <c r="P24" s="43">
-        <f>AVERAGE(L24:M24)</f>
-        <v>1</v>
-      </c>
-      <c r="Q24" s="55" t="s">
+      <c r="O24" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P24" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="52" t="s">
         <v>123</v>
       </c>
       <c r="S24" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
       <c r="T24" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="str">
+      <c r="A25" s="51" t="str">
         <f>RAW!A42</f>
         <v>SD</v>
       </c>
-      <c r="B25" s="41" t="str">
+      <c r="B25" s="5" t="str">
         <f>RAW!B42</f>
         <v xml:space="preserve"> South Dakota</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="6">
         <f>RAW!C42</f>
         <v>1</v>
       </c>
@@ -4299,19 +4299,19 @@
         <f>RAW!D42</f>
         <v>1</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="6">
         <f>RAW!E42</f>
         <v>-1</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="6">
         <f>RAW!F42</f>
         <v>-1</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="6">
         <f>RAW!G42</f>
         <v>-1</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="6">
         <f>RAW!H42</f>
         <v>1</v>
       </c>
@@ -4319,56 +4319,56 @@
         <f>RAW!I42</f>
         <v>1</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="6">
         <f>RAW!J42</f>
         <v>1</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="6">
         <f>RAW!K42</f>
         <v>1</v>
       </c>
-      <c r="L25" s="42">
+      <c r="L25" s="6">
         <f>RAW!L42</f>
         <v>1</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="6">
         <f>RAW!M42</f>
         <v>1</v>
       </c>
-      <c r="N25" s="44">
-        <f>AVERAGE(D25:H25)</f>
+      <c r="N25" s="41">
+        <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="O25" s="43">
-        <f>AVERAGE(I25:K25)</f>
-        <v>1</v>
-      </c>
-      <c r="P25" s="43">
-        <f>AVERAGE(L25:M25)</f>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="55" t="s">
+      <c r="O25" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P25" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="52" t="s">
         <v>123</v>
       </c>
       <c r="S25" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="T25" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="54" t="str">
+      <c r="A26" s="51" t="str">
         <f>RAW!A50</f>
         <v>WI</v>
       </c>
-      <c r="B26" s="41" t="str">
+      <c r="B26" s="5" t="str">
         <f>RAW!B50</f>
         <v xml:space="preserve"> Wisconsin</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="6">
         <f>RAW!C50</f>
         <v>-1</v>
       </c>
@@ -4376,19 +4376,19 @@
         <f>RAW!D50</f>
         <v>0</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="6">
         <f>RAW!E50</f>
         <v>0</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="6">
         <f>RAW!F50</f>
         <v>-1</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="6">
         <f>RAW!G50</f>
         <v>-1</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="6">
         <f>RAW!H50</f>
         <v>1</v>
       </c>
@@ -4396,56 +4396,56 @@
         <f>RAW!I50</f>
         <v>1</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="6">
         <f>RAW!J50</f>
         <v>1</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="6">
         <f>RAW!K50</f>
         <v>1</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="6">
         <f>RAW!L50</f>
         <v>1</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="6">
         <f>RAW!M50</f>
         <v>1</v>
       </c>
-      <c r="N26" s="44">
-        <f>AVERAGE(D26:H26)</f>
+      <c r="N26" s="41">
+        <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="O26" s="43">
-        <f>AVERAGE(I26:K26)</f>
-        <v>1</v>
-      </c>
-      <c r="P26" s="43">
-        <f>AVERAGE(L26:M26)</f>
-        <v>1</v>
-      </c>
-      <c r="Q26" s="55" t="s">
+      <c r="O26" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P26" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="52" t="s">
         <v>122</v>
       </c>
       <c r="S26" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="T26" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="str">
+      <c r="A27" s="51" t="str">
         <f>RAW!A51</f>
         <v>WY</v>
       </c>
-      <c r="B27" s="41" t="str">
+      <c r="B27" s="5" t="str">
         <f>RAW!B51</f>
         <v xml:space="preserve"> Wyoming</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="6">
         <f>RAW!C51</f>
         <v>1</v>
       </c>
@@ -4453,19 +4453,19 @@
         <f>RAW!D51</f>
         <v>1</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="6">
         <f>RAW!E51</f>
         <v>1</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="6">
         <f>RAW!F51</f>
         <v>1</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="6">
         <f>RAW!G51</f>
         <v>1</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="6">
         <f>RAW!H51</f>
         <v>1</v>
       </c>
@@ -4473,56 +4473,56 @@
         <f>RAW!I51</f>
         <v>1</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="6">
         <f>RAW!J51</f>
         <v>1</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="6">
         <f>RAW!K51</f>
         <v>1</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="6">
         <f>RAW!L51</f>
         <v>1</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M27" s="6">
         <f>RAW!M51</f>
         <v>1</v>
       </c>
-      <c r="N27" s="44">
-        <f>AVERAGE(D27:H27)</f>
-        <v>1</v>
-      </c>
-      <c r="O27" s="43">
-        <f>AVERAGE(I27:K27)</f>
-        <v>1</v>
-      </c>
-      <c r="P27" s="43">
-        <f>AVERAGE(L27:M27)</f>
-        <v>1</v>
-      </c>
-      <c r="Q27" s="55" t="s">
+      <c r="N27" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O27" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P27" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="52" t="s">
         <v>123</v>
       </c>
       <c r="S27" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T27" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="54" t="str">
+      <c r="A28" s="51" t="str">
         <f>RAW!A16</f>
         <v>IA</v>
       </c>
-      <c r="B28" s="41" t="str">
+      <c r="B28" s="5" t="str">
         <f>RAW!B16</f>
         <v xml:space="preserve"> Iowa</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="6">
         <f>RAW!C16</f>
         <v>1</v>
       </c>
@@ -4530,19 +4530,19 @@
         <f>RAW!D16</f>
         <v>1</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="6">
         <f>RAW!E16</f>
         <v>1</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="6">
         <f>RAW!F16</f>
         <v>-1</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="6">
         <f>RAW!G16</f>
         <v>0</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="6">
         <f>RAW!H16</f>
         <v>-1</v>
       </c>
@@ -4550,56 +4550,56 @@
         <f>RAW!I16</f>
         <v>0</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J28" s="6">
         <f>RAW!J16</f>
         <v>1</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="6">
         <f>RAW!K16</f>
         <v>1</v>
       </c>
-      <c r="L28" s="42">
+      <c r="L28" s="6">
         <f>RAW!L16</f>
         <v>-1</v>
       </c>
-      <c r="M28" s="42">
+      <c r="M28" s="6">
         <f>RAW!M16</f>
         <v>1</v>
       </c>
-      <c r="N28" s="44">
-        <f>AVERAGE(D28:H28)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="43">
-        <f>AVERAGE(I28:K28)</f>
+      <c r="N28" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="23">
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="P28" s="43">
-        <f>AVERAGE(L28:M28)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="55" t="s">
+      <c r="P28" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="52" t="s">
         <v>128</v>
       </c>
       <c r="S28" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="T28" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.66666666666666663</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="54" t="str">
+      <c r="A29" s="51" t="str">
         <f>RAW!A28</f>
         <v>NE</v>
       </c>
-      <c r="B29" s="41" t="str">
+      <c r="B29" s="5" t="str">
         <f>RAW!B28</f>
         <v xml:space="preserve"> Nebraska</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="6">
         <f>RAW!C28</f>
         <v>1</v>
       </c>
@@ -4607,19 +4607,19 @@
         <f>RAW!D28</f>
         <v>1</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="6">
         <f>RAW!E28</f>
         <v>1</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="6">
         <f>RAW!F28</f>
         <v>1</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="6">
         <f>RAW!G28</f>
         <v>1</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="6">
         <f>RAW!H28</f>
         <v>1</v>
       </c>
@@ -4627,56 +4627,56 @@
         <f>RAW!I28</f>
         <v>1</v>
       </c>
-      <c r="J29" s="42">
+      <c r="J29" s="6">
         <f>RAW!J28</f>
         <v>0</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="6">
         <f>RAW!K28</f>
         <v>1</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="6">
         <f>RAW!L28</f>
         <v>1</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="6">
         <f>RAW!M28</f>
         <v>1</v>
       </c>
-      <c r="N29" s="44">
-        <f>AVERAGE(D29:H29)</f>
-        <v>1</v>
-      </c>
-      <c r="O29" s="43">
-        <f>AVERAGE(I29:K29)</f>
+      <c r="N29" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O29" s="23">
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="P29" s="43">
-        <f>AVERAGE(L29:M29)</f>
-        <v>1</v>
-      </c>
-      <c r="Q29" s="55" t="s">
+      <c r="P29" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="52" t="s">
         <v>130</v>
       </c>
       <c r="S29" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.33333333333333337</v>
       </c>
       <c r="T29" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="str">
+      <c r="A30" s="51" t="str">
         <f>RAW!A45</f>
         <v>UT</v>
       </c>
-      <c r="B30" s="41" t="str">
+      <c r="B30" s="5" t="str">
         <f>RAW!B45</f>
         <v xml:space="preserve"> Utah</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="6">
         <f>RAW!C45</f>
         <v>0</v>
       </c>
@@ -4684,19 +4684,19 @@
         <f>RAW!D45</f>
         <v>0</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="6">
         <f>RAW!E45</f>
         <v>0</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="6">
         <f>RAW!F45</f>
         <v>0</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="6">
         <f>RAW!G45</f>
         <v>-1</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="6">
         <f>RAW!H45</f>
         <v>0</v>
       </c>
@@ -4704,48 +4704,48 @@
         <f>RAW!I45</f>
         <v>0</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="6">
         <f>RAW!J45</f>
         <v>1</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="6">
         <f>RAW!K45</f>
         <v>1</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="6">
         <f>RAW!L45</f>
         <v>1</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="6">
         <f>RAW!M45</f>
         <v>1</v>
       </c>
-      <c r="N30" s="44">
-        <f>AVERAGE(D30:H30)</f>
+      <c r="N30" s="41">
+        <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="O30" s="43">
-        <f>AVERAGE(I30:K30)</f>
+      <c r="O30" s="23">
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="P30" s="43">
-        <f>AVERAGE(L30:M30)</f>
-        <v>1</v>
-      </c>
-      <c r="Q30" s="55" t="s">
+      <c r="P30" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="52" t="s">
         <v>122</v>
       </c>
       <c r="S30" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="T30" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="str">
+      <c r="A31" s="53" t="str">
         <f>RAW!A49</f>
         <v>WV</v>
       </c>
@@ -4797,40 +4797,40 @@
         <f>RAW!M49</f>
         <v>1</v>
       </c>
-      <c r="N31" s="45">
-        <f>AVERAGE(D31:H31)</f>
+      <c r="N31" s="42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O31" s="24">
-        <f>AVERAGE(I31:K31)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P31" s="24">
-        <f>AVERAGE(L31:M31)</f>
-        <v>1</v>
-      </c>
-      <c r="Q31" s="57" t="s">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="54" t="s">
         <v>125</v>
       </c>
       <c r="S31" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="T31" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="str">
+      <c r="A32" s="51" t="str">
         <f>RAW!A7</f>
         <v>CO</v>
       </c>
-      <c r="B32" s="41" t="str">
+      <c r="B32" s="5" t="str">
         <f>RAW!B7</f>
         <v xml:space="preserve"> Colorado</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="6">
         <f>RAW!C7</f>
         <v>1</v>
       </c>
@@ -4838,19 +4838,19 @@
         <f>RAW!D7</f>
         <v>1</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="6">
         <f>RAW!E7</f>
         <v>1</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="6">
         <f>RAW!F7</f>
         <v>0</v>
       </c>
-      <c r="G32" s="42">
+      <c r="G32" s="6">
         <f>RAW!G7</f>
         <v>-1</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="6">
         <f>RAW!H7</f>
         <v>0</v>
       </c>
@@ -4858,56 +4858,56 @@
         <f>RAW!I7</f>
         <v>0</v>
       </c>
-      <c r="J32" s="42">
+      <c r="J32" s="6">
         <f>RAW!J7</f>
         <v>0</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="6">
         <f>RAW!K7</f>
         <v>0</v>
       </c>
-      <c r="L32" s="42">
+      <c r="L32" s="6">
         <f>RAW!L7</f>
         <v>0</v>
       </c>
-      <c r="M32" s="42">
+      <c r="M32" s="6">
         <f>RAW!M7</f>
         <v>0</v>
       </c>
-      <c r="N32" s="44">
-        <f>AVERAGE(D32:H32)</f>
+      <c r="N32" s="41">
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="O32" s="43">
-        <f>AVERAGE(I32:K32)</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="43">
-        <f>AVERAGE(L32:M32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="55" t="s">
+      <c r="O32" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="52" t="s">
         <v>126</v>
       </c>
       <c r="S32" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.2</v>
       </c>
       <c r="T32" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="str">
+      <c r="A33" s="51" t="str">
         <f>RAW!A32</f>
         <v>NM</v>
       </c>
-      <c r="B33" s="41" t="str">
+      <c r="B33" s="5" t="str">
         <f>RAW!B32</f>
         <v xml:space="preserve"> New Mexico</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="6">
         <f>RAW!C32</f>
         <v>1</v>
       </c>
@@ -4915,19 +4915,19 @@
         <f>RAW!D32</f>
         <v>1</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="6">
         <f>RAW!E32</f>
         <v>1</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="6">
         <f>RAW!F32</f>
         <v>1</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="6">
         <f>RAW!G32</f>
         <v>-1</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="6">
         <f>RAW!H32</f>
         <v>0</v>
       </c>
@@ -4935,48 +4935,48 @@
         <f>RAW!I32</f>
         <v>0</v>
       </c>
-      <c r="J33" s="42">
+      <c r="J33" s="6">
         <f>RAW!J32</f>
         <v>0</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="6">
         <f>RAW!K32</f>
         <v>0</v>
       </c>
-      <c r="L33" s="42">
+      <c r="L33" s="6">
         <f>RAW!L32</f>
         <v>-1</v>
       </c>
-      <c r="M33" s="42">
+      <c r="M33" s="6">
         <f>RAW!M32</f>
         <v>0</v>
       </c>
-      <c r="N33" s="44">
-        <f>AVERAGE(D33:H33)</f>
+      <c r="N33" s="41">
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="O33" s="43">
-        <f>AVERAGE(I33:K33)</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="43">
-        <f>AVERAGE(L33:M33)</f>
+      <c r="O33" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="23">
+        <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="Q33" s="55" t="s">
+      <c r="Q33" s="52" t="s">
         <v>126</v>
       </c>
       <c r="S33" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.4</v>
       </c>
       <c r="T33" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="56" t="str">
+      <c r="A34" s="53" t="str">
         <f>RAW!A29</f>
         <v>NV</v>
       </c>
@@ -5028,40 +5028,40 @@
         <f>RAW!M29</f>
         <v>-1</v>
       </c>
-      <c r="N34" s="45">
-        <f>AVERAGE(D34:H34)</f>
+      <c r="N34" s="42">
+        <f t="shared" ref="N34:N51" si="5">AVERAGE(D34:H34)</f>
         <v>0.4</v>
       </c>
       <c r="O34" s="24">
-        <f>AVERAGE(I34:K34)</f>
+        <f t="shared" ref="O34:O51" si="6">AVERAGE(I34:K34)</f>
         <v>0</v>
       </c>
       <c r="P34" s="24">
-        <f>AVERAGE(L34:M34)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q34" s="57" t="s">
+        <f t="shared" ref="P34:P51" si="7">AVERAGE(L34:M34)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="54" t="s">
         <v>125</v>
       </c>
       <c r="S34" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.4</v>
       </c>
       <c r="T34" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="54" t="str">
+      <c r="A35" s="51" t="str">
         <f>RAW!A31</f>
         <v>NJ</v>
       </c>
-      <c r="B35" s="41" t="str">
+      <c r="B35" s="5" t="str">
         <f>RAW!B31</f>
         <v xml:space="preserve"> New Jersey</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="6">
         <f>RAW!C31</f>
         <v>0</v>
       </c>
@@ -5069,19 +5069,19 @@
         <f>RAW!D31</f>
         <v>0</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="6">
         <f>RAW!E31</f>
         <v>1</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="6">
         <f>RAW!F31</f>
         <v>0</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="6">
         <f>RAW!G31</f>
         <v>-1</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="6">
         <f>RAW!H31</f>
         <v>-1</v>
       </c>
@@ -5089,56 +5089,56 @@
         <f>RAW!I31</f>
         <v>1</v>
       </c>
-      <c r="J35" s="42">
+      <c r="J35" s="6">
         <f>RAW!J31</f>
         <v>0</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="6">
         <f>RAW!K31</f>
         <v>-1</v>
       </c>
-      <c r="L35" s="42">
+      <c r="L35" s="6">
         <f>RAW!L31</f>
         <v>-4</v>
       </c>
-      <c r="M35" s="42">
+      <c r="M35" s="6">
         <f>RAW!M31</f>
         <v>-3</v>
       </c>
-      <c r="N35" s="44">
-        <f>AVERAGE(D35:H35)</f>
+      <c r="N35" s="41">
+        <f t="shared" si="5"/>
         <v>-0.2</v>
       </c>
-      <c r="O35" s="43">
-        <f>AVERAGE(I35:K35)</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="43">
-        <f>AVERAGE(L35:M35)</f>
+      <c r="O35" s="23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="23">
+        <f t="shared" si="7"/>
         <v>-3.5</v>
       </c>
-      <c r="Q35" s="55" t="s">
+      <c r="Q35" s="52" t="s">
         <v>127</v>
       </c>
       <c r="S35" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="T35" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3.5</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="54" t="str">
+      <c r="A36" s="51" t="str">
         <f>RAW!A4</f>
         <v>AZ</v>
       </c>
-      <c r="B36" s="41" t="str">
+      <c r="B36" s="5" t="str">
         <f>RAW!B4</f>
         <v xml:space="preserve"> Arizona</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="6">
         <f>RAW!C4</f>
         <v>1</v>
       </c>
@@ -5146,19 +5146,19 @@
         <f>RAW!D4</f>
         <v>1</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="6">
         <f>RAW!E4</f>
         <v>1</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="6">
         <f>RAW!F4</f>
         <v>0</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="6">
         <f>RAW!G4</f>
         <v>-1</v>
       </c>
-      <c r="H36" s="42">
+      <c r="H36" s="6">
         <f>RAW!H4</f>
         <v>1</v>
       </c>
@@ -5166,56 +5166,56 @@
         <f>RAW!I4</f>
         <v>-1</v>
       </c>
-      <c r="J36" s="42">
+      <c r="J36" s="6">
         <f>RAW!J4</f>
         <v>0</v>
       </c>
-      <c r="K36" s="42">
+      <c r="K36" s="6">
         <f>RAW!K4</f>
         <v>0</v>
       </c>
-      <c r="L36" s="42">
+      <c r="L36" s="6">
         <f>RAW!L4</f>
         <v>0</v>
       </c>
-      <c r="M36" s="42">
+      <c r="M36" s="6">
         <f>RAW!M4</f>
         <v>-1</v>
       </c>
-      <c r="N36" s="44">
-        <f>AVERAGE(D36:H36)</f>
+      <c r="N36" s="41">
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="O36" s="43">
-        <f>AVERAGE(I36:K36)</f>
+      <c r="O36" s="23">
+        <f t="shared" si="6"/>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="P36" s="43">
-        <f>AVERAGE(L36:M36)</f>
+      <c r="P36" s="23">
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-      <c r="Q36" s="55" t="s">
+      <c r="Q36" s="52" t="s">
         <v>124</v>
       </c>
       <c r="S36" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.73333333333333339</v>
       </c>
       <c r="T36" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.16666666666666669</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="str">
+      <c r="A37" s="51" t="str">
         <f>RAW!A20</f>
         <v>ME</v>
       </c>
-      <c r="B37" s="41" t="str">
+      <c r="B37" s="5" t="str">
         <f>RAW!B20</f>
         <v xml:space="preserve"> Maine</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="6">
         <f>RAW!C20</f>
         <v>-1</v>
       </c>
@@ -5223,19 +5223,19 @@
         <f>RAW!D20</f>
         <v>-1</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="6">
         <f>RAW!E20</f>
         <v>-1</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="6">
         <f>RAW!F20</f>
         <v>-1</v>
       </c>
-      <c r="G37" s="42">
+      <c r="G37" s="6">
         <f>RAW!G20</f>
         <v>-1</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="6">
         <f>RAW!H20</f>
         <v>-1</v>
       </c>
@@ -5243,56 +5243,56 @@
         <f>RAW!I20</f>
         <v>-1</v>
       </c>
-      <c r="J37" s="42">
+      <c r="J37" s="6">
         <f>RAW!J20</f>
         <v>0</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="6">
         <f>RAW!K20</f>
         <v>0</v>
       </c>
-      <c r="L37" s="42">
+      <c r="L37" s="6">
         <f>RAW!L20</f>
         <v>-1</v>
       </c>
-      <c r="M37" s="42">
+      <c r="M37" s="6">
         <f>RAW!M20</f>
         <v>-1</v>
       </c>
-      <c r="N37" s="44">
-        <f>AVERAGE(D37:H37)</f>
-        <v>-1</v>
-      </c>
-      <c r="O37" s="43">
-        <f>AVERAGE(I37:K37)</f>
+      <c r="N37" s="41">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="O37" s="23">
+        <f t="shared" si="6"/>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="P37" s="43">
-        <f>AVERAGE(L37:M37)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q37" s="55" t="s">
+      <c r="P37" s="23">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="52" t="s">
         <v>128</v>
       </c>
       <c r="S37" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="T37" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.66666666666666674</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="str">
+      <c r="A38" s="51" t="str">
         <f>RAW!A24</f>
         <v>MN</v>
       </c>
-      <c r="B38" s="41" t="str">
+      <c r="B38" s="5" t="str">
         <f>RAW!B24</f>
         <v xml:space="preserve"> Minnesota</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="6">
         <f>RAW!C24</f>
         <v>-1</v>
       </c>
@@ -5300,19 +5300,19 @@
         <f>RAW!D24</f>
         <v>0</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="6">
         <f>RAW!E24</f>
         <v>0</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="6">
         <f>RAW!F24</f>
         <v>-1</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="6">
         <f>RAW!G24</f>
         <v>0</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="6">
         <f>RAW!H24</f>
         <v>0</v>
       </c>
@@ -5320,56 +5320,56 @@
         <f>RAW!I24</f>
         <v>0</v>
       </c>
-      <c r="J38" s="42">
+      <c r="J38" s="6">
         <f>RAW!J24</f>
         <v>-1</v>
       </c>
-      <c r="K38" s="42">
+      <c r="K38" s="6">
         <f>RAW!K24</f>
         <v>0</v>
       </c>
-      <c r="L38" s="42">
+      <c r="L38" s="6">
         <f>RAW!L24</f>
         <v>-1</v>
       </c>
-      <c r="M38" s="42">
+      <c r="M38" s="6">
         <f>RAW!M24</f>
         <v>0</v>
       </c>
-      <c r="N38" s="44">
-        <f>AVERAGE(D38:H38)</f>
+      <c r="N38" s="41">
+        <f t="shared" si="5"/>
         <v>-0.2</v>
       </c>
-      <c r="O38" s="43">
-        <f>AVERAGE(I38:K38)</f>
+      <c r="O38" s="23">
+        <f t="shared" si="6"/>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="P38" s="43">
-        <f>AVERAGE(L38:M38)</f>
+      <c r="P38" s="23">
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-      <c r="Q38" s="55" t="s">
+      <c r="Q38" s="52" t="s">
         <v>126</v>
       </c>
       <c r="S38" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.1333333333333333</v>
       </c>
       <c r="T38" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.16666666666666669</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="str">
+      <c r="A39" s="51" t="str">
         <f>RAW!A12</f>
         <v>HI</v>
       </c>
-      <c r="B39" s="41" t="str">
+      <c r="B39" s="5" t="str">
         <f>RAW!B12</f>
         <v xml:space="preserve"> Hawaii</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="6">
         <f>RAW!C12</f>
         <v>-1</v>
       </c>
@@ -5377,19 +5377,19 @@
         <f>RAW!D12</f>
         <v>-1</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="6">
         <f>RAW!E12</f>
         <v>-1</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="6">
         <f>RAW!F12</f>
         <v>-1</v>
       </c>
-      <c r="G39" s="42">
+      <c r="G39" s="6">
         <f>RAW!G12</f>
         <v>0</v>
       </c>
-      <c r="H39" s="42">
+      <c r="H39" s="6">
         <f>RAW!H12</f>
         <v>-1</v>
       </c>
@@ -5397,56 +5397,56 @@
         <f>RAW!I12</f>
         <v>-1</v>
       </c>
-      <c r="J39" s="42">
+      <c r="J39" s="6">
         <f>RAW!J12</f>
         <v>-1</v>
       </c>
-      <c r="K39" s="42">
+      <c r="K39" s="6">
         <f>RAW!K12</f>
         <v>0</v>
       </c>
-      <c r="L39" s="42">
+      <c r="L39" s="6">
         <f>RAW!L12</f>
         <v>0</v>
       </c>
-      <c r="M39" s="42">
+      <c r="M39" s="6">
         <f>RAW!M12</f>
         <v>-1</v>
       </c>
-      <c r="N39" s="44">
-        <f>AVERAGE(D39:H39)</f>
+      <c r="N39" s="41">
+        <f t="shared" si="5"/>
         <v>-0.8</v>
       </c>
-      <c r="O39" s="43">
-        <f>AVERAGE(I39:K39)</f>
+      <c r="O39" s="23">
+        <f t="shared" si="6"/>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="P39" s="43">
-        <f>AVERAGE(L39:M39)</f>
+      <c r="P39" s="23">
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-      <c r="Q39" s="55" t="s">
+      <c r="Q39" s="52" t="s">
         <v>127</v>
       </c>
       <c r="S39" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.13333333333333341</v>
       </c>
       <c r="T39" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="str">
+      <c r="A40" s="51" t="str">
         <f>RAW!A30</f>
         <v>NH</v>
       </c>
-      <c r="B40" s="41" t="str">
+      <c r="B40" s="5" t="str">
         <f>RAW!B30</f>
         <v xml:space="preserve"> New Hampshire</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="6">
         <f>RAW!C30</f>
         <v>1</v>
       </c>
@@ -5454,19 +5454,19 @@
         <f>RAW!D30</f>
         <v>1</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="6">
         <f>RAW!E30</f>
         <v>1</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="6">
         <f>RAW!F30</f>
         <v>-1</v>
       </c>
-      <c r="G40" s="42">
+      <c r="G40" s="6">
         <f>RAW!G30</f>
         <v>-1</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="6">
         <f>RAW!H30</f>
         <v>1</v>
       </c>
@@ -5474,56 +5474,56 @@
         <f>RAW!I30</f>
         <v>-1</v>
       </c>
-      <c r="J40" s="42">
+      <c r="J40" s="6">
         <f>RAW!J30</f>
         <v>0</v>
       </c>
-      <c r="K40" s="42">
+      <c r="K40" s="6">
         <f>RAW!K30</f>
         <v>-1</v>
       </c>
-      <c r="L40" s="42">
+      <c r="L40" s="6">
         <f>RAW!L30</f>
         <v>-1</v>
       </c>
-      <c r="M40" s="42">
+      <c r="M40" s="6">
         <f>RAW!M30</f>
         <v>-1</v>
       </c>
-      <c r="N40" s="44">
-        <f>AVERAGE(D40:H40)</f>
+      <c r="N40" s="41">
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="O40" s="43">
-        <f>AVERAGE(I40:K40)</f>
+      <c r="O40" s="23">
+        <f t="shared" si="6"/>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="P40" s="43">
-        <f>AVERAGE(L40:M40)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q40" s="55" t="s">
+      <c r="P40" s="23">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="Q40" s="52" t="s">
         <v>122</v>
       </c>
       <c r="S40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.8666666666666667</v>
       </c>
       <c r="T40" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.33333333333333337</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="str">
+      <c r="A41" s="51" t="str">
         <f>RAW!A9</f>
         <v>DE</v>
       </c>
-      <c r="B41" s="41" t="str">
+      <c r="B41" s="5" t="str">
         <f>RAW!B9</f>
         <v xml:space="preserve"> Delaware</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="6">
         <f>RAW!C9</f>
         <v>1</v>
       </c>
@@ -5531,19 +5531,19 @@
         <f>RAW!D9</f>
         <v>1</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="6">
         <f>RAW!E9</f>
         <v>1</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="6">
         <f>RAW!F9</f>
         <v>1</v>
       </c>
-      <c r="G41" s="42">
+      <c r="G41" s="6">
         <f>RAW!G9</f>
         <v>1</v>
       </c>
-      <c r="H41" s="42">
+      <c r="H41" s="6">
         <f>RAW!H9</f>
         <v>-1</v>
       </c>
@@ -5551,56 +5551,56 @@
         <f>RAW!I9</f>
         <v>-1</v>
       </c>
-      <c r="J41" s="42">
+      <c r="J41" s="6">
         <f>RAW!J9</f>
         <v>-1</v>
       </c>
-      <c r="K41" s="42">
+      <c r="K41" s="6">
         <f>RAW!K9</f>
         <v>-1</v>
       </c>
-      <c r="L41" s="42">
+      <c r="L41" s="6">
         <f>RAW!L9</f>
         <v>-1</v>
       </c>
-      <c r="M41" s="42">
+      <c r="M41" s="6">
         <f>RAW!M9</f>
         <v>-1</v>
       </c>
-      <c r="N41" s="44">
-        <f>AVERAGE(D41:H41)</f>
+      <c r="N41" s="41">
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="O41" s="43">
-        <f>AVERAGE(I41:K41)</f>
-        <v>-1</v>
-      </c>
-      <c r="P41" s="43">
-        <f>AVERAGE(L41:M41)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q41" s="55" t="s">
+      <c r="O41" s="23">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="P41" s="23">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="Q41" s="52" t="s">
         <v>123</v>
       </c>
       <c r="S41" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.6</v>
       </c>
       <c r="T41" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" s="54" t="str">
+      <c r="A42" s="51" t="str">
         <f>RAW!A38</f>
         <v>OR</v>
       </c>
-      <c r="B42" s="41" t="str">
+      <c r="B42" s="5" t="str">
         <f>RAW!B38</f>
         <v xml:space="preserve"> Oregon</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="6">
         <f>RAW!C38</f>
         <v>-1</v>
       </c>
@@ -5608,19 +5608,19 @@
         <f>RAW!D38</f>
         <v>-1</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="6">
         <f>RAW!E38</f>
         <v>-1</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="6">
         <f>RAW!F38</f>
         <v>-1</v>
       </c>
-      <c r="G42" s="42">
+      <c r="G42" s="6">
         <f>RAW!G38</f>
         <v>-1</v>
       </c>
-      <c r="H42" s="42">
+      <c r="H42" s="6">
         <f>RAW!H38</f>
         <v>-1</v>
       </c>
@@ -5628,56 +5628,56 @@
         <f>RAW!I38</f>
         <v>-1</v>
       </c>
-      <c r="J42" s="42">
+      <c r="J42" s="6">
         <f>RAW!J38</f>
         <v>-1</v>
       </c>
-      <c r="K42" s="42">
+      <c r="K42" s="6">
         <f>RAW!K38</f>
         <v>-1</v>
       </c>
-      <c r="L42" s="42">
+      <c r="L42" s="6">
         <f>RAW!L38</f>
         <v>-1</v>
       </c>
-      <c r="M42" s="42">
+      <c r="M42" s="6">
         <f>RAW!M38</f>
         <v>-1</v>
       </c>
-      <c r="N42" s="44">
-        <f>AVERAGE(D42:H42)</f>
-        <v>-1</v>
-      </c>
-      <c r="O42" s="43">
-        <f>AVERAGE(I42:K42)</f>
-        <v>-1</v>
-      </c>
-      <c r="P42" s="43">
-        <f>AVERAGE(L42:M42)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q42" s="55" t="s">
+      <c r="N42" s="41">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="O42" s="23">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="P42" s="23">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="Q42" s="52" t="s">
         <v>128</v>
       </c>
       <c r="S42" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T42" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="str">
+      <c r="A43" s="51" t="str">
         <f>RAW!A40</f>
         <v>RI</v>
       </c>
-      <c r="B43" s="41" t="str">
+      <c r="B43" s="5" t="str">
         <f>RAW!B40</f>
         <v xml:space="preserve"> Rhode Island</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="6">
         <f>RAW!C40</f>
         <v>-1</v>
       </c>
@@ -5685,19 +5685,19 @@
         <f>RAW!D40</f>
         <v>-1</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43" s="6">
         <f>RAW!E40</f>
         <v>-1</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="6">
         <f>RAW!F40</f>
         <v>-1</v>
       </c>
-      <c r="G43" s="42">
+      <c r="G43" s="6">
         <f>RAW!G40</f>
         <v>-1</v>
       </c>
-      <c r="H43" s="42">
+      <c r="H43" s="6">
         <f>RAW!H40</f>
         <v>-1</v>
       </c>
@@ -5705,56 +5705,56 @@
         <f>RAW!I40</f>
         <v>-1</v>
       </c>
-      <c r="J43" s="42">
+      <c r="J43" s="6">
         <f>RAW!J40</f>
         <v>-1</v>
       </c>
-      <c r="K43" s="42">
+      <c r="K43" s="6">
         <f>RAW!K40</f>
         <v>-1</v>
       </c>
-      <c r="L43" s="42">
+      <c r="L43" s="6">
         <f>RAW!L40</f>
         <v>-1</v>
       </c>
-      <c r="M43" s="42">
+      <c r="M43" s="6">
         <f>RAW!M40</f>
         <v>-1</v>
       </c>
-      <c r="N43" s="44">
-        <f>AVERAGE(D43:H43)</f>
-        <v>-1</v>
-      </c>
-      <c r="O43" s="43">
-        <f>AVERAGE(I43:K43)</f>
-        <v>-1</v>
-      </c>
-      <c r="P43" s="43">
-        <f>AVERAGE(L43:M43)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q43" s="55" t="s">
+      <c r="N43" s="41">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="O43" s="23">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="P43" s="23">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="Q43" s="52" t="s">
         <v>125</v>
       </c>
       <c r="S43" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T43" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="54" t="str">
+      <c r="A44" s="51" t="str">
         <f>RAW!A46</f>
         <v>VT</v>
       </c>
-      <c r="B44" s="41" t="str">
+      <c r="B44" s="5" t="str">
         <f>RAW!B46</f>
         <v xml:space="preserve"> Vermont</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="6">
         <f>RAW!C46</f>
         <v>0</v>
       </c>
@@ -5762,19 +5762,19 @@
         <f>RAW!D46</f>
         <v>0</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="6">
         <f>RAW!E46</f>
         <v>0</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="6">
         <f>RAW!F46</f>
         <v>-1</v>
       </c>
-      <c r="G44" s="42">
+      <c r="G44" s="6">
         <f>RAW!G46</f>
         <v>-1</v>
       </c>
-      <c r="H44" s="42">
+      <c r="H44" s="6">
         <f>RAW!H46</f>
         <v>-1</v>
       </c>
@@ -5782,56 +5782,56 @@
         <f>RAW!I46</f>
         <v>-1</v>
       </c>
-      <c r="J44" s="42">
+      <c r="J44" s="6">
         <f>RAW!J46</f>
         <v>-1</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K44" s="6">
         <f>RAW!K46</f>
         <v>-1</v>
       </c>
-      <c r="L44" s="42">
+      <c r="L44" s="6">
         <f>RAW!L46</f>
         <v>-1</v>
       </c>
-      <c r="M44" s="42">
+      <c r="M44" s="6">
         <f>RAW!M46</f>
         <v>-1</v>
       </c>
-      <c r="N44" s="44">
-        <f>AVERAGE(D44:H44)</f>
+      <c r="N44" s="41">
+        <f t="shared" si="5"/>
         <v>-0.6</v>
       </c>
-      <c r="O44" s="43">
-        <f>AVERAGE(I44:K44)</f>
-        <v>-1</v>
-      </c>
-      <c r="P44" s="43">
-        <f>AVERAGE(L44:M44)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q44" s="55" t="s">
+      <c r="O44" s="23">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="P44" s="23">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="Q44" s="52" t="s">
         <v>123</v>
       </c>
       <c r="S44" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.4</v>
       </c>
       <c r="T44" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="54" t="str">
+      <c r="A45" s="51" t="str">
         <f>RAW!A48</f>
         <v>WA</v>
       </c>
-      <c r="B45" s="41" t="str">
+      <c r="B45" s="5" t="str">
         <f>RAW!B48</f>
         <v xml:space="preserve"> Washington</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="6">
         <f>RAW!C48</f>
         <v>-1</v>
       </c>
@@ -5839,19 +5839,19 @@
         <f>RAW!D48</f>
         <v>-1</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45" s="6">
         <f>RAW!E48</f>
         <v>-1</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="6">
         <f>RAW!F48</f>
         <v>-1</v>
       </c>
-      <c r="G45" s="42">
+      <c r="G45" s="6">
         <f>RAW!G48</f>
         <v>-1</v>
       </c>
-      <c r="H45" s="42">
+      <c r="H45" s="6">
         <f>RAW!H48</f>
         <v>0</v>
       </c>
@@ -5859,56 +5859,56 @@
         <f>RAW!I48</f>
         <v>-1</v>
       </c>
-      <c r="J45" s="42">
+      <c r="J45" s="6">
         <f>RAW!J48</f>
         <v>-1</v>
       </c>
-      <c r="K45" s="42">
+      <c r="K45" s="6">
         <f>RAW!K48</f>
         <v>-1</v>
       </c>
-      <c r="L45" s="42">
+      <c r="L45" s="6">
         <f>RAW!L48</f>
         <v>-1</v>
       </c>
-      <c r="M45" s="42">
+      <c r="M45" s="6">
         <f>RAW!M48</f>
         <v>-1</v>
       </c>
-      <c r="N45" s="44">
-        <f>AVERAGE(D45:H45)</f>
+      <c r="N45" s="41">
+        <f t="shared" si="5"/>
         <v>-0.8</v>
       </c>
-      <c r="O45" s="43">
-        <f>AVERAGE(I45:K45)</f>
-        <v>-1</v>
-      </c>
-      <c r="P45" s="43">
-        <f>AVERAGE(L45:M45)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q45" s="55" t="s">
+      <c r="O45" s="23">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="P45" s="23">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="Q45" s="52" t="s">
         <v>124</v>
       </c>
       <c r="S45" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="T45" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="54" t="str">
+      <c r="A46" s="51" t="str">
         <f>RAW!A14</f>
         <v>IL</v>
       </c>
-      <c r="B46" s="41" t="str">
+      <c r="B46" s="5" t="str">
         <f>RAW!B14</f>
         <v xml:space="preserve"> Illinois</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="6">
         <f>RAW!C14</f>
         <v>1</v>
       </c>
@@ -5916,19 +5916,19 @@
         <f>RAW!D14</f>
         <v>1</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="6">
         <f>RAW!E14</f>
         <v>0</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="6">
         <f>RAW!F14</f>
         <v>0</v>
       </c>
-      <c r="G46" s="42">
+      <c r="G46" s="6">
         <f>RAW!G14</f>
         <v>0</v>
       </c>
-      <c r="H46" s="42">
+      <c r="H46" s="6">
         <f>RAW!H14</f>
         <v>2</v>
       </c>
@@ -5936,56 +5936,56 @@
         <f>RAW!I14</f>
         <v>-2</v>
       </c>
-      <c r="J46" s="42">
+      <c r="J46" s="6">
         <f>RAW!J14</f>
         <v>-1</v>
       </c>
-      <c r="K46" s="42">
+      <c r="K46" s="6">
         <f>RAW!K14</f>
         <v>-1</v>
       </c>
-      <c r="L46" s="42">
+      <c r="L46" s="6">
         <f>RAW!L14</f>
         <v>-2</v>
       </c>
-      <c r="M46" s="42">
+      <c r="M46" s="6">
         <f>RAW!M14</f>
         <v>-3</v>
       </c>
-      <c r="N46" s="44">
-        <f>AVERAGE(D46:H46)</f>
+      <c r="N46" s="41">
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="O46" s="43">
-        <f>AVERAGE(I46:K46)</f>
+      <c r="O46" s="23">
+        <f t="shared" si="6"/>
         <v>-1.3333333333333333</v>
       </c>
-      <c r="P46" s="43">
-        <f>AVERAGE(L46:M46)</f>
+      <c r="P46" s="23">
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
-      <c r="Q46" s="55" t="s">
+      <c r="Q46" s="52" t="s">
         <v>125</v>
       </c>
       <c r="S46" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.9333333333333331</v>
       </c>
       <c r="T46" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.1666666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="str">
+      <c r="A47" s="51" t="str">
         <f>RAW!A33</f>
         <v>NY</v>
       </c>
-      <c r="B47" s="41" t="str">
+      <c r="B47" s="5" t="str">
         <f>RAW!B33</f>
         <v xml:space="preserve"> New York</v>
       </c>
-      <c r="C47" s="42">
+      <c r="C47" s="6">
         <f>RAW!C33</f>
         <v>-1</v>
       </c>
@@ -5993,19 +5993,19 @@
         <f>RAW!D33</f>
         <v>-3</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E47" s="6">
         <f>RAW!E33</f>
         <v>-2</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="6">
         <f>RAW!F33</f>
         <v>-4</v>
       </c>
-      <c r="G47" s="42">
+      <c r="G47" s="6">
         <f>RAW!G33</f>
         <v>-6</v>
       </c>
-      <c r="H47" s="42">
+      <c r="H47" s="6">
         <f>RAW!H33</f>
         <v>-3</v>
       </c>
@@ -6013,56 +6013,56 @@
         <f>RAW!I33</f>
         <v>-2</v>
       </c>
-      <c r="J47" s="42">
+      <c r="J47" s="6">
         <f>RAW!J33</f>
         <v>-2</v>
       </c>
-      <c r="K47" s="42">
+      <c r="K47" s="6">
         <f>RAW!K33</f>
         <v>-1</v>
       </c>
-      <c r="L47" s="42">
+      <c r="L47" s="6">
         <f>RAW!L33</f>
         <v>-3</v>
       </c>
-      <c r="M47" s="42">
+      <c r="M47" s="6">
         <f>RAW!M33</f>
         <v>-2</v>
       </c>
-      <c r="N47" s="44">
-        <f>AVERAGE(D47:H47)</f>
+      <c r="N47" s="41">
+        <f t="shared" si="5"/>
         <v>-3.6</v>
       </c>
-      <c r="O47" s="43">
-        <f>AVERAGE(I47:K47)</f>
+      <c r="O47" s="23">
+        <f t="shared" si="6"/>
         <v>-1.6666666666666667</v>
       </c>
-      <c r="P47" s="43">
-        <f>AVERAGE(L47:M47)</f>
+      <c r="P47" s="23">
+        <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
-      <c r="Q47" s="55" t="s">
+      <c r="Q47" s="52" t="s">
         <v>129</v>
       </c>
       <c r="S47" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.9333333333333333</v>
       </c>
       <c r="T47" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.83333333333333326</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="54" t="str">
+      <c r="A48" s="51" t="str">
         <f>RAW!A8</f>
         <v>CT</v>
       </c>
-      <c r="B48" s="41" t="str">
+      <c r="B48" s="5" t="str">
         <f>RAW!B8</f>
         <v xml:space="preserve"> Connecticut</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="6">
         <f>RAW!C8</f>
         <v>0</v>
       </c>
@@ -6070,19 +6070,19 @@
         <f>RAW!D8</f>
         <v>1</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="6">
         <f>RAW!E8</f>
         <v>1</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F48" s="6">
         <f>RAW!F8</f>
         <v>-1</v>
       </c>
-      <c r="G48" s="42">
+      <c r="G48" s="6">
         <f>RAW!G8</f>
         <v>-2</v>
       </c>
-      <c r="H48" s="42">
+      <c r="H48" s="6">
         <f>RAW!H8</f>
         <v>-2</v>
       </c>
@@ -6090,56 +6090,56 @@
         <f>RAW!I8</f>
         <v>-2</v>
       </c>
-      <c r="J48" s="42">
+      <c r="J48" s="6">
         <f>RAW!J8</f>
         <v>-2</v>
       </c>
-      <c r="K48" s="42">
+      <c r="K48" s="6">
         <f>RAW!K8</f>
         <v>-2</v>
       </c>
-      <c r="L48" s="42">
+      <c r="L48" s="6">
         <f>RAW!L8</f>
         <v>-2</v>
       </c>
-      <c r="M48" s="42">
+      <c r="M48" s="6">
         <f>RAW!M8</f>
         <v>-2</v>
       </c>
-      <c r="N48" s="44">
-        <f>AVERAGE(D48:H48)</f>
+      <c r="N48" s="41">
+        <f t="shared" si="5"/>
         <v>-0.6</v>
       </c>
-      <c r="O48" s="43">
-        <f>AVERAGE(I48:K48)</f>
+      <c r="O48" s="23">
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="P48" s="43">
-        <f>AVERAGE(L48:M48)</f>
+      <c r="P48" s="23">
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="Q48" s="55" t="s">
+      <c r="Q48" s="52" t="s">
         <v>126</v>
       </c>
       <c r="S48" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.4</v>
       </c>
       <c r="T48" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="54" t="str">
+      <c r="A49" s="51" t="str">
         <f>RAW!A21</f>
         <v>MD</v>
       </c>
-      <c r="B49" s="41" t="str">
+      <c r="B49" s="5" t="str">
         <f>RAW!B21</f>
         <v xml:space="preserve"> Maryland</v>
       </c>
-      <c r="C49" s="42">
+      <c r="C49" s="6">
         <f>RAW!C21</f>
         <v>0</v>
       </c>
@@ -6147,19 +6147,19 @@
         <f>RAW!D21</f>
         <v>-2</v>
       </c>
-      <c r="E49" s="42">
+      <c r="E49" s="6">
         <f>RAW!E21</f>
         <v>-1</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="6">
         <f>RAW!F21</f>
         <v>-1</v>
       </c>
-      <c r="G49" s="42">
+      <c r="G49" s="6">
         <f>RAW!G21</f>
         <v>-2</v>
       </c>
-      <c r="H49" s="42">
+      <c r="H49" s="6">
         <f>RAW!H21</f>
         <v>-1</v>
       </c>
@@ -6167,56 +6167,56 @@
         <f>RAW!I21</f>
         <v>-2</v>
       </c>
-      <c r="J49" s="42">
+      <c r="J49" s="6">
         <f>RAW!J21</f>
         <v>-2</v>
       </c>
-      <c r="K49" s="42">
+      <c r="K49" s="6">
         <f>RAW!K21</f>
         <v>-2</v>
       </c>
-      <c r="L49" s="42">
+      <c r="L49" s="6">
         <f>RAW!L21</f>
         <v>-2</v>
       </c>
-      <c r="M49" s="42">
+      <c r="M49" s="6">
         <f>RAW!M21</f>
         <v>-2</v>
       </c>
-      <c r="N49" s="44">
-        <f>AVERAGE(D49:H49)</f>
+      <c r="N49" s="41">
+        <f t="shared" si="5"/>
         <v>-1.4</v>
       </c>
-      <c r="O49" s="43">
-        <f>AVERAGE(I49:K49)</f>
+      <c r="O49" s="23">
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="P49" s="43">
-        <f>AVERAGE(L49:M49)</f>
+      <c r="P49" s="23">
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="Q49" s="55" t="s">
+      <c r="Q49" s="52" t="s">
         <v>125</v>
       </c>
       <c r="S49" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.60000000000000009</v>
       </c>
       <c r="T49" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" s="54" t="str">
+      <c r="A50" s="51" t="str">
         <f>RAW!A22</f>
         <v>MA</v>
       </c>
-      <c r="B50" s="41" t="str">
+      <c r="B50" s="5" t="str">
         <f>RAW!B22</f>
         <v xml:space="preserve"> Massachusetts</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="6">
         <f>RAW!C22</f>
         <v>-3</v>
       </c>
@@ -6224,19 +6224,19 @@
         <f>RAW!D22</f>
         <v>-3</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="6">
         <f>RAW!E22</f>
         <v>-3</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50" s="6">
         <f>RAW!F22</f>
         <v>-3</v>
       </c>
-      <c r="G50" s="42">
+      <c r="G50" s="6">
         <f>RAW!G22</f>
         <v>-3</v>
       </c>
-      <c r="H50" s="42">
+      <c r="H50" s="6">
         <f>RAW!H22</f>
         <v>-4</v>
       </c>
@@ -6244,120 +6244,120 @@
         <f>RAW!I22</f>
         <v>-3</v>
       </c>
-      <c r="J50" s="42">
+      <c r="J50" s="6">
         <f>RAW!J22</f>
         <v>-3</v>
       </c>
-      <c r="K50" s="42">
+      <c r="K50" s="6">
         <f>RAW!K22</f>
         <v>-3</v>
       </c>
-      <c r="L50" s="42">
+      <c r="L50" s="6">
         <f>RAW!L22</f>
         <v>-3</v>
       </c>
-      <c r="M50" s="42">
+      <c r="M50" s="6">
         <f>RAW!M22</f>
         <v>-3</v>
       </c>
-      <c r="N50" s="44">
-        <f>AVERAGE(D50:H50)</f>
+      <c r="N50" s="41">
+        <f t="shared" si="5"/>
         <v>-3.2</v>
       </c>
-      <c r="O50" s="43">
-        <f>AVERAGE(I50:K50)</f>
+      <c r="O50" s="23">
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="P50" s="43">
-        <f>AVERAGE(L50:M50)</f>
+      <c r="P50" s="23">
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
-      <c r="Q50" s="55" t="s">
+      <c r="Q50" s="52" t="s">
         <v>125</v>
       </c>
       <c r="S50" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="T50" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58" t="str">
+      <c r="A51" s="55" t="str">
         <f>RAW!A6</f>
         <v>CA</v>
       </c>
-      <c r="B51" s="59" t="str">
+      <c r="B51" s="56" t="str">
         <f>RAW!B6</f>
         <v xml:space="preserve"> California</v>
       </c>
-      <c r="C51" s="60">
+      <c r="C51" s="57">
         <f>RAW!C6</f>
         <v>-3</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="58">
         <f>RAW!D6</f>
         <v>-5</v>
       </c>
-      <c r="E51" s="60">
+      <c r="E51" s="57">
         <f>RAW!E6</f>
         <v>-4</v>
       </c>
-      <c r="F51" s="60">
+      <c r="F51" s="57">
         <f>RAW!F6</f>
         <v>-3</v>
       </c>
-      <c r="G51" s="60">
+      <c r="G51" s="57">
         <f>RAW!G6</f>
         <v>-2</v>
       </c>
-      <c r="H51" s="60">
+      <c r="H51" s="57">
         <f>RAW!H6</f>
         <v>-4</v>
       </c>
-      <c r="I51" s="61">
+      <c r="I51" s="58">
         <f>RAW!I6</f>
         <v>-7</v>
       </c>
-      <c r="J51" s="60">
+      <c r="J51" s="57">
         <f>RAW!J6</f>
         <v>-9</v>
       </c>
-      <c r="K51" s="60">
+      <c r="K51" s="57">
         <f>RAW!K6</f>
         <v>-6</v>
       </c>
-      <c r="L51" s="60">
+      <c r="L51" s="57">
         <f>RAW!L6</f>
         <v>-12</v>
       </c>
-      <c r="M51" s="60">
+      <c r="M51" s="57">
         <f>RAW!M6</f>
         <v>-9</v>
       </c>
-      <c r="N51" s="62">
-        <f>AVERAGE(D51:H51)</f>
+      <c r="N51" s="59">
+        <f t="shared" si="5"/>
         <v>-3.6</v>
       </c>
-      <c r="O51" s="63">
-        <f>AVERAGE(I51:K51)</f>
+      <c r="O51" s="60">
+        <f t="shared" si="6"/>
         <v>-7.333333333333333</v>
       </c>
-      <c r="P51" s="63">
-        <f>AVERAGE(L51:M51)</f>
+      <c r="P51" s="60">
+        <f t="shared" si="7"/>
         <v>-10.5</v>
       </c>
-      <c r="Q51" s="64" t="s">
+      <c r="Q51" s="61" t="s">
         <v>124</v>
       </c>
       <c r="S51" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3.7333333333333329</v>
       </c>
       <c r="T51" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3.166666666666667</v>
       </c>
     </row>
@@ -6365,52 +6365,48 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="D52" s="15"/>
-      <c r="I52" s="83"/>
-      <c r="M52" s="42"/>
-      <c r="Q52" s="65"/>
-    </row>
-    <row r="53" spans="1:20" s="93" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q52" s="62"/>
+    </row>
+    <row r="53" spans="1:20" s="86" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
     </row>
     <row r="54" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="D54" s="15"/>
-      <c r="I54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="Q54" s="66"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
-      <c r="D55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="89" t="str">
+      <c r="M55" s="81"/>
+      <c r="N55" s="82" t="str">
         <f>N1</f>
         <v>'02-10</v>
       </c>
-      <c r="O55" s="89" t="str">
-        <f t="shared" ref="O55:P55" si="2">O1</f>
+      <c r="O55" s="82" t="str">
+        <f t="shared" ref="O55:P55" si="8">O1</f>
         <v>'12-16</v>
       </c>
-      <c r="P55" s="90" t="str">
-        <f t="shared" si="2"/>
+      <c r="P55" s="83" t="str">
+        <f t="shared" si="8"/>
         <v>'18-20</v>
       </c>
-      <c r="Q55" s="66"/>
       <c r="S55" s="22" t="str">
         <f>S1</f>
         <v>Δ1</v>
@@ -6421,22 +6417,22 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M56" s="84" t="s">
+      <c r="M56" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="N56" s="43">
+      <c r="N56" s="23">
         <f>SUM(N2:N31)</f>
         <v>18.399999999999999</v>
       </c>
-      <c r="O56" s="43">
+      <c r="O56" s="23">
         <f>SUM(O2:O31)</f>
         <v>46.333333333333329</v>
       </c>
-      <c r="P56" s="81">
+      <c r="P56" s="76">
         <f>SUM(P2:P31)</f>
         <v>35.5</v>
       </c>
-      <c r="Q56" s="67"/>
+      <c r="Q56" s="63"/>
       <c r="S56" s="23">
         <f>O56-N56</f>
         <v>27.93333333333333</v>
@@ -6447,59 +6443,58 @@
       </c>
     </row>
     <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
-      <c r="M57" s="84" t="s">
+      <c r="M57" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="N57" s="43">
+      <c r="N57" s="23">
         <f>SUM(N16:N31)</f>
         <v>6.2</v>
       </c>
-      <c r="O57" s="43">
-        <f t="shared" ref="O57:P57" si="3">SUM(O16:O31)</f>
+      <c r="O57" s="23">
+        <f t="shared" ref="O57:P57" si="9">SUM(O16:O31)</f>
         <v>14.666666666666664</v>
       </c>
-      <c r="P57" s="81">
-        <f t="shared" si="3"/>
+      <c r="P57" s="76">
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="Q57" s="67"/>
+      <c r="Q57" s="63"/>
       <c r="S57" s="23">
-        <f t="shared" ref="S57:S60" si="4">O57-N57</f>
+        <f t="shared" ref="S57:S60" si="10">O57-N57</f>
         <v>8.466666666666665</v>
       </c>
       <c r="T57" s="23">
-        <f t="shared" ref="T57:T60" si="5">P57-O57</f>
+        <f t="shared" ref="T57:T60" si="11">P57-O57</f>
         <v>0.3333333333333357</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M58" s="84" t="s">
+      <c r="M58" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="N58" s="43">
+      <c r="N58" s="23">
         <f>SUM(N32:N34)</f>
         <v>1</v>
       </c>
-      <c r="O58" s="43">
+      <c r="O58" s="23">
         <f>SUM(O32:O34)</f>
         <v>0</v>
       </c>
-      <c r="P58" s="81">
+      <c r="P58" s="76">
         <f>SUM(P32:P34)</f>
         <v>-1.5</v>
       </c>
-      <c r="Q58" s="66"/>
       <c r="S58" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="T58" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-1.5</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M59" s="91" t="s">
+      <c r="M59" s="84" t="s">
         <v>136</v>
       </c>
       <c r="N59" s="24">
@@ -6510,106 +6505,104 @@
         <f>SUM(O35:O51)</f>
         <v>-24.666666666666664</v>
       </c>
-      <c r="P59" s="92">
+      <c r="P59" s="85">
         <f>SUM(P35:P51)</f>
         <v>-34.5</v>
       </c>
-      <c r="Q59" s="66"/>
       <c r="S59" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-8.4666666666666615</v>
       </c>
       <c r="T59" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-9.8333333333333357</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M60" s="85" t="s">
+      <c r="M60" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="N60" s="63">
+      <c r="N60" s="60">
         <f>N56+N58+N59</f>
         <v>3.1999999999999957</v>
       </c>
-      <c r="O60" s="63">
-        <f t="shared" ref="O60:P60" si="6">O56+O58+O59</f>
+      <c r="O60" s="60">
+        <f t="shared" ref="O60:P60" si="12">O56+O58+O59</f>
         <v>21.666666666666664</v>
       </c>
-      <c r="P60" s="82">
-        <f t="shared" si="6"/>
+      <c r="P60" s="77">
+        <f t="shared" si="12"/>
         <v>-0.5</v>
       </c>
-      <c r="Q60" s="66"/>
       <c r="S60" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>18.466666666666669</v>
       </c>
       <c r="T60" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-22.166666666666664</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q61" s="66"/>
+      <c r="N61" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="62" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q62" s="66"/>
       <c r="T62" s="23"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A63" s="68" t="s">
+      <c r="A63" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="69"/>
-      <c r="C63" s="48">
+      <c r="B63" s="65"/>
+      <c r="C63" s="45">
         <f>C1</f>
         <v>2000</v>
       </c>
-      <c r="D63" s="70" t="str">
+      <c r="D63" s="66" t="str">
         <f>D$1</f>
         <v>'02</v>
       </c>
-      <c r="E63" s="48" t="str">
-        <f t="shared" ref="E63:M63" si="7">E$1</f>
+      <c r="E63" s="45" t="str">
+        <f t="shared" ref="E63:M63" si="13">E$1</f>
         <v>'04</v>
       </c>
-      <c r="F63" s="48" t="str">
-        <f t="shared" si="7"/>
+      <c r="F63" s="45" t="str">
+        <f t="shared" si="13"/>
         <v>'06</v>
       </c>
-      <c r="G63" s="48" t="str">
-        <f t="shared" si="7"/>
+      <c r="G63" s="45" t="str">
+        <f t="shared" si="13"/>
         <v>'08</v>
       </c>
-      <c r="H63" s="48" t="str">
-        <f t="shared" si="7"/>
+      <c r="H63" s="45" t="str">
+        <f t="shared" si="13"/>
         <v>'10</v>
       </c>
-      <c r="I63" s="70" t="str">
-        <f t="shared" si="7"/>
+      <c r="I63" s="66" t="str">
+        <f t="shared" si="13"/>
         <v>'12</v>
       </c>
-      <c r="J63" s="48" t="str">
-        <f t="shared" si="7"/>
+      <c r="J63" s="45" t="str">
+        <f t="shared" si="13"/>
         <v>'14</v>
       </c>
-      <c r="K63" s="48" t="str">
-        <f t="shared" si="7"/>
+      <c r="K63" s="45" t="str">
+        <f t="shared" si="13"/>
         <v>'16</v>
       </c>
-      <c r="L63" s="48" t="str">
-        <f t="shared" si="7"/>
+      <c r="L63" s="45" t="str">
+        <f t="shared" si="13"/>
         <v>'18</v>
       </c>
-      <c r="M63" s="71" t="str">
-        <f t="shared" si="7"/>
+      <c r="M63" s="67" t="str">
+        <f t="shared" si="13"/>
         <v>'20</v>
       </c>
-      <c r="Q63" s="66"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="68" t="s">
         <v>102</v>
       </c>
       <c r="B64" s="9" t="str">
@@ -6656,14 +6649,13 @@
         <f>RAW!L59</f>
         <v>203</v>
       </c>
-      <c r="M64" s="73">
+      <c r="M64" s="69">
         <f>RAW!M59</f>
         <v>216</v>
       </c>
-      <c r="Q64" s="66"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="72" t="s">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="68" t="s">
         <v>119</v>
       </c>
       <c r="B65" s="9" t="str">
@@ -6710,14 +6702,13 @@
         <f>RAW!L61</f>
         <v>-14</v>
       </c>
-      <c r="M65" s="73">
+      <c r="M65" s="69">
         <f>RAW!M61</f>
         <v>-1</v>
       </c>
-      <c r="Q65" s="66"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="72"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="68"/>
       <c r="B66" s="9"/>
       <c r="C66" s="10"/>
       <c r="D66" s="17"/>
@@ -6729,11 +6720,10 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
-      <c r="M66" s="73"/>
-      <c r="Q66" s="66"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="75" t="s">
+      <c r="M66" s="69"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="71" t="s">
         <v>120</v>
       </c>
       <c r="B67" s="7"/>
@@ -6743,53 +6733,52 @@
         <v>'02</v>
       </c>
       <c r="E67" s="11" t="str">
-        <f t="shared" ref="E67:M67" si="8">E$1</f>
+        <f t="shared" ref="E67:M67" si="14">E$1</f>
         <v>'04</v>
       </c>
       <c r="F67" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>'06</v>
       </c>
       <c r="G67" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>'08</v>
       </c>
       <c r="H67" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>'10</v>
       </c>
       <c r="I67" s="14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>'12</v>
       </c>
       <c r="J67" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>'14</v>
       </c>
       <c r="K67" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>'16</v>
       </c>
       <c r="L67" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>'18</v>
       </c>
-      <c r="M67" s="76" t="str">
-        <f t="shared" si="8"/>
+      <c r="M67" s="72" t="str">
+        <f t="shared" si="14"/>
         <v>'20</v>
       </c>
-      <c r="Q67" s="66"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="54" t="str">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="51" t="str">
         <f>RAW!A52</f>
         <v>REP</v>
       </c>
-      <c r="B68" s="41" t="str">
+      <c r="B68" s="5" t="str">
         <f>RAW!B52</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C68" s="42">
+      <c r="C68" s="6">
         <f>RAW!C52</f>
         <v>221</v>
       </c>
@@ -6797,19 +6786,19 @@
         <f>RAW!D52</f>
         <v>229</v>
       </c>
-      <c r="E68" s="42">
+      <c r="E68" s="6">
         <f>RAW!E52</f>
         <v>233</v>
       </c>
-      <c r="F68" s="42">
+      <c r="F68" s="6">
         <f>RAW!F52</f>
         <v>202</v>
       </c>
-      <c r="G68" s="42">
+      <c r="G68" s="6">
         <f>RAW!G52</f>
         <v>178</v>
       </c>
-      <c r="H68" s="42">
+      <c r="H68" s="6">
         <f>RAW!H52</f>
         <v>242</v>
       </c>
@@ -6817,26 +6806,25 @@
         <f>RAW!I52</f>
         <v>234</v>
       </c>
-      <c r="J68" s="42">
+      <c r="J68" s="6">
         <f>RAW!J52</f>
         <v>247</v>
       </c>
-      <c r="K68" s="42">
+      <c r="K68" s="6">
         <f>RAW!K52</f>
         <v>241</v>
       </c>
-      <c r="L68" s="42">
+      <c r="L68" s="6">
         <f>RAW!L52</f>
         <v>199</v>
       </c>
-      <c r="M68" s="74">
+      <c r="M68" s="70">
         <f>RAW!M52</f>
         <v>213</v>
       </c>
-      <c r="Q68" s="66"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="56" t="str">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="53" t="str">
         <f>RAW!A53</f>
         <v>DEM</v>
       </c>
@@ -6884,21 +6872,20 @@
         <f>RAW!L53</f>
         <v>235</v>
       </c>
-      <c r="M69" s="77">
+      <c r="M69" s="73">
         <f>RAW!M53</f>
         <v>222</v>
       </c>
-      <c r="Q69" s="66"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="54" t="s">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="41" t="str">
+      <c r="B70" s="5" t="str">
         <f>RAW!B62</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C70" s="42">
+      <c r="C70" s="6">
         <f>RAW!C62</f>
         <v>3</v>
       </c>
@@ -6906,19 +6893,19 @@
         <f>RAW!D62</f>
         <v>11</v>
       </c>
-      <c r="E70" s="42">
+      <c r="E70" s="6">
         <f>RAW!E62</f>
         <v>15</v>
       </c>
-      <c r="F70" s="42">
+      <c r="F70" s="6">
         <f>RAW!F62</f>
         <v>-15</v>
       </c>
-      <c r="G70" s="42">
+      <c r="G70" s="6">
         <f>RAW!G62</f>
         <v>-39</v>
       </c>
-      <c r="H70" s="42">
+      <c r="H70" s="6">
         <f>RAW!H62</f>
         <v>24</v>
       </c>
@@ -6926,24 +6913,24 @@
         <f>RAW!I62</f>
         <v>16</v>
       </c>
-      <c r="J70" s="42">
+      <c r="J70" s="6">
         <f>RAW!J62</f>
         <v>29</v>
       </c>
-      <c r="K70" s="42">
+      <c r="K70" s="6">
         <f>RAW!K62</f>
         <v>23</v>
       </c>
-      <c r="L70" s="42">
+      <c r="L70" s="6">
         <f>RAW!L62</f>
         <v>-17</v>
       </c>
-      <c r="M70" s="74">
+      <c r="M70" s="70">
         <f>RAW!M62</f>
         <v>-4</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="10"/>
@@ -6956,10 +6943,10 @@
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
-      <c r="M71" s="73"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="75" t="s">
+      <c r="M71" s="69"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="71" t="s">
         <v>114</v>
       </c>
       <c r="B72" s="7"/>
@@ -6969,51 +6956,51 @@
         <v>'02</v>
       </c>
       <c r="E72" s="11" t="str">
-        <f t="shared" ref="E72:M72" si="9">E$1</f>
+        <f t="shared" ref="E72:M72" si="15">E$1</f>
         <v>'04</v>
       </c>
       <c r="F72" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>'06</v>
       </c>
       <c r="G72" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>'08</v>
       </c>
       <c r="H72" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>'10</v>
       </c>
       <c r="I72" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>'12</v>
       </c>
       <c r="J72" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>'14</v>
       </c>
       <c r="K72" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>'16</v>
       </c>
       <c r="L72" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>'18</v>
       </c>
-      <c r="M72" s="76" t="str">
-        <f t="shared" si="9"/>
+      <c r="M72" s="72" t="str">
+        <f t="shared" si="15"/>
         <v>'20</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="54" t="s">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="41" t="str">
+      <c r="B73" s="5" t="str">
         <f>RAW!B56</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C73" s="42">
+      <c r="C73" s="6">
         <f>RAW!C56</f>
         <v>24</v>
       </c>
@@ -7021,19 +7008,19 @@
         <f>RAW!D56</f>
         <v>25</v>
       </c>
-      <c r="E73" s="42">
+      <c r="E73" s="6">
         <f>RAW!E56</f>
         <v>30</v>
       </c>
-      <c r="F73" s="42">
+      <c r="F73" s="6">
         <f>RAW!F56</f>
         <v>21</v>
       </c>
-      <c r="G73" s="42">
+      <c r="G73" s="6">
         <f>RAW!G56</f>
         <v>12</v>
       </c>
-      <c r="H73" s="42">
+      <c r="H73" s="6">
         <f>RAW!H56</f>
         <v>34</v>
       </c>
@@ -7041,25 +7028,25 @@
         <f>RAW!I56</f>
         <v>43</v>
       </c>
-      <c r="J73" s="42">
+      <c r="J73" s="6">
         <f>RAW!J56</f>
         <v>42</v>
       </c>
-      <c r="K73" s="42">
+      <c r="K73" s="6">
         <f>RAW!K56</f>
         <v>41</v>
       </c>
-      <c r="L73" s="42">
+      <c r="L73" s="6">
         <f>RAW!L56</f>
         <v>34</v>
       </c>
-      <c r="M73" s="74">
+      <c r="M73" s="70">
         <f>RAW!M56</f>
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="56" t="s">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="53" t="s">
         <v>104</v>
       </c>
       <c r="B74" s="7" t="str">
@@ -7106,60 +7093,60 @@
         <f>RAW!L57</f>
         <v>-38</v>
       </c>
-      <c r="M74" s="77">
+      <c r="M74" s="73">
         <f>RAW!M57</f>
         <v>-33</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="58" t="s">
+    <row r="75" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="59" t="str">
+      <c r="B75" s="56" t="str">
         <f>RAW!B58</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C75" s="60">
+      <c r="C75" s="57">
         <f>RAW!C58</f>
         <v>7</v>
       </c>
-      <c r="D75" s="78">
+      <c r="D75" s="74">
         <f>RAW!D58</f>
         <v>3</v>
       </c>
-      <c r="E75" s="60">
+      <c r="E75" s="57">
         <f>RAW!E58</f>
         <v>13</v>
       </c>
-      <c r="F75" s="60">
+      <c r="F75" s="57">
         <f>RAW!F58</f>
         <v>-3</v>
       </c>
-      <c r="G75" s="60">
+      <c r="G75" s="57">
         <f>RAW!G58</f>
         <v>-21</v>
       </c>
-      <c r="H75" s="60">
+      <c r="H75" s="57">
         <f>RAW!H58</f>
         <v>13</v>
       </c>
-      <c r="I75" s="78">
+      <c r="I75" s="74">
         <f>RAW!I58</f>
         <v>18</v>
       </c>
-      <c r="J75" s="60">
+      <c r="J75" s="57">
         <f>RAW!J58</f>
         <v>18</v>
       </c>
-      <c r="K75" s="60">
+      <c r="K75" s="57">
         <f>RAW!K58</f>
         <v>20</v>
       </c>
-      <c r="L75" s="60">
+      <c r="L75" s="57">
         <f>RAW!L58</f>
         <v>-4</v>
       </c>
-      <c r="M75" s="79">
+      <c r="M75" s="75">
         <f>RAW!M58</f>
         <v>-3</v>
       </c>
@@ -7173,6 +7160,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69D208C-5E19-6E46-A837-802512EDC505}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2087AA14-550C-0D41-AA96-C6B0351F4B03}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -7258,7 +7257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FA875C-1566-2D43-8637-203DA92E1C1B}">
   <dimension ref="A1:S70"/>
   <sheetViews>
@@ -7405,15 +7404,15 @@
       </c>
       <c r="N2" s="25"/>
       <c r="O2" s="23">
-        <f>AVERAGE(D2:H2)</f>
+        <f t="shared" ref="O2:O33" si="0">AVERAGE(D2:H2)</f>
         <v>1.2</v>
       </c>
       <c r="P2" s="23">
-        <f>AVERAGE(I2:K2)</f>
+        <f t="shared" ref="P2:P33" si="1">AVERAGE(I2:K2)</f>
         <v>2</v>
       </c>
       <c r="Q2" s="23">
-        <f>AVERAGE(L2:M2)</f>
+        <f t="shared" ref="Q2:Q33" si="2">AVERAGE(L2:M2)</f>
         <v>1.5</v>
       </c>
       <c r="R2" s="31" t="s">
@@ -7475,15 +7474,15 @@
       </c>
       <c r="N3" s="25"/>
       <c r="O3" s="23">
-        <f>AVERAGE(D3:H3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P3" s="23">
-        <f>AVERAGE(I3:K3)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q3" s="23">
-        <f>AVERAGE(L3:M3)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R3" s="31" t="s">
@@ -7545,15 +7544,15 @@
       </c>
       <c r="N4" s="25"/>
       <c r="O4" s="23">
-        <f>AVERAGE(D4:H4)</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="P4" s="23">
-        <f>AVERAGE(I4:K4)</f>
+        <f t="shared" si="1"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="Q4" s="23">
-        <f>AVERAGE(L4:M4)</f>
+        <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
       <c r="R4" s="31" t="s">
@@ -7615,15 +7614,15 @@
       </c>
       <c r="N5" s="25"/>
       <c r="O5" s="23">
-        <f>AVERAGE(D5:H5)</f>
+        <f t="shared" si="0"/>
         <v>-0.6</v>
       </c>
       <c r="P5" s="23">
-        <f>AVERAGE(I5:K5)</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="Q5" s="23">
-        <f>AVERAGE(L5:M5)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R5" s="31" t="s">
@@ -7685,15 +7684,15 @@
       </c>
       <c r="N6" s="25"/>
       <c r="O6" s="23">
-        <f>AVERAGE(D6:H6)</f>
+        <f t="shared" si="0"/>
         <v>-3.6</v>
       </c>
       <c r="P6" s="23">
-        <f>AVERAGE(I6:K6)</f>
+        <f t="shared" si="1"/>
         <v>-7.333333333333333</v>
       </c>
       <c r="Q6" s="23">
-        <f>AVERAGE(L6:M6)</f>
+        <f t="shared" si="2"/>
         <v>-10.5</v>
       </c>
       <c r="R6" s="31" t="s">
@@ -7755,15 +7754,15 @@
       </c>
       <c r="N7" s="25"/>
       <c r="O7" s="23">
-        <f>AVERAGE(D7:H7)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="P7" s="23">
-        <f>AVERAGE(I7:K7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q7" s="23">
-        <f>AVERAGE(L7:M7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7" s="31" t="s">
@@ -7825,15 +7824,15 @@
       </c>
       <c r="N8" s="25"/>
       <c r="O8" s="23">
-        <f>AVERAGE(D8:H8)</f>
+        <f t="shared" si="0"/>
         <v>-0.6</v>
       </c>
       <c r="P8" s="23">
-        <f>AVERAGE(I8:K8)</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="Q8" s="23">
-        <f>AVERAGE(L8:M8)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="R8" s="31" t="s">
@@ -7895,15 +7894,15 @@
       </c>
       <c r="N9" s="25"/>
       <c r="O9" s="23">
-        <f>AVERAGE(D9:H9)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="P9" s="23">
-        <f>AVERAGE(I9:K9)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="Q9" s="23">
-        <f>AVERAGE(L9:M9)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R9" s="31" t="s">
@@ -7965,15 +7964,15 @@
       </c>
       <c r="N10" s="25"/>
       <c r="O10" s="23">
-        <f>AVERAGE(D10:H10)</f>
+        <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
       <c r="P10" s="23">
-        <f>AVERAGE(I10:K10)</f>
+        <f t="shared" si="1"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="Q10" s="23">
-        <f>AVERAGE(L10:M10)</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="R10" s="31" t="s">
@@ -8035,15 +8034,15 @@
       </c>
       <c r="N11" s="25"/>
       <c r="O11" s="23">
-        <f>AVERAGE(D11:H11)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="P11" s="23">
-        <f>AVERAGE(I11:K11)</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="Q11" s="23">
-        <f>AVERAGE(L11:M11)</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="R11" s="31" t="s">
@@ -8105,15 +8104,15 @@
       </c>
       <c r="N12" s="25"/>
       <c r="O12" s="23">
-        <f>AVERAGE(D12:H12)</f>
+        <f t="shared" si="0"/>
         <v>-0.8</v>
       </c>
       <c r="P12" s="23">
-        <f>AVERAGE(I12:K12)</f>
+        <f t="shared" si="1"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="Q12" s="23">
-        <f>AVERAGE(L12:M12)</f>
+        <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
       <c r="R12" s="31" t="s">
@@ -8175,15 +8174,15 @@
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="23">
-        <f>AVERAGE(D13:H13)</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="P13" s="23">
-        <f>AVERAGE(I13:K13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q13" s="23">
-        <f>AVERAGE(L13:M13)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R13" s="31" t="s">
@@ -8245,15 +8244,15 @@
       </c>
       <c r="N14" s="25"/>
       <c r="O14" s="23">
-        <f>AVERAGE(D14:H14)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="P14" s="23">
-        <f>AVERAGE(I14:K14)</f>
+        <f t="shared" si="1"/>
         <v>-1.3333333333333333</v>
       </c>
       <c r="Q14" s="23">
-        <f>AVERAGE(L14:M14)</f>
+        <f t="shared" si="2"/>
         <v>-2.5</v>
       </c>
       <c r="R14" s="31" t="s">
@@ -8315,15 +8314,15 @@
       </c>
       <c r="N15" s="25"/>
       <c r="O15" s="23">
-        <f>AVERAGE(D15:H15)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="P15" s="23">
-        <f>AVERAGE(I15:K15)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q15" s="23">
-        <f>AVERAGE(L15:M15)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R15" s="31" t="s">
@@ -8385,15 +8384,15 @@
       </c>
       <c r="N16" s="25"/>
       <c r="O16" s="23">
-        <f>AVERAGE(D16:H16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P16" s="23">
-        <f>AVERAGE(I16:K16)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q16" s="23">
-        <f>AVERAGE(L16:M16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R16" s="31" t="s">
@@ -8455,15 +8454,15 @@
       </c>
       <c r="N17" s="25"/>
       <c r="O17" s="23">
-        <f>AVERAGE(D17:H17)</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="P17" s="23">
-        <f>AVERAGE(I17:K17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q17" s="23">
-        <f>AVERAGE(L17:M17)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R17" s="31" t="s">
@@ -8525,15 +8524,15 @@
       </c>
       <c r="N18" s="25"/>
       <c r="O18" s="23">
-        <f>AVERAGE(D18:H18)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="P18" s="23">
-        <f>AVERAGE(I18:K18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q18" s="23">
-        <f>AVERAGE(L18:M18)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R18" s="31" t="s">
@@ -8595,15 +8594,15 @@
       </c>
       <c r="N19" s="25"/>
       <c r="O19" s="23">
-        <f>AVERAGE(D19:H19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P19" s="23">
-        <f>AVERAGE(I19:K19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q19" s="23">
-        <f>AVERAGE(L19:M19)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R19" s="31" t="s">
@@ -8665,15 +8664,15 @@
       </c>
       <c r="N20" s="25"/>
       <c r="O20" s="23">
-        <f>AVERAGE(D20:H20)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="P20" s="23">
-        <f>AVERAGE(I20:K20)</f>
+        <f t="shared" si="1"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="Q20" s="23">
-        <f>AVERAGE(L20:M20)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R20" s="31" t="s">
@@ -8735,15 +8734,15 @@
       </c>
       <c r="N21" s="25"/>
       <c r="O21" s="23">
-        <f>AVERAGE(D21:H21)</f>
+        <f t="shared" si="0"/>
         <v>-1.4</v>
       </c>
       <c r="P21" s="23">
-        <f>AVERAGE(I21:K21)</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="Q21" s="23">
-        <f>AVERAGE(L21:M21)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="R21" s="31" t="s">
@@ -8805,15 +8804,15 @@
       </c>
       <c r="N22" s="25"/>
       <c r="O22" s="23">
-        <f>AVERAGE(D22:H22)</f>
+        <f t="shared" si="0"/>
         <v>-3.2</v>
       </c>
       <c r="P22" s="23">
-        <f>AVERAGE(I22:K22)</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="Q22" s="23">
-        <f>AVERAGE(L22:M22)</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="R22" s="31" t="s">
@@ -8875,15 +8874,15 @@
       </c>
       <c r="N23" s="25"/>
       <c r="O23" s="23">
-        <f>AVERAGE(D23:H23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P23" s="23">
-        <f>AVERAGE(I23:K23)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q23" s="23">
-        <f>AVERAGE(L23:M23)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R23" s="31" t="s">
@@ -8945,15 +8944,15 @@
       </c>
       <c r="N24" s="25"/>
       <c r="O24" s="23">
-        <f>AVERAGE(D24:H24)</f>
+        <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
       <c r="P24" s="23">
-        <f>AVERAGE(I24:K24)</f>
+        <f t="shared" si="1"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="Q24" s="23">
-        <f>AVERAGE(L24:M24)</f>
+        <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
       <c r="R24" s="31" t="s">
@@ -9015,15 +9014,15 @@
       </c>
       <c r="N25" s="25"/>
       <c r="O25" s="23">
-        <f>AVERAGE(D25:H25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P25" s="23">
-        <f>AVERAGE(I25:K25)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q25" s="23">
-        <f>AVERAGE(L25:M25)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R25" s="31" t="s">
@@ -9085,15 +9084,15 @@
       </c>
       <c r="N26" s="25"/>
       <c r="O26" s="23">
-        <f>AVERAGE(D26:H26)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="P26" s="23">
-        <f>AVERAGE(I26:K26)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q26" s="23">
-        <f>AVERAGE(L26:M26)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R26" s="31" t="s">
@@ -9155,15 +9154,15 @@
       </c>
       <c r="N27" s="25"/>
       <c r="O27" s="23">
-        <f>AVERAGE(D27:H27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P27" s="23">
-        <f>AVERAGE(I27:K27)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q27" s="23">
-        <f>AVERAGE(L27:M27)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R27" s="31" t="s">
@@ -9225,15 +9224,15 @@
       </c>
       <c r="N28" s="25"/>
       <c r="O28" s="23">
-        <f>AVERAGE(D28:H28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P28" s="23">
-        <f>AVERAGE(I28:K28)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q28" s="23">
-        <f>AVERAGE(L28:M28)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R28" s="31" t="s">
@@ -9295,15 +9294,15 @@
       </c>
       <c r="N29" s="25"/>
       <c r="O29" s="23">
-        <f>AVERAGE(D29:H29)</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="P29" s="23">
-        <f>AVERAGE(I29:K29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q29" s="23">
-        <f>AVERAGE(L29:M29)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R29" s="31" t="s">
@@ -9365,15 +9364,15 @@
       </c>
       <c r="N30" s="25"/>
       <c r="O30" s="23">
-        <f>AVERAGE(D30:H30)</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="P30" s="23">
-        <f>AVERAGE(I30:K30)</f>
+        <f t="shared" si="1"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="Q30" s="23">
-        <f>AVERAGE(L30:M30)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R30" s="31" t="s">
@@ -9435,15 +9434,15 @@
       </c>
       <c r="N31" s="25"/>
       <c r="O31" s="23">
-        <f>AVERAGE(D31:H31)</f>
+        <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
       <c r="P31" s="23">
-        <f>AVERAGE(I31:K31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q31" s="23">
-        <f>AVERAGE(L31:M31)</f>
+        <f t="shared" si="2"/>
         <v>-3.5</v>
       </c>
       <c r="R31" s="31" t="s">
@@ -9505,15 +9504,15 @@
       </c>
       <c r="N32" s="25"/>
       <c r="O32" s="23">
-        <f>AVERAGE(D32:H32)</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="P32" s="23">
-        <f>AVERAGE(I32:K32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q32" s="23">
-        <f>AVERAGE(L32:M32)</f>
+        <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
       <c r="R32" s="31" t="s">
@@ -9575,15 +9574,15 @@
       </c>
       <c r="N33" s="25"/>
       <c r="O33" s="23">
-        <f>AVERAGE(D33:H33)</f>
+        <f t="shared" si="0"/>
         <v>-3.6</v>
       </c>
       <c r="P33" s="23">
-        <f>AVERAGE(I33:K33)</f>
+        <f t="shared" si="1"/>
         <v>-1.6666666666666667</v>
       </c>
       <c r="Q33" s="23">
-        <f>AVERAGE(L33:M33)</f>
+        <f t="shared" si="2"/>
         <v>-2.5</v>
       </c>
       <c r="R33" s="31" t="s">
@@ -9645,15 +9644,15 @@
       </c>
       <c r="N34" s="25"/>
       <c r="O34" s="23">
-        <f>AVERAGE(D34:H34)</f>
+        <f t="shared" ref="O34:O51" si="3">AVERAGE(D34:H34)</f>
         <v>-0.4</v>
       </c>
       <c r="P34" s="23">
-        <f>AVERAGE(I34:K34)</f>
+        <f t="shared" ref="P34:P51" si="4">AVERAGE(I34:K34)</f>
         <v>3</v>
       </c>
       <c r="Q34" s="23">
-        <f>AVERAGE(L34:M34)</f>
+        <f t="shared" ref="Q34:Q51" si="5">AVERAGE(L34:M34)</f>
         <v>2</v>
       </c>
       <c r="R34" s="31" t="s">
@@ -9715,15 +9714,15 @@
       </c>
       <c r="N35" s="25"/>
       <c r="O35" s="23">
-        <f>AVERAGE(D35:H35)</f>
+        <f t="shared" si="3"/>
         <v>-0.6</v>
       </c>
       <c r="P35" s="23">
-        <f>AVERAGE(I35:K35)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q35" s="23">
-        <f>AVERAGE(L35:M35)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R35" s="31" t="s">
@@ -9785,15 +9784,15 @@
       </c>
       <c r="N36" s="25"/>
       <c r="O36" s="23">
-        <f>AVERAGE(D36:H36)</f>
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
       <c r="P36" s="23">
-        <f>AVERAGE(I36:K36)</f>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="Q36" s="23">
-        <f>AVERAGE(L36:M36)</f>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="R36" s="31" t="s">
@@ -9855,15 +9854,15 @@
       </c>
       <c r="N37" s="25"/>
       <c r="O37" s="23">
-        <f>AVERAGE(D37:H37)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P37" s="23">
-        <f>AVERAGE(I37:K37)</f>
+        <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="Q37" s="23">
-        <f>AVERAGE(L37:M37)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="R37" s="31" t="s">
@@ -9925,15 +9924,15 @@
       </c>
       <c r="N38" s="25"/>
       <c r="O38" s="23">
-        <f>AVERAGE(D38:H38)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="P38" s="23">
-        <f>AVERAGE(I38:K38)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="Q38" s="23">
-        <f>AVERAGE(L38:M38)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="R38" s="31" t="s">
@@ -9995,15 +9994,15 @@
       </c>
       <c r="N39" s="25"/>
       <c r="O39" s="23">
-        <f>AVERAGE(D39:H39)</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="P39" s="23">
-        <f>AVERAGE(I39:K39)</f>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="Q39" s="23">
-        <f>AVERAGE(L39:M39)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="R39" s="31" t="s">
@@ -10065,15 +10064,15 @@
       </c>
       <c r="N40" s="25"/>
       <c r="O40" s="23">
-        <f>AVERAGE(D40:H40)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="P40" s="23">
-        <f>AVERAGE(I40:K40)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="Q40" s="23">
-        <f>AVERAGE(L40:M40)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="R40" s="31" t="s">
@@ -10135,15 +10134,15 @@
       </c>
       <c r="N41" s="25"/>
       <c r="O41" s="23">
-        <f>AVERAGE(D41:H41)</f>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="P41" s="23">
-        <f>AVERAGE(I41:K41)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="Q41" s="23">
-        <f>AVERAGE(L41:M41)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="R41" s="31" t="s">
@@ -10205,15 +10204,15 @@
       </c>
       <c r="N42" s="25"/>
       <c r="O42" s="23">
-        <f>AVERAGE(D42:H42)</f>
+        <f t="shared" si="3"/>
         <v>-0.2</v>
       </c>
       <c r="P42" s="23">
-        <f>AVERAGE(I42:K42)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q42" s="23">
-        <f>AVERAGE(L42:M42)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R42" s="31" t="s">
@@ -10275,15 +10274,15 @@
       </c>
       <c r="N43" s="25"/>
       <c r="O43" s="23">
-        <f>AVERAGE(D43:H43)</f>
+        <f t="shared" si="3"/>
         <v>-0.4</v>
       </c>
       <c r="P43" s="23">
-        <f>AVERAGE(I43:K43)</f>
+        <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="Q43" s="23">
-        <f>AVERAGE(L43:M43)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="R43" s="31" t="s">
@@ -10345,15 +10344,15 @@
       </c>
       <c r="N44" s="25"/>
       <c r="O44" s="23">
-        <f>AVERAGE(D44:H44)</f>
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
       <c r="P44" s="23">
-        <f>AVERAGE(I44:K44)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q44" s="23">
-        <f>AVERAGE(L44:M44)</f>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="R44" s="31" t="s">
@@ -10415,15 +10414,15 @@
       </c>
       <c r="N45" s="25"/>
       <c r="O45" s="23">
-        <f>AVERAGE(D45:H45)</f>
+        <f t="shared" si="3"/>
         <v>-0.2</v>
       </c>
       <c r="P45" s="23">
-        <f>AVERAGE(I45:K45)</f>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q45" s="23">
-        <f>AVERAGE(L45:M45)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R45" s="31" t="s">
@@ -10485,15 +10484,15 @@
       </c>
       <c r="N46" s="25"/>
       <c r="O46" s="23">
-        <f>AVERAGE(D46:H46)</f>
+        <f t="shared" si="3"/>
         <v>-0.6</v>
       </c>
       <c r="P46" s="23">
-        <f>AVERAGE(I46:K46)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="Q46" s="23">
-        <f>AVERAGE(L46:M46)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="R46" s="31" t="s">
@@ -10555,15 +10554,15 @@
       </c>
       <c r="N47" s="25"/>
       <c r="O47" s="23">
-        <f>AVERAGE(D47:H47)</f>
+        <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
       <c r="P47" s="23">
-        <f>AVERAGE(I47:K47)</f>
+        <f t="shared" si="4"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="Q47" s="23">
-        <f>AVERAGE(L47:M47)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="R47" s="31" t="s">
@@ -10625,15 +10624,15 @@
       </c>
       <c r="N48" s="25"/>
       <c r="O48" s="23">
-        <f>AVERAGE(D48:H48)</f>
+        <f t="shared" si="3"/>
         <v>-0.8</v>
       </c>
       <c r="P48" s="23">
-        <f>AVERAGE(I48:K48)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="Q48" s="23">
-        <f>AVERAGE(L48:M48)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="R48" s="31" t="s">
@@ -10695,15 +10694,15 @@
       </c>
       <c r="N49" s="25"/>
       <c r="O49" s="23">
-        <f>AVERAGE(D49:H49)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P49" s="23">
-        <f>AVERAGE(I49:K49)</f>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q49" s="23">
-        <f>AVERAGE(L49:M49)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R49" s="31" t="s">
@@ -10765,15 +10764,15 @@
       </c>
       <c r="N50" s="25"/>
       <c r="O50" s="23">
-        <f>AVERAGE(D50:H50)</f>
+        <f t="shared" si="3"/>
         <v>-0.2</v>
       </c>
       <c r="P50" s="23">
-        <f>AVERAGE(I50:K50)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q50" s="23">
-        <f>AVERAGE(L50:M50)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R50" s="31" t="s">
@@ -10835,15 +10834,15 @@
       </c>
       <c r="N51" s="25"/>
       <c r="O51" s="24">
-        <f>AVERAGE(D51:H51)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P51" s="24">
-        <f>AVERAGE(I51:K51)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q51" s="24">
-        <f>AVERAGE(L51:M51)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R51" s="32" t="s">
@@ -10876,47 +10875,47 @@
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="11">
-        <f>C1</f>
+        <f t="shared" ref="C54:M54" si="6">C1</f>
         <v>2000</v>
       </c>
       <c r="D54" s="14">
-        <f>D1</f>
+        <f t="shared" si="6"/>
         <v>2002</v>
       </c>
       <c r="E54" s="11">
-        <f>E1</f>
+        <f t="shared" si="6"/>
         <v>2004</v>
       </c>
       <c r="F54" s="11">
-        <f>F1</f>
+        <f t="shared" si="6"/>
         <v>2006</v>
       </c>
       <c r="G54" s="11">
-        <f>G1</f>
+        <f t="shared" si="6"/>
         <v>2008</v>
       </c>
       <c r="H54" s="11">
-        <f>H1</f>
+        <f t="shared" si="6"/>
         <v>2010</v>
       </c>
       <c r="I54" s="14">
-        <f>I1</f>
+        <f t="shared" si="6"/>
         <v>2012</v>
       </c>
       <c r="J54" s="11">
-        <f>J1</f>
+        <f t="shared" si="6"/>
         <v>2014</v>
       </c>
       <c r="K54" s="11">
-        <f>K1</f>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="L54" s="11">
-        <f>L1</f>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="M54" s="18">
-        <f>M1</f>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="N54" s="25"/>
@@ -11435,43 +11434,43 @@
         <v>1</v>
       </c>
       <c r="D68" s="15" t="b">
-        <f t="shared" ref="D68:M68" si="0">AND(D55&lt;218,D59&gt;=218)</f>
+        <f t="shared" ref="D68:M68" si="7">AND(D55&lt;218,D59&gt;=218)</f>
         <v>0</v>
       </c>
       <c r="E68" s="6" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F68" s="6" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G68" s="6" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H68" s="6" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I68" s="30" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J68" s="6" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K68" s="6" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L68" s="6" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M68" s="6" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N68" s="25"/>
@@ -11494,7 +11493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924BABB7-C257-C348-A2C8-7BA5A1ACAB90}">
   <dimension ref="A1:M62"/>
   <sheetViews>

--- a/data/analysis/US House (2012-20).xlsx
+++ b/data/analysis/US House (2012-20).xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF2F267-67F5-824C-BD8E-20E48CC685EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6253EE5-97C5-5548-8F48-07B0A8BBA929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="5900" windowWidth="27640" windowHeight="17500" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
+    <workbookView xWindow="1420" yWindow="500" windowWidth="27680" windowHeight="17500" activeTab="2" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tables" sheetId="9" r:id="rId1"/>
-    <sheet name="&lt;= Use | Ignore =&gt;" sheetId="10" r:id="rId2"/>
-    <sheet name="Chart" sheetId="8" r:id="rId3"/>
-    <sheet name="Formatted" sheetId="3" r:id="rId4"/>
-    <sheet name="RAW" sheetId="1" r:id="rId5"/>
+    <sheet name="Table1" sheetId="9" r:id="rId1"/>
+    <sheet name="Table 2" sheetId="11" r:id="rId2"/>
+    <sheet name="Figure 1" sheetId="8" r:id="rId3"/>
+    <sheet name="&lt;= Use | Ignore =&gt;" sheetId="10" r:id="rId4"/>
+    <sheet name="Formatted" sheetId="3" r:id="rId5"/>
+    <sheet name="RAW" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="pivot_by_state" localSheetId="4">RAW!$A$1:$M$62</definedName>
+    <definedName name="pivot_by_state" localSheetId="5">RAW!$A$1:$M$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Table 2'!$A$1:$D$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Table1!$A$1:$Q$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="161">
   <si>
     <t>XX</t>
   </si>
@@ -544,10 +547,10 @@
     <t>'18-20</t>
   </si>
   <si>
-    <t>Table 2</t>
-  </si>
-  <si>
-    <t>Table 1</t>
+    <t>Δ Reps</t>
+  </si>
+  <si>
+    <t>Table 1: US House UE Seats (2002-2020)</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,6 +618,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1112,12 +1121,24 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,7 +1181,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Chart!$A$2</c:f>
+              <c:f>'Figure 1'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1183,7 +1204,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Chart!$B$1:$D$1</c:f>
+              <c:f>'Figure 1'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1200,7 +1221,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Chart!$B$2:$D$2</c:f>
+              <c:f>'Figure 1'!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1228,7 +1249,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Chart!$A$4</c:f>
+              <c:f>'Figure 1'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1251,7 +1272,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Chart!$B$1:$D$1</c:f>
+              <c:f>'Figure 1'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1268,7 +1289,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Chart!$B$4:$D$4</c:f>
+              <c:f>'Figure 1'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1296,7 +1317,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Chart!$A$5</c:f>
+              <c:f>'Figure 1'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1319,7 +1340,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Chart!$B$1:$D$1</c:f>
+              <c:f>'Figure 1'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1336,7 +1357,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Chart!$B$5:$D$5</c:f>
+              <c:f>'Figure 1'!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2427,13 +2448,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2985A8A1-9A6F-7340-9B58-C66AA20F8054}">
-  <dimension ref="A1:T75"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2446,901 +2470,792 @@
     <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="str">
+    <row r="1" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+    </row>
+    <row r="2" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="str">
         <f>RAW!A1</f>
         <v>XX</v>
       </c>
-      <c r="B1" s="44" t="str">
+      <c r="B3" s="44" t="str">
         <f>RAW!B1</f>
         <v xml:space="preserve"> STATE</v>
       </c>
-      <c r="C1" s="45">
+      <c r="C3" s="45">
         <f>RAW!C1</f>
         <v>2000</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D3" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E3" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F3" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G3" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H3" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I3" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J3" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K3" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L3" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M3" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N3" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O3" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P3" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q3" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22" t="s">
+      <c r="R3" s="22"/>
+      <c r="S3" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T3" s="22" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="str">
+      <c r="V3" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="51" t="str">
         <f>RAW!A44</f>
         <v>TX</v>
       </c>
-      <c r="B2" s="5" t="str">
+      <c r="B4" s="5" t="str">
         <f>RAW!B44</f>
         <v xml:space="preserve"> Texas</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C4" s="6">
         <f>RAW!C44</f>
         <v>-2</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D4" s="15">
         <f>RAW!D44</f>
         <v>-2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E4" s="6">
         <f>RAW!E44</f>
         <v>3</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F4" s="6">
         <f>RAW!F44</f>
         <v>3</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G4" s="6">
         <f>RAW!G44</f>
         <v>2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H4" s="6">
         <f>RAW!H44</f>
         <v>3</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I4" s="15">
         <f>RAW!I44</f>
         <v>3</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J4" s="6">
         <f>RAW!J44</f>
         <v>4</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K4" s="6">
         <f>RAW!K44</f>
         <v>5</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L4" s="6">
         <f>RAW!L44</f>
         <v>4</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M4" s="6">
         <f>RAW!M44</f>
         <v>3</v>
       </c>
-      <c r="N2" s="41">
-        <f t="shared" ref="N2:N33" si="0">AVERAGE(D2:H2)</f>
+      <c r="N4" s="41">
+        <f t="shared" ref="N4:N35" si="0">AVERAGE(D4:H4)</f>
         <v>1.8</v>
       </c>
-      <c r="O2" s="23">
-        <f t="shared" ref="O2:O33" si="1">AVERAGE(I2:K2)</f>
+      <c r="O4" s="23">
+        <f t="shared" ref="O4:O35" si="1">AVERAGE(I4:K4)</f>
         <v>4</v>
       </c>
-      <c r="P2" s="23">
-        <f t="shared" ref="P2:P33" si="2">AVERAGE(L2:M2)</f>
+      <c r="P4" s="23">
+        <f t="shared" ref="P4:P35" si="2">AVERAGE(L4:M4)</f>
         <v>3.5</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q4" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S2" s="23">
-        <f>O2-N2</f>
+      <c r="S4" s="23">
+        <f>O4-N4</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="T2" s="23">
-        <f>P2-O2</f>
+      <c r="T4" s="23">
+        <f>P4-O4</f>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="str">
+      <c r="V4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="51" t="str">
         <f>RAW!A36</f>
         <v>OH</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B5" s="5" t="str">
         <f>RAW!B36</f>
         <v xml:space="preserve"> Ohio</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C5" s="6">
         <f>RAW!C36</f>
         <v>1</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D5" s="15">
         <f>RAW!D36</f>
         <v>2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E5" s="6">
         <f>RAW!E36</f>
         <v>2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F5" s="6">
         <f>RAW!F36</f>
         <v>2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G5" s="6">
         <f>RAW!G36</f>
         <v>-1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H5" s="6">
         <f>RAW!H36</f>
         <v>3</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I5" s="15">
         <f>RAW!I36</f>
         <v>4</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J5" s="6">
         <f>RAW!J36</f>
         <v>3</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K5" s="6">
         <f>RAW!K36</f>
         <v>3</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L5" s="6">
         <f>RAW!L36</f>
         <v>4</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M5" s="6">
         <f>RAW!M36</f>
         <v>3</v>
       </c>
-      <c r="N3" s="41">
+      <c r="N5" s="41">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O5" s="23">
         <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P5" s="23">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q5" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S3" s="23">
-        <f t="shared" ref="S3:S51" si="3">O3-N3</f>
+      <c r="S5" s="23">
+        <f t="shared" ref="S5:S53" si="3">O5-N5</f>
         <v>1.7333333333333334</v>
       </c>
-      <c r="T3" s="23">
-        <f t="shared" ref="T3:T51" si="4">P3-O3</f>
+      <c r="T5" s="23">
+        <f t="shared" ref="T5:T53" si="4">P5-O5</f>
         <v>0.16666666666666652</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="str">
+      <c r="V5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="51" t="str">
         <f>RAW!A39</f>
         <v>PA</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B6" s="5" t="str">
         <f>RAW!B39</f>
         <v xml:space="preserve"> Pennsylvania</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C6" s="6">
         <f>RAW!C39</f>
         <v>1</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D6" s="15">
         <f>RAW!D39</f>
         <v>2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E6" s="6">
         <f>RAW!E39</f>
         <v>2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F6" s="6">
         <f>RAW!F39</f>
         <v>-1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G6" s="6">
         <f>RAW!G39</f>
         <v>-2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H6" s="6">
         <f>RAW!H39</f>
         <v>2</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I6" s="15">
         <f>RAW!I39</f>
         <v>4</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J6" s="6">
         <f>RAW!J39</f>
         <v>3</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K6" s="6">
         <f>RAW!K39</f>
         <v>3</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L6" s="6">
         <f>RAW!L39</f>
         <v>1</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M6" s="6">
         <f>RAW!M39</f>
         <v>0</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N6" s="41">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O6" s="23">
         <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P6" s="23">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="Q6" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S6" s="23">
         <f t="shared" si="3"/>
         <v>2.7333333333333334</v>
       </c>
-      <c r="T4" s="40">
+      <c r="T6" s="40">
         <f t="shared" si="4"/>
         <v>-2.8333333333333335</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="str">
+      <c r="V6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="51" t="str">
         <f>RAW!A34</f>
         <v>NC</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B7" s="5" t="str">
         <f>RAW!B34</f>
         <v xml:space="preserve"> North Carolina</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C7" s="6">
         <f>RAW!C34</f>
         <v>1</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D7" s="15">
         <f>RAW!D34</f>
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E7" s="6">
         <f>RAW!E34</f>
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F7" s="6">
         <f>RAW!F34</f>
         <v>0</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G7" s="6">
         <f>RAW!G34</f>
         <v>-1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H7" s="6">
         <f>RAW!H34</f>
         <v>-1</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I7" s="15">
         <f>RAW!I34</f>
         <v>3</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J7" s="6">
         <f>RAW!J34</f>
         <v>3</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K7" s="6">
         <f>RAW!K34</f>
         <v>3</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L7" s="6">
         <f>RAW!L34</f>
         <v>3</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M7" s="6">
         <f>RAW!M34</f>
         <v>1</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N7" s="41">
         <f t="shared" si="0"/>
         <v>-0.4</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O7" s="23">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P7" s="23">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q5" s="52" t="s">
+      <c r="Q7" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S7" s="23">
         <f t="shared" si="3"/>
         <v>3.4</v>
       </c>
-      <c r="T5" s="40">
+      <c r="T7" s="40">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="str">
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="str">
         <f>RAW!A10</f>
         <v>FL</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B8" s="5" t="str">
         <f>RAW!B10</f>
         <v xml:space="preserve"> Florida</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C8" s="6">
         <f>RAW!C10</f>
         <v>2</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D8" s="15">
         <f>RAW!D10</f>
         <v>4</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E8" s="6">
         <f>RAW!E10</f>
         <v>4</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F8" s="6">
         <f>RAW!F10</f>
         <v>3</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G8" s="6">
         <f>RAW!G10</f>
         <v>2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H8" s="6">
         <f>RAW!H10</f>
         <v>4</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I8" s="15">
         <f>RAW!I10</f>
         <v>3</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J8" s="6">
         <f>RAW!J10</f>
         <v>2</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K8" s="6">
         <f>RAW!K10</f>
         <v>2</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L8" s="6">
         <f>RAW!L10</f>
         <v>1</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M8" s="6">
         <f>RAW!M10</f>
         <v>2</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N8" s="41">
         <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O8" s="23">
         <f t="shared" si="1"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P8" s="23">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="Q6" s="52" t="s">
+      <c r="Q8" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S8" s="23">
         <f t="shared" si="3"/>
         <v>-1.0666666666666664</v>
       </c>
-      <c r="T6" s="40">
+      <c r="T8" s="40">
         <f t="shared" si="4"/>
         <v>-0.83333333333333348</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="str">
+      <c r="V8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="str">
         <f>RAW!A2</f>
         <v>AL</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B9" s="5" t="str">
         <f>RAW!B2</f>
         <v xml:space="preserve"> Alabama</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C9" s="6">
         <f>RAW!C2</f>
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D9" s="15">
         <f>RAW!D2</f>
         <v>1</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E9" s="6">
         <f>RAW!E2</f>
         <v>1</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F9" s="6">
         <f>RAW!F2</f>
         <v>1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G9" s="6">
         <f>RAW!G2</f>
         <v>1</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H9" s="6">
         <f>RAW!H2</f>
         <v>2</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I9" s="15">
         <f>RAW!I2</f>
         <v>2</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J9" s="6">
         <f>RAW!J2</f>
         <v>2</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K9" s="6">
         <f>RAW!K2</f>
         <v>2</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L9" s="6">
         <f>RAW!L2</f>
         <v>2</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M9" s="6">
         <f>RAW!M2</f>
         <v>1</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N9" s="41">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O9" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P9" s="23">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="Q7" s="52" t="s">
+      <c r="Q9" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S9" s="23">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T9" s="23">
         <f t="shared" si="4"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="str">
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="51" t="str">
         <f>RAW!A15</f>
         <v>IN</v>
       </c>
-      <c r="B8" s="5" t="str">
+      <c r="B10" s="5" t="str">
         <f>RAW!B15</f>
         <v xml:space="preserve"> Indiana</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C10" s="6">
         <f>RAW!C15</f>
         <v>1</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D10" s="15">
         <f>RAW!D15</f>
         <v>1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E10" s="6">
         <f>RAW!E15</f>
         <v>2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F10" s="6">
         <f>RAW!F15</f>
         <v>-1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G10" s="6">
         <f>RAW!G15</f>
         <v>0</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H10" s="6">
         <f>RAW!H15</f>
         <v>1</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I10" s="15">
         <f>RAW!I15</f>
         <v>2</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J10" s="6">
         <f>RAW!J15</f>
         <v>2</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K10" s="6">
         <f>RAW!K15</f>
         <v>2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L10" s="6">
         <f>RAW!L15</f>
         <v>2</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M10" s="6">
         <f>RAW!M15</f>
         <v>2</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N10" s="41">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O10" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P10" s="23">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q8" s="52" t="s">
+      <c r="Q10" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S10" s="23">
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T10" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="str">
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="51" t="str">
         <f>RAW!A23</f>
         <v>MI</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B11" s="5" t="str">
         <f>RAW!B23</f>
         <v xml:space="preserve"> Michigan</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C11" s="6">
         <f>RAW!C23</f>
         <v>0</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D11" s="15">
         <f>RAW!D23</f>
         <v>1</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E11" s="6">
         <f>RAW!E23</f>
         <v>1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F11" s="6">
         <f>RAW!F23</f>
         <v>2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G11" s="6">
         <f>RAW!G23</f>
         <v>0</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H11" s="6">
         <f>RAW!H23</f>
         <v>1</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I11" s="15">
         <f>RAW!I23</f>
         <v>2</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J11" s="6">
         <f>RAW!J23</f>
         <v>2</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K11" s="6">
         <f>RAW!K23</f>
         <v>2</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L11" s="6">
         <f>RAW!L23</f>
         <v>0</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M11" s="6">
         <f>RAW!M23</f>
         <v>0</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N11" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O11" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P11" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="52" t="s">
+      <c r="Q11" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S11" s="23">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T9" s="40">
+      <c r="T11" s="40">
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="str">
+      <c r="V11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="str">
         <f>RAW!A41</f>
         <v>SC</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B12" s="5" t="str">
         <f>RAW!B41</f>
         <v xml:space="preserve"> South Carolina</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C12" s="6">
         <f>RAW!C41</f>
         <v>1</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D12" s="15">
         <f>RAW!D41</f>
         <v>1</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E12" s="6">
         <f>RAW!E41</f>
         <v>0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F12" s="6">
         <f>RAW!F41</f>
         <v>1</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G12" s="6">
         <f>RAW!G41</f>
         <v>1</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H12" s="6">
         <f>RAW!H41</f>
         <v>1</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I12" s="15">
         <f>RAW!I41</f>
         <v>2</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J12" s="6">
         <f>RAW!J41</f>
         <v>2</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K12" s="6">
         <f>RAW!K41</f>
         <v>2</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L12" s="6">
         <f>RAW!L41</f>
         <v>1</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M12" s="6">
         <f>RAW!M41</f>
         <v>2</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N12" s="41">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="O10" s="23">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P10" s="23">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="Q10" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="S10" s="23">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="T10" s="23">
-        <f t="shared" si="4"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="str">
-        <f>RAW!A5</f>
-        <v>AR</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <f>RAW!B5</f>
-        <v xml:space="preserve"> Arkansas</v>
-      </c>
-      <c r="C11" s="6">
-        <f>RAW!C5</f>
-        <v>-1</v>
-      </c>
-      <c r="D11" s="15">
-        <f>RAW!D5</f>
-        <v>-1</v>
-      </c>
-      <c r="E11" s="6">
-        <f>RAW!E5</f>
-        <v>-1</v>
-      </c>
-      <c r="F11" s="6">
-        <f>RAW!F5</f>
-        <v>-1</v>
-      </c>
-      <c r="G11" s="6">
-        <f>RAW!G5</f>
-        <v>-1</v>
-      </c>
-      <c r="H11" s="6">
-        <f>RAW!H5</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
-        <f>RAW!I5</f>
-        <v>2</v>
-      </c>
-      <c r="J11" s="6">
-        <f>RAW!J5</f>
-        <v>2</v>
-      </c>
-      <c r="K11" s="6">
-        <f>RAW!K5</f>
-        <v>1</v>
-      </c>
-      <c r="L11" s="6">
-        <f>RAW!L5</f>
-        <v>1</v>
-      </c>
-      <c r="M11" s="6">
-        <f>RAW!M5</f>
-        <v>1</v>
-      </c>
-      <c r="N11" s="41">
-        <f t="shared" si="0"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O11" s="23">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="P11" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="S11" s="23">
-        <f t="shared" si="3"/>
-        <v>2.2666666666666666</v>
-      </c>
-      <c r="T11" s="23">
-        <f t="shared" si="4"/>
-        <v>-0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="str">
-        <f>RAW!A11</f>
-        <v>GA</v>
-      </c>
-      <c r="B12" s="5" t="str">
-        <f>RAW!B11</f>
-        <v xml:space="preserve"> Georgia</v>
-      </c>
-      <c r="C12" s="6">
-        <f>RAW!C11</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="15">
-        <f>RAW!D11</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <f>RAW!E11</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <f>RAW!F11</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <f>RAW!G11</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <f>RAW!H11</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="15">
-        <f>RAW!I11</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <f>RAW!J11</f>
-        <v>2</v>
-      </c>
-      <c r="K12" s="6">
-        <f>RAW!K11</f>
-        <v>2</v>
-      </c>
-      <c r="L12" s="6">
-        <f>RAW!L11</f>
-        <v>2</v>
-      </c>
-      <c r="M12" s="6">
-        <f>RAW!M11</f>
-        <v>1</v>
-      </c>
-      <c r="N12" s="41">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
       <c r="O12" s="23">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="P12" s="23">
         <f t="shared" si="2"/>
@@ -3351,69 +3266,72 @@
       </c>
       <c r="S12" s="23">
         <f t="shared" si="3"/>
-        <v>1.4666666666666668</v>
+        <v>1.2</v>
       </c>
       <c r="T12" s="23">
         <f t="shared" si="4"/>
-        <v>-0.16666666666666674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>-0.5</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="str">
-        <f>RAW!A47</f>
-        <v>VA</v>
+        <f>RAW!A5</f>
+        <v>AR</v>
       </c>
       <c r="B13" s="5" t="str">
-        <f>RAW!B47</f>
-        <v xml:space="preserve"> Virginia</v>
+        <f>RAW!B5</f>
+        <v xml:space="preserve"> Arkansas</v>
       </c>
       <c r="C13" s="6">
-        <f>RAW!C47</f>
-        <v>1</v>
+        <f>RAW!C5</f>
+        <v>-1</v>
       </c>
       <c r="D13" s="15">
-        <f>RAW!D47</f>
-        <v>1</v>
+        <f>RAW!D5</f>
+        <v>-1</v>
       </c>
       <c r="E13" s="6">
-        <f>RAW!E47</f>
-        <v>2</v>
+        <f>RAW!E5</f>
+        <v>-1</v>
       </c>
       <c r="F13" s="6">
-        <f>RAW!F47</f>
-        <v>2</v>
+        <f>RAW!F5</f>
+        <v>-1</v>
       </c>
       <c r="G13" s="6">
-        <f>RAW!G47</f>
-        <v>0</v>
+        <f>RAW!G5</f>
+        <v>-1</v>
       </c>
       <c r="H13" s="6">
-        <f>RAW!H47</f>
-        <v>2</v>
+        <f>RAW!H5</f>
+        <v>1</v>
       </c>
       <c r="I13" s="15">
-        <f>RAW!I47</f>
+        <f>RAW!I5</f>
         <v>2</v>
       </c>
       <c r="J13" s="6">
-        <f>RAW!J47</f>
+        <f>RAW!J5</f>
         <v>2</v>
       </c>
       <c r="K13" s="6">
-        <f>RAW!K47</f>
+        <f>RAW!K5</f>
         <v>1</v>
       </c>
       <c r="L13" s="6">
-        <f>RAW!L47</f>
-        <v>-1</v>
+        <f>RAW!L5</f>
+        <v>1</v>
       </c>
       <c r="M13" s="6">
-        <f>RAW!M47</f>
-        <v>-1</v>
+        <f>RAW!M5</f>
+        <v>1</v>
       </c>
       <c r="N13" s="41">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>-0.6</v>
       </c>
       <c r="O13" s="23">
         <f t="shared" si="1"/>
@@ -3421,80 +3339,83 @@
       </c>
       <c r="P13" s="23">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="52" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S13" s="23">
         <f t="shared" si="3"/>
-        <v>0.26666666666666683</v>
-      </c>
-      <c r="T13" s="40">
+        <v>2.2666666666666666</v>
+      </c>
+      <c r="T13" s="23">
         <f t="shared" si="4"/>
-        <v>-2.666666666666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>-0.66666666666666674</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="str">
-        <f>RAW!A37</f>
-        <v>OK</v>
+        <f>RAW!A11</f>
+        <v>GA</v>
       </c>
       <c r="B14" s="5" t="str">
-        <f>RAW!B37</f>
-        <v xml:space="preserve"> Oklahoma</v>
+        <f>RAW!B11</f>
+        <v xml:space="preserve"> Georgia</v>
       </c>
       <c r="C14" s="6">
-        <f>RAW!C37</f>
+        <f>RAW!C11</f>
         <v>1</v>
       </c>
       <c r="D14" s="15">
-        <f>RAW!D37</f>
-        <v>1</v>
+        <f>RAW!D11</f>
+        <v>0</v>
       </c>
       <c r="E14" s="6">
-        <f>RAW!E37</f>
-        <v>1</v>
+        <f>RAW!E11</f>
+        <v>0</v>
       </c>
       <c r="F14" s="6">
-        <f>RAW!F37</f>
-        <v>1</v>
+        <f>RAW!F11</f>
+        <v>0</v>
       </c>
       <c r="G14" s="6">
-        <f>RAW!G37</f>
-        <v>1</v>
+        <f>RAW!G11</f>
+        <v>0</v>
       </c>
       <c r="H14" s="6">
-        <f>RAW!H37</f>
+        <f>RAW!H11</f>
         <v>1</v>
       </c>
       <c r="I14" s="15">
-        <f>RAW!I37</f>
-        <v>2</v>
+        <f>RAW!I11</f>
+        <v>1</v>
       </c>
       <c r="J14" s="6">
-        <f>RAW!J37</f>
-        <v>1</v>
+        <f>RAW!J11</f>
+        <v>2</v>
       </c>
       <c r="K14" s="6">
-        <f>RAW!K37</f>
-        <v>1</v>
+        <f>RAW!K11</f>
+        <v>2</v>
       </c>
       <c r="L14" s="6">
-        <f>RAW!L37</f>
-        <v>1</v>
+        <f>RAW!L11</f>
+        <v>2</v>
       </c>
       <c r="M14" s="6">
-        <f>RAW!M37</f>
-        <v>2</v>
+        <f>RAW!M11</f>
+        <v>1</v>
       </c>
       <c r="N14" s="41">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O14" s="23">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="P14" s="23">
         <f t="shared" si="2"/>
@@ -3505,1224 +3426,1272 @@
       </c>
       <c r="S14" s="23">
         <f t="shared" si="3"/>
-        <v>0.33333333333333326</v>
+        <v>1.4666666666666668</v>
       </c>
       <c r="T14" s="23">
         <f t="shared" si="4"/>
+        <v>-0.16666666666666674</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="str">
+        <f>RAW!A47</f>
+        <v>VA</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f>RAW!B47</f>
+        <v xml:space="preserve"> Virginia</v>
+      </c>
+      <c r="C15" s="6">
+        <f>RAW!C47</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
+        <f>RAW!D47</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <f>RAW!E47</f>
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
+        <f>RAW!F47</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="6">
+        <f>RAW!G47</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <f>RAW!H47</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="15">
+        <f>RAW!I47</f>
+        <v>2</v>
+      </c>
+      <c r="J15" s="6">
+        <f>RAW!J47</f>
+        <v>2</v>
+      </c>
+      <c r="K15" s="6">
+        <f>RAW!K47</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="6">
+        <f>RAW!L47</f>
+        <v>-1</v>
+      </c>
+      <c r="M15" s="6">
+        <f>RAW!M47</f>
+        <v>-1</v>
+      </c>
+      <c r="N15" s="41">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="O15" s="23">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="P15" s="23">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="S15" s="23">
+        <f t="shared" si="3"/>
+        <v>0.26666666666666683</v>
+      </c>
+      <c r="T15" s="40">
+        <f t="shared" si="4"/>
+        <v>-2.666666666666667</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="51" t="str">
+        <f>RAW!A37</f>
+        <v>OK</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f>RAW!B37</f>
+        <v xml:space="preserve"> Oklahoma</v>
+      </c>
+      <c r="C16" s="6">
+        <f>RAW!C37</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="15">
+        <f>RAW!D37</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <f>RAW!E37</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <f>RAW!F37</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <f>RAW!G37</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <f>RAW!H37</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="15">
+        <f>RAW!I37</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="6">
+        <f>RAW!J37</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <f>RAW!K37</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
+        <f>RAW!L37</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="6">
+        <f>RAW!M37</f>
+        <v>2</v>
+      </c>
+      <c r="N16" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="P16" s="23">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q16" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="S16" s="23">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="T16" s="23">
+        <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="str">
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="53" t="str">
         <f>RAW!A43</f>
         <v>TN</v>
       </c>
-      <c r="B15" s="7" t="str">
+      <c r="B17" s="7" t="str">
         <f>RAW!B43</f>
         <v xml:space="preserve"> Tennessee</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C17" s="8">
         <f>RAW!C43</f>
         <v>1</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D17" s="16">
         <f>RAW!D43</f>
         <v>-1</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E17" s="8">
         <f>RAW!E43</f>
         <v>-1</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F17" s="8">
         <f>RAW!F43</f>
         <v>0</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G17" s="8">
         <f>RAW!G43</f>
         <v>-1</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H17" s="8">
         <f>RAW!H43</f>
         <v>1</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I17" s="16">
         <f>RAW!I43</f>
         <v>2</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J17" s="8">
         <f>RAW!J43</f>
         <v>1</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K17" s="8">
         <f>RAW!K43</f>
         <v>1</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L17" s="8">
         <f>RAW!L43</f>
         <v>2</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M17" s="8">
         <f>RAW!M43</f>
         <v>1</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N17" s="42">
         <f t="shared" si="0"/>
         <v>-0.4</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O17" s="24">
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P17" s="24">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="Q15" s="54" t="s">
+      <c r="Q17" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="S15" s="24">
+      <c r="S17" s="24">
         <f t="shared" si="3"/>
         <v>1.7333333333333334</v>
       </c>
-      <c r="T15" s="24">
+      <c r="T17" s="24">
         <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="str">
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="51" t="str">
         <f>RAW!A3</f>
         <v>AK</v>
       </c>
-      <c r="B16" s="5" t="str">
+      <c r="B18" s="5" t="str">
         <f>RAW!B3</f>
         <v xml:space="preserve"> Alaska</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C18" s="6">
         <f>RAW!C3</f>
         <v>1</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D18" s="15">
         <f>RAW!D3</f>
         <v>1</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E18" s="6">
         <f>RAW!E3</f>
         <v>1</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F18" s="6">
         <f>RAW!F3</f>
         <v>1</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G18" s="6">
         <f>RAW!G3</f>
         <v>1</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H18" s="6">
         <f>RAW!H3</f>
         <v>1</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I18" s="15">
         <f>RAW!I3</f>
         <v>1</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J18" s="6">
         <f>RAW!J3</f>
         <v>1</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K18" s="6">
         <f>RAW!K3</f>
         <v>1</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L18" s="6">
         <f>RAW!L3</f>
         <v>1</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M18" s="6">
         <f>RAW!M3</f>
         <v>1</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N18" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O18" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P18" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q16" s="52" t="s">
+      <c r="Q18" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="S16" s="23">
+      <c r="S18" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T16" s="23">
+      <c r="T18" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="str">
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="51" t="str">
         <f>RAW!A13</f>
         <v>ID</v>
       </c>
-      <c r="B17" s="5" t="str">
+      <c r="B19" s="5" t="str">
         <f>RAW!B13</f>
         <v xml:space="preserve"> Idaho</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C19" s="6">
         <f>RAW!C13</f>
         <v>1</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D19" s="15">
         <f>RAW!D13</f>
         <v>1</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E19" s="6">
         <f>RAW!E13</f>
         <v>1</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F19" s="6">
         <f>RAW!F13</f>
         <v>1</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G19" s="6">
         <f>RAW!G13</f>
         <v>0</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H19" s="6">
         <f>RAW!H13</f>
         <v>1</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I19" s="15">
         <f>RAW!I13</f>
         <v>1</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J19" s="6">
         <f>RAW!J13</f>
         <v>1</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K19" s="6">
         <f>RAW!K13</f>
         <v>1</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L19" s="6">
         <f>RAW!L13</f>
         <v>1</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M19" s="6">
         <f>RAW!M13</f>
         <v>1</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N19" s="41">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O19" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P19" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="52" t="s">
+      <c r="Q19" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S19" s="23">
         <f t="shared" si="3"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="T17" s="23">
+      <c r="T19" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="str">
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="51" t="str">
         <f>RAW!A17</f>
         <v>KS</v>
       </c>
-      <c r="B18" s="5" t="str">
+      <c r="B20" s="5" t="str">
         <f>RAW!B17</f>
         <v xml:space="preserve"> Kansas</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C20" s="6">
         <f>RAW!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D20" s="15">
         <f>RAW!D17</f>
         <v>1</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E20" s="6">
         <f>RAW!E17</f>
         <v>1</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F20" s="6">
         <f>RAW!F17</f>
         <v>0</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G20" s="6">
         <f>RAW!G17</f>
         <v>1</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H20" s="6">
         <f>RAW!H17</f>
         <v>1</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I20" s="15">
         <f>RAW!I17</f>
         <v>1</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J20" s="6">
         <f>RAW!J17</f>
         <v>1</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K20" s="6">
         <f>RAW!K17</f>
         <v>1</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L20" s="6">
         <f>RAW!L17</f>
         <v>1</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M20" s="6">
         <f>RAW!M17</f>
         <v>1</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N20" s="41">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O20" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P20" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="52" t="s">
+      <c r="Q20" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S20" s="23">
         <f t="shared" si="3"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="T18" s="23">
+      <c r="T20" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="str">
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="51" t="str">
         <f>RAW!A18</f>
         <v>KY</v>
       </c>
-      <c r="B19" s="5" t="str">
+      <c r="B21" s="5" t="str">
         <f>RAW!B18</f>
         <v xml:space="preserve"> Kentucky</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C21" s="6">
         <f>RAW!C18</f>
         <v>2</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D21" s="15">
         <f>RAW!D18</f>
         <v>0</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E21" s="6">
         <f>RAW!E18</f>
         <v>1</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F21" s="6">
         <f>RAW!F18</f>
         <v>1</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G21" s="6">
         <f>RAW!G18</f>
         <v>1</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H21" s="6">
         <f>RAW!H18</f>
         <v>0</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I21" s="15">
         <f>RAW!I18</f>
         <v>1</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J21" s="6">
         <f>RAW!J18</f>
         <v>1</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K21" s="6">
         <f>RAW!K18</f>
         <v>1</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L21" s="6">
         <f>RAW!L18</f>
         <v>1</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M21" s="6">
         <f>RAW!M18</f>
         <v>1</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N21" s="41">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O21" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P21" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="52" t="s">
+      <c r="Q21" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S21" s="23">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="T19" s="23">
+      <c r="T21" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="str">
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="51" t="str">
         <f>RAW!A19</f>
         <v>LA</v>
       </c>
-      <c r="B20" s="5" t="str">
+      <c r="B22" s="5" t="str">
         <f>RAW!B19</f>
         <v xml:space="preserve"> Louisiana</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C22" s="6">
         <f>RAW!C19</f>
         <v>1</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D22" s="15">
         <f>RAW!D19</f>
         <v>1</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E22" s="6">
         <f>RAW!E19</f>
         <v>1</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F22" s="6">
         <f>RAW!F19</f>
         <v>0</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G22" s="6">
         <f>RAW!G19</f>
         <v>2</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H22" s="6">
         <f>RAW!H19</f>
         <v>1</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I22" s="15">
         <f>RAW!I19</f>
         <v>1</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J22" s="6">
         <f>RAW!J19</f>
         <v>1</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K22" s="6">
         <f>RAW!K19</f>
         <v>1</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L22" s="6">
         <f>RAW!L19</f>
         <v>1</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M22" s="6">
         <f>RAW!M19</f>
         <v>1</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N22" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O22" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P22" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="52" t="s">
+      <c r="Q22" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S22" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T20" s="23">
+      <c r="T22" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="str">
+      <c r="V22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="51" t="str">
         <f>RAW!A25</f>
         <v>MS</v>
       </c>
-      <c r="B21" s="5" t="str">
+      <c r="B23" s="5" t="str">
         <f>RAW!B25</f>
         <v xml:space="preserve"> Mississippi</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C23" s="6">
         <f>RAW!C25</f>
         <v>0</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D23" s="15">
         <f>RAW!D25</f>
         <v>0</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E23" s="6">
         <f>RAW!E25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F23" s="6">
         <f>RAW!F25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G23" s="6">
         <f>RAW!G25</f>
         <v>-1</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H23" s="6">
         <f>RAW!H25</f>
         <v>1</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I23" s="15">
         <f>RAW!I25</f>
         <v>1</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J23" s="6">
         <f>RAW!J25</f>
         <v>1</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K23" s="6">
         <f>RAW!K25</f>
         <v>1</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L23" s="6">
         <f>RAW!L25</f>
         <v>1</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M23" s="6">
         <f>RAW!M25</f>
         <v>1</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N23" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O23" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P23" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="52" t="s">
+      <c r="Q23" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S23" s="23">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T21" s="23">
+      <c r="T23" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="str">
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="51" t="str">
         <f>RAW!A26</f>
         <v>MO</v>
       </c>
-      <c r="B22" s="5" t="str">
+      <c r="B24" s="5" t="str">
         <f>RAW!B26</f>
         <v xml:space="preserve"> Missouri</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C24" s="6">
         <f>RAW!C26</f>
         <v>1</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D24" s="15">
         <f>RAW!D26</f>
         <v>0</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E24" s="6">
         <f>RAW!E26</f>
         <v>0</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F24" s="6">
         <f>RAW!F26</f>
         <v>0</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G24" s="6">
         <f>RAW!G26</f>
         <v>0</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H24" s="6">
         <f>RAW!H26</f>
         <v>1</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I24" s="15">
         <f>RAW!I26</f>
         <v>1</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J24" s="6">
         <f>RAW!J26</f>
         <v>1</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K24" s="6">
         <f>RAW!K26</f>
         <v>1</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L24" s="6">
         <f>RAW!L26</f>
         <v>1</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M24" s="6">
         <f>RAW!M26</f>
         <v>1</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N24" s="41">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O24" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P24" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="52" t="s">
+      <c r="Q24" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="S22" s="23">
+      <c r="S24" s="23">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="T22" s="23">
+      <c r="T24" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="str">
+      <c r="V24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="51" t="str">
         <f>RAW!A27</f>
         <v>MT</v>
       </c>
-      <c r="B23" s="5" t="str">
+      <c r="B25" s="5" t="str">
         <f>RAW!B27</f>
         <v xml:space="preserve"> Montana</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C25" s="6">
         <f>RAW!C27</f>
         <v>1</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D25" s="15">
         <f>RAW!D27</f>
         <v>1</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E25" s="6">
         <f>RAW!E27</f>
         <v>1</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F25" s="6">
         <f>RAW!F27</f>
         <v>1</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G25" s="6">
         <f>RAW!G27</f>
         <v>1</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H25" s="6">
         <f>RAW!H27</f>
         <v>1</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I25" s="15">
         <f>RAW!I27</f>
         <v>1</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J25" s="6">
         <f>RAW!J27</f>
         <v>1</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K25" s="6">
         <f>RAW!K27</f>
         <v>1</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L25" s="6">
         <f>RAW!L27</f>
         <v>1</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M25" s="6">
         <f>RAW!M27</f>
         <v>1</v>
       </c>
-      <c r="N23" s="41">
+      <c r="N25" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O23" s="23">
+      <c r="O25" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P25" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q23" s="52" t="s">
+      <c r="Q25" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S25" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T23" s="23">
+      <c r="T25" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="str">
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="51" t="str">
         <f>RAW!A35</f>
         <v>ND</v>
       </c>
-      <c r="B24" s="5" t="str">
+      <c r="B26" s="5" t="str">
         <f>RAW!B35</f>
         <v xml:space="preserve"> North Dakota</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C26" s="6">
         <f>RAW!C35</f>
         <v>-1</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D26" s="15">
         <f>RAW!D35</f>
         <v>-1</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E26" s="6">
         <f>RAW!E35</f>
         <v>-1</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F26" s="6">
         <f>RAW!F35</f>
         <v>-1</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G26" s="6">
         <f>RAW!G35</f>
         <v>-1</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H26" s="6">
         <f>RAW!H35</f>
         <v>1</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I26" s="15">
         <f>RAW!I35</f>
         <v>1</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J26" s="6">
         <f>RAW!J35</f>
         <v>1</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K26" s="6">
         <f>RAW!K35</f>
         <v>1</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L26" s="6">
         <f>RAW!L35</f>
         <v>1</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M26" s="6">
         <f>RAW!M35</f>
         <v>1</v>
       </c>
-      <c r="N24" s="41">
+      <c r="N26" s="41">
         <f t="shared" si="0"/>
         <v>-0.6</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O26" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P24" s="23">
+      <c r="P26" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="52" t="s">
+      <c r="Q26" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="S24" s="23">
+      <c r="S26" s="23">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="T24" s="23">
+      <c r="T26" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="str">
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="51" t="str">
         <f>RAW!A42</f>
         <v>SD</v>
       </c>
-      <c r="B25" s="5" t="str">
+      <c r="B27" s="5" t="str">
         <f>RAW!B42</f>
         <v xml:space="preserve"> South Dakota</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C27" s="6">
         <f>RAW!C42</f>
         <v>1</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D27" s="15">
         <f>RAW!D42</f>
         <v>1</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E27" s="6">
         <f>RAW!E42</f>
         <v>-1</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F27" s="6">
         <f>RAW!F42</f>
         <v>-1</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G27" s="6">
         <f>RAW!G42</f>
         <v>-1</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H27" s="6">
         <f>RAW!H42</f>
         <v>1</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I27" s="15">
         <f>RAW!I42</f>
         <v>1</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J27" s="6">
         <f>RAW!J42</f>
         <v>1</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K27" s="6">
         <f>RAW!K42</f>
         <v>1</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L27" s="6">
         <f>RAW!L42</f>
         <v>1</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M27" s="6">
         <f>RAW!M42</f>
         <v>1</v>
       </c>
-      <c r="N25" s="41">
+      <c r="N27" s="41">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="O25" s="23">
+      <c r="O27" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P27" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q25" s="52" t="s">
+      <c r="Q27" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S27" s="23">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="T25" s="23">
+      <c r="T27" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="51" t="str">
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="51" t="str">
         <f>RAW!A50</f>
         <v>WI</v>
       </c>
-      <c r="B26" s="5" t="str">
+      <c r="B28" s="5" t="str">
         <f>RAW!B50</f>
         <v xml:space="preserve"> Wisconsin</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C28" s="6">
         <f>RAW!C50</f>
         <v>-1</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D28" s="15">
         <f>RAW!D50</f>
         <v>0</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E28" s="6">
         <f>RAW!E50</f>
         <v>0</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F28" s="6">
         <f>RAW!F50</f>
         <v>-1</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G28" s="6">
         <f>RAW!G50</f>
         <v>-1</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H28" s="6">
         <f>RAW!H50</f>
         <v>1</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I28" s="15">
         <f>RAW!I50</f>
         <v>1</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J28" s="6">
         <f>RAW!J50</f>
         <v>1</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K28" s="6">
         <f>RAW!K50</f>
         <v>1</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L28" s="6">
         <f>RAW!L50</f>
         <v>1</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M28" s="6">
         <f>RAW!M50</f>
         <v>1</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N28" s="41">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O28" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P28" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="52" t="s">
+      <c r="Q28" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S26" s="23">
+      <c r="S28" s="23">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="T26" s="23">
+      <c r="T28" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="str">
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="51" t="str">
         <f>RAW!A51</f>
         <v>WY</v>
       </c>
-      <c r="B27" s="5" t="str">
+      <c r="B29" s="5" t="str">
         <f>RAW!B51</f>
         <v xml:space="preserve"> Wyoming</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C29" s="6">
         <f>RAW!C51</f>
         <v>1</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D29" s="15">
         <f>RAW!D51</f>
         <v>1</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E29" s="6">
         <f>RAW!E51</f>
         <v>1</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F29" s="6">
         <f>RAW!F51</f>
         <v>1</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G29" s="6">
         <f>RAW!G51</f>
         <v>1</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H29" s="6">
         <f>RAW!H51</f>
         <v>1</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I29" s="15">
         <f>RAW!I51</f>
         <v>1</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J29" s="6">
         <f>RAW!J51</f>
         <v>1</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K29" s="6">
         <f>RAW!K51</f>
         <v>1</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L29" s="6">
         <f>RAW!L51</f>
         <v>1</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M29" s="6">
         <f>RAW!M51</f>
         <v>1</v>
       </c>
-      <c r="N27" s="41">
+      <c r="N29" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O29" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P27" s="23">
+      <c r="P29" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q27" s="52" t="s">
+      <c r="Q29" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="S27" s="23">
+      <c r="S29" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T27" s="23">
+      <c r="T29" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="str">
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="51" t="str">
         <f>RAW!A16</f>
         <v>IA</v>
       </c>
-      <c r="B28" s="5" t="str">
+      <c r="B30" s="5" t="str">
         <f>RAW!B16</f>
         <v xml:space="preserve"> Iowa</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C30" s="6">
         <f>RAW!C16</f>
         <v>1</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D30" s="15">
         <f>RAW!D16</f>
         <v>1</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E30" s="6">
         <f>RAW!E16</f>
         <v>1</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F30" s="6">
         <f>RAW!F16</f>
         <v>-1</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G30" s="6">
         <f>RAW!G16</f>
         <v>0</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H30" s="6">
         <f>RAW!H16</f>
         <v>-1</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I30" s="15">
         <f>RAW!I16</f>
         <v>0</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J30" s="6">
         <f>RAW!J16</f>
         <v>1</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K30" s="6">
         <f>RAW!K16</f>
         <v>1</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L30" s="6">
         <f>RAW!L16</f>
         <v>-1</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M30" s="6">
         <f>RAW!M16</f>
-        <v>1</v>
-      </c>
-      <c r="N28" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="23">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P28" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="S28" s="23">
-        <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T28" s="23">
-        <f t="shared" si="4"/>
-        <v>-0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="51" t="str">
-        <f>RAW!A28</f>
-        <v>NE</v>
-      </c>
-      <c r="B29" s="5" t="str">
-        <f>RAW!B28</f>
-        <v xml:space="preserve"> Nebraska</v>
-      </c>
-      <c r="C29" s="6">
-        <f>RAW!C28</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="15">
-        <f>RAW!D28</f>
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
-        <f>RAW!E28</f>
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
-        <f>RAW!F28</f>
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <f>RAW!G28</f>
-        <v>1</v>
-      </c>
-      <c r="H29" s="6">
-        <f>RAW!H28</f>
-        <v>1</v>
-      </c>
-      <c r="I29" s="15">
-        <f>RAW!I28</f>
-        <v>1</v>
-      </c>
-      <c r="J29" s="6">
-        <f>RAW!J28</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
-        <f>RAW!K28</f>
-        <v>1</v>
-      </c>
-      <c r="L29" s="6">
-        <f>RAW!L28</f>
-        <v>1</v>
-      </c>
-      <c r="M29" s="6">
-        <f>RAW!M28</f>
-        <v>1</v>
-      </c>
-      <c r="N29" s="41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O29" s="23">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P29" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q29" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="S29" s="23">
-        <f t="shared" si="3"/>
-        <v>-0.33333333333333337</v>
-      </c>
-      <c r="T29" s="23">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333337</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="str">
-        <f>RAW!A45</f>
-        <v>UT</v>
-      </c>
-      <c r="B30" s="5" t="str">
-        <f>RAW!B45</f>
-        <v xml:space="preserve"> Utah</v>
-      </c>
-      <c r="C30" s="6">
-        <f>RAW!C45</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="15">
-        <f>RAW!D45</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="6">
-        <f>RAW!E45</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <f>RAW!F45</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <f>RAW!G45</f>
-        <v>-1</v>
-      </c>
-      <c r="H30" s="6">
-        <f>RAW!H45</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="15">
-        <f>RAW!I45</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="6">
-        <f>RAW!J45</f>
-        <v>1</v>
-      </c>
-      <c r="K30" s="6">
-        <f>RAW!K45</f>
-        <v>1</v>
-      </c>
-      <c r="L30" s="6">
-        <f>RAW!L45</f>
-        <v>1</v>
-      </c>
-      <c r="M30" s="6">
-        <f>RAW!M45</f>
         <v>1</v>
       </c>
       <c r="N30" s="41">
         <f t="shared" si="0"/>
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="O30" s="23">
         <f t="shared" si="1"/>
@@ -4730,615 +4699,639 @@
       </c>
       <c r="P30" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="52" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="S30" s="23">
         <f t="shared" si="3"/>
-        <v>0.8666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T30" s="23">
         <f t="shared" si="4"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="V30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="51" t="str">
+        <f>RAW!A28</f>
+        <v>NE</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <f>RAW!B28</f>
+        <v xml:space="preserve"> Nebraska</v>
+      </c>
+      <c r="C31" s="6">
+        <f>RAW!C28</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="15">
+        <f>RAW!D28</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <f>RAW!E28</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <f>RAW!F28</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <f>RAW!G28</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
+        <f>RAW!H28</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="15">
+        <f>RAW!I28</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="6">
+        <f>RAW!J28</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <f>RAW!K28</f>
+        <v>1</v>
+      </c>
+      <c r="L31" s="6">
+        <f>RAW!L28</f>
+        <v>1</v>
+      </c>
+      <c r="M31" s="6">
+        <f>RAW!M28</f>
+        <v>1</v>
+      </c>
+      <c r="N31" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O31" s="23">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P31" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="S31" s="23">
+        <f t="shared" si="3"/>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="T31" s="23">
+        <f t="shared" si="4"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="53" t="str">
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="51" t="str">
+        <f>RAW!A45</f>
+        <v>UT</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f>RAW!B45</f>
+        <v xml:space="preserve"> Utah</v>
+      </c>
+      <c r="C32" s="6">
+        <f>RAW!C45</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="15">
+        <f>RAW!D45</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <f>RAW!E45</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <f>RAW!F45</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <f>RAW!G45</f>
+        <v>-1</v>
+      </c>
+      <c r="H32" s="6">
+        <f>RAW!H45</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="15">
+        <f>RAW!I45</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <f>RAW!J45</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="6">
+        <f>RAW!K45</f>
+        <v>1</v>
+      </c>
+      <c r="L32" s="6">
+        <f>RAW!L45</f>
+        <v>1</v>
+      </c>
+      <c r="M32" s="6">
+        <f>RAW!M45</f>
+        <v>1</v>
+      </c>
+      <c r="N32" s="41">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="O32" s="23">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P32" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="S32" s="23">
+        <f t="shared" si="3"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="T32" s="23">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="53" t="str">
         <f>RAW!A49</f>
         <v>WV</v>
       </c>
-      <c r="B31" s="7" t="str">
+      <c r="B33" s="7" t="str">
         <f>RAW!B49</f>
         <v xml:space="preserve"> West Virginia</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C33" s="8">
         <f>RAW!C49</f>
         <v>0</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D33" s="16">
         <f>RAW!D49</f>
         <v>0</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E33" s="8">
         <f>RAW!E49</f>
         <v>0</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F33" s="8">
         <f>RAW!F49</f>
         <v>0</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G33" s="8">
         <f>RAW!G49</f>
         <v>0</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H33" s="8">
         <f>RAW!H49</f>
         <v>0</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I33" s="16">
         <f>RAW!I49</f>
         <v>0</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J33" s="8">
         <f>RAW!J49</f>
         <v>1</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K33" s="8">
         <f>RAW!K49</f>
         <v>1</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L33" s="8">
         <f>RAW!L49</f>
         <v>1</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M33" s="8">
         <f>RAW!M49</f>
         <v>1</v>
       </c>
-      <c r="N31" s="42">
+      <c r="N33" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O31" s="24">
+      <c r="O33" s="24">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="P31" s="24">
+      <c r="P33" s="24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q31" s="54" t="s">
+      <c r="Q33" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="S31" s="24">
+      <c r="S33" s="24">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T31" s="24">
+      <c r="T33" s="24">
         <f t="shared" si="4"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="str">
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="51" t="str">
         <f>RAW!A7</f>
         <v>CO</v>
       </c>
-      <c r="B32" s="5" t="str">
+      <c r="B34" s="5" t="str">
         <f>RAW!B7</f>
         <v xml:space="preserve"> Colorado</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C34" s="6">
         <f>RAW!C7</f>
         <v>1</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D34" s="15">
         <f>RAW!D7</f>
         <v>1</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E34" s="6">
         <f>RAW!E7</f>
         <v>1</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F34" s="6">
         <f>RAW!F7</f>
         <v>0</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G34" s="6">
         <f>RAW!G7</f>
         <v>-1</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H34" s="6">
         <f>RAW!H7</f>
         <v>0</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I34" s="15">
         <f>RAW!I7</f>
         <v>0</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J34" s="6">
         <f>RAW!J7</f>
         <v>0</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K34" s="6">
         <f>RAW!K7</f>
         <v>0</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L34" s="6">
         <f>RAW!L7</f>
         <v>0</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M34" s="6">
         <f>RAW!M7</f>
         <v>0</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N34" s="41">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="O32" s="23">
+      <c r="O34" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P32" s="23">
+      <c r="P34" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="52" t="s">
+      <c r="Q34" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="S32" s="23">
+      <c r="S34" s="23">
         <f t="shared" si="3"/>
         <v>-0.2</v>
       </c>
-      <c r="T32" s="23">
+      <c r="T34" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="str">
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="51" t="str">
         <f>RAW!A32</f>
         <v>NM</v>
       </c>
-      <c r="B33" s="5" t="str">
+      <c r="B35" s="5" t="str">
         <f>RAW!B32</f>
         <v xml:space="preserve"> New Mexico</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C35" s="6">
         <f>RAW!C32</f>
         <v>1</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D35" s="15">
         <f>RAW!D32</f>
         <v>1</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E35" s="6">
         <f>RAW!E32</f>
         <v>1</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F35" s="6">
         <f>RAW!F32</f>
         <v>1</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G35" s="6">
         <f>RAW!G32</f>
         <v>-1</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H35" s="6">
         <f>RAW!H32</f>
         <v>0</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I35" s="15">
         <f>RAW!I32</f>
         <v>0</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J35" s="6">
         <f>RAW!J32</f>
         <v>0</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K35" s="6">
         <f>RAW!K32</f>
         <v>0</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L35" s="6">
         <f>RAW!L32</f>
         <v>-1</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M35" s="6">
         <f>RAW!M32</f>
         <v>0</v>
       </c>
-      <c r="N33" s="41">
+      <c r="N35" s="41">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="O33" s="23">
+      <c r="O35" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P33" s="23">
+      <c r="P35" s="23">
         <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="Q33" s="52" t="s">
+      <c r="Q35" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="S33" s="23">
+      <c r="S35" s="23">
         <f t="shared" si="3"/>
         <v>-0.4</v>
       </c>
-      <c r="T33" s="23">
+      <c r="T35" s="23">
         <f t="shared" si="4"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="53" t="str">
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="53" t="str">
         <f>RAW!A29</f>
         <v>NV</v>
       </c>
-      <c r="B34" s="7" t="str">
+      <c r="B36" s="7" t="str">
         <f>RAW!B29</f>
         <v xml:space="preserve"> Nevada</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C36" s="8">
         <f>RAW!C29</f>
         <v>0</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D36" s="16">
         <f>RAW!D29</f>
         <v>0</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E36" s="8">
         <f>RAW!E29</f>
         <v>0</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F36" s="8">
         <f>RAW!F29</f>
         <v>2</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G36" s="8">
         <f>RAW!G29</f>
         <v>0</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H36" s="8">
         <f>RAW!H29</f>
         <v>0</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I36" s="16">
         <f>RAW!I29</f>
         <v>0</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J36" s="8">
         <f>RAW!J29</f>
         <v>1</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K36" s="8">
         <f>RAW!K29</f>
         <v>-1</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L36" s="8">
         <f>RAW!L29</f>
         <v>-1</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M36" s="8">
         <f>RAW!M29</f>
         <v>-1</v>
       </c>
-      <c r="N34" s="42">
-        <f t="shared" ref="N34:N51" si="5">AVERAGE(D34:H34)</f>
+      <c r="N36" s="42">
+        <f t="shared" ref="N36:N53" si="5">AVERAGE(D36:H36)</f>
         <v>0.4</v>
       </c>
-      <c r="O34" s="24">
-        <f t="shared" ref="O34:O51" si="6">AVERAGE(I34:K34)</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="24">
-        <f t="shared" ref="P34:P51" si="7">AVERAGE(L34:M34)</f>
-        <v>-1</v>
-      </c>
-      <c r="Q34" s="54" t="s">
+      <c r="O36" s="24">
+        <f t="shared" ref="O36:O53" si="6">AVERAGE(I36:K36)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="24">
+        <f t="shared" ref="P36:P53" si="7">AVERAGE(L36:M36)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q36" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="S34" s="24">
+      <c r="S36" s="24">
         <f t="shared" si="3"/>
         <v>-0.4</v>
       </c>
-      <c r="T34" s="24">
+      <c r="T36" s="24">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="51" t="str">
+      <c r="V36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="51" t="str">
         <f>RAW!A31</f>
         <v>NJ</v>
       </c>
-      <c r="B35" s="5" t="str">
+      <c r="B37" s="5" t="str">
         <f>RAW!B31</f>
         <v xml:space="preserve"> New Jersey</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C37" s="6">
         <f>RAW!C31</f>
         <v>0</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D37" s="15">
         <f>RAW!D31</f>
         <v>0</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E37" s="6">
         <f>RAW!E31</f>
         <v>1</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F37" s="6">
         <f>RAW!F31</f>
         <v>0</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G37" s="6">
         <f>RAW!G31</f>
         <v>-1</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H37" s="6">
         <f>RAW!H31</f>
         <v>-1</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I37" s="15">
         <f>RAW!I31</f>
         <v>1</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J37" s="6">
         <f>RAW!J31</f>
         <v>0</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K37" s="6">
         <f>RAW!K31</f>
         <v>-1</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L37" s="6">
         <f>RAW!L31</f>
         <v>-4</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M37" s="6">
         <f>RAW!M31</f>
         <v>-3</v>
       </c>
-      <c r="N35" s="41">
+      <c r="N37" s="41">
         <f t="shared" si="5"/>
         <v>-0.2</v>
       </c>
-      <c r="O35" s="23">
+      <c r="O37" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P35" s="23">
+      <c r="P37" s="23">
         <f t="shared" si="7"/>
         <v>-3.5</v>
       </c>
-      <c r="Q35" s="52" t="s">
+      <c r="Q37" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="S35" s="23">
+      <c r="S37" s="23">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="T35" s="40">
+      <c r="T37" s="40">
         <f t="shared" si="4"/>
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="51" t="str">
+      <c r="V37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="51" t="str">
         <f>RAW!A4</f>
         <v>AZ</v>
       </c>
-      <c r="B36" s="5" t="str">
+      <c r="B38" s="5" t="str">
         <f>RAW!B4</f>
         <v xml:space="preserve"> Arizona</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C38" s="6">
         <f>RAW!C4</f>
         <v>1</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D38" s="15">
         <f>RAW!D4</f>
         <v>1</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E38" s="6">
         <f>RAW!E4</f>
         <v>1</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F38" s="6">
         <f>RAW!F4</f>
         <v>0</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G38" s="6">
         <f>RAW!G4</f>
         <v>-1</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H38" s="6">
         <f>RAW!H4</f>
         <v>1</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I38" s="15">
         <f>RAW!I4</f>
         <v>-1</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J38" s="6">
         <f>RAW!J4</f>
         <v>0</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K38" s="6">
         <f>RAW!K4</f>
         <v>0</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L38" s="6">
         <f>RAW!L4</f>
         <v>0</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M38" s="6">
         <f>RAW!M4</f>
         <v>-1</v>
       </c>
-      <c r="N36" s="41">
+      <c r="N38" s="41">
         <f t="shared" si="5"/>
         <v>0.4</v>
-      </c>
-      <c r="O36" s="23">
-        <f t="shared" si="6"/>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="P36" s="23">
-        <f t="shared" si="7"/>
-        <v>-0.5</v>
-      </c>
-      <c r="Q36" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="S36" s="23">
-        <f t="shared" si="3"/>
-        <v>-0.73333333333333339</v>
-      </c>
-      <c r="T36" s="23">
-        <f t="shared" si="4"/>
-        <v>-0.16666666666666669</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="51" t="str">
-        <f>RAW!A20</f>
-        <v>ME</v>
-      </c>
-      <c r="B37" s="5" t="str">
-        <f>RAW!B20</f>
-        <v xml:space="preserve"> Maine</v>
-      </c>
-      <c r="C37" s="6">
-        <f>RAW!C20</f>
-        <v>-1</v>
-      </c>
-      <c r="D37" s="15">
-        <f>RAW!D20</f>
-        <v>-1</v>
-      </c>
-      <c r="E37" s="6">
-        <f>RAW!E20</f>
-        <v>-1</v>
-      </c>
-      <c r="F37" s="6">
-        <f>RAW!F20</f>
-        <v>-1</v>
-      </c>
-      <c r="G37" s="6">
-        <f>RAW!G20</f>
-        <v>-1</v>
-      </c>
-      <c r="H37" s="6">
-        <f>RAW!H20</f>
-        <v>-1</v>
-      </c>
-      <c r="I37" s="15">
-        <f>RAW!I20</f>
-        <v>-1</v>
-      </c>
-      <c r="J37" s="6">
-        <f>RAW!J20</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
-        <f>RAW!K20</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="6">
-        <f>RAW!L20</f>
-        <v>-1</v>
-      </c>
-      <c r="M37" s="6">
-        <f>RAW!M20</f>
-        <v>-1</v>
-      </c>
-      <c r="N37" s="41">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="O37" s="23">
-        <f t="shared" si="6"/>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="P37" s="23">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="Q37" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="S37" s="23">
-        <f t="shared" si="3"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="T37" s="23">
-        <f t="shared" si="4"/>
-        <v>-0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="51" t="str">
-        <f>RAW!A24</f>
-        <v>MN</v>
-      </c>
-      <c r="B38" s="5" t="str">
-        <f>RAW!B24</f>
-        <v xml:space="preserve"> Minnesota</v>
-      </c>
-      <c r="C38" s="6">
-        <f>RAW!C24</f>
-        <v>-1</v>
-      </c>
-      <c r="D38" s="15">
-        <f>RAW!D24</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="6">
-        <f>RAW!E24</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="6">
-        <f>RAW!F24</f>
-        <v>-1</v>
-      </c>
-      <c r="G38" s="6">
-        <f>RAW!G24</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="6">
-        <f>RAW!H24</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="15">
-        <f>RAW!I24</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="6">
-        <f>RAW!J24</f>
-        <v>-1</v>
-      </c>
-      <c r="K38" s="6">
-        <f>RAW!K24</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="6">
-        <f>RAW!L24</f>
-        <v>-1</v>
-      </c>
-      <c r="M38" s="6">
-        <f>RAW!M24</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="41">
-        <f t="shared" si="5"/>
-        <v>-0.2</v>
       </c>
       <c r="O38" s="23">
         <f t="shared" si="6"/>
@@ -5349,1817 +5342,2071 @@
         <v>-0.5</v>
       </c>
       <c r="Q38" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="S38" s="23">
+        <v>124</v>
+      </c>
+      <c r="S38" s="84">
         <f t="shared" si="3"/>
-        <v>-0.1333333333333333</v>
+        <v>-0.73333333333333339</v>
       </c>
       <c r="T38" s="23">
         <f t="shared" si="4"/>
         <v>-0.16666666666666669</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="51" t="str">
+        <f>RAW!A20</f>
+        <v>ME</v>
+      </c>
+      <c r="B39" s="5" t="str">
+        <f>RAW!B20</f>
+        <v xml:space="preserve"> Maine</v>
+      </c>
+      <c r="C39" s="6">
+        <f>RAW!C20</f>
+        <v>-1</v>
+      </c>
+      <c r="D39" s="15">
+        <f>RAW!D20</f>
+        <v>-1</v>
+      </c>
+      <c r="E39" s="6">
+        <f>RAW!E20</f>
+        <v>-1</v>
+      </c>
+      <c r="F39" s="6">
+        <f>RAW!F20</f>
+        <v>-1</v>
+      </c>
+      <c r="G39" s="6">
+        <f>RAW!G20</f>
+        <v>-1</v>
+      </c>
+      <c r="H39" s="6">
+        <f>RAW!H20</f>
+        <v>-1</v>
+      </c>
+      <c r="I39" s="15">
+        <f>RAW!I20</f>
+        <v>-1</v>
+      </c>
+      <c r="J39" s="6">
+        <f>RAW!J20</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <f>RAW!K20</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <f>RAW!L20</f>
+        <v>-1</v>
+      </c>
+      <c r="M39" s="6">
+        <f>RAW!M20</f>
+        <v>-1</v>
+      </c>
+      <c r="N39" s="41">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="O39" s="23">
+        <f t="shared" si="6"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="P39" s="23">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="S39" s="23">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="T39" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.66666666666666674</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="51" t="str">
+        <f>RAW!A24</f>
+        <v>MN</v>
+      </c>
+      <c r="B40" s="5" t="str">
+        <f>RAW!B24</f>
+        <v xml:space="preserve"> Minnesota</v>
+      </c>
+      <c r="C40" s="6">
+        <f>RAW!C24</f>
+        <v>-1</v>
+      </c>
+      <c r="D40" s="15">
+        <f>RAW!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <f>RAW!E24</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <f>RAW!F24</f>
+        <v>-1</v>
+      </c>
+      <c r="G40" s="6">
+        <f>RAW!G24</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <f>RAW!H24</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="15">
+        <f>RAW!I24</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <f>RAW!J24</f>
+        <v>-1</v>
+      </c>
+      <c r="K40" s="6">
+        <f>RAW!K24</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <f>RAW!L24</f>
+        <v>-1</v>
+      </c>
+      <c r="M40" s="6">
+        <f>RAW!M24</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="41">
+        <f t="shared" si="5"/>
+        <v>-0.2</v>
+      </c>
+      <c r="O40" s="23">
+        <f t="shared" si="6"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="P40" s="23">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Q40" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="S40" s="23">
+        <f t="shared" si="3"/>
+        <v>-0.1333333333333333</v>
+      </c>
+      <c r="T40" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="51" t="str">
         <f>RAW!A12</f>
         <v>HI</v>
       </c>
-      <c r="B39" s="5" t="str">
+      <c r="B41" s="5" t="str">
         <f>RAW!B12</f>
         <v xml:space="preserve"> Hawaii</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C41" s="6">
         <f>RAW!C12</f>
         <v>-1</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D41" s="15">
         <f>RAW!D12</f>
         <v>-1</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E41" s="6">
         <f>RAW!E12</f>
         <v>-1</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F41" s="6">
         <f>RAW!F12</f>
         <v>-1</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G41" s="6">
         <f>RAW!G12</f>
         <v>0</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H41" s="6">
         <f>RAW!H12</f>
         <v>-1</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I41" s="15">
         <f>RAW!I12</f>
         <v>-1</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J41" s="6">
         <f>RAW!J12</f>
         <v>-1</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K41" s="6">
         <f>RAW!K12</f>
         <v>0</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L41" s="6">
         <f>RAW!L12</f>
         <v>0</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M41" s="6">
         <f>RAW!M12</f>
         <v>-1</v>
       </c>
-      <c r="N39" s="41">
+      <c r="N41" s="41">
         <f t="shared" si="5"/>
         <v>-0.8</v>
       </c>
-      <c r="O39" s="23">
+      <c r="O41" s="23">
         <f t="shared" si="6"/>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="P39" s="23">
+      <c r="P41" s="23">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-      <c r="Q39" s="52" t="s">
+      <c r="Q41" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="S39" s="23">
+      <c r="S41" s="23">
         <f t="shared" si="3"/>
         <v>0.13333333333333341</v>
       </c>
-      <c r="T39" s="23">
+      <c r="T41" s="23">
         <f t="shared" si="4"/>
         <v>0.16666666666666663</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="str">
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" s="51" t="str">
         <f>RAW!A30</f>
         <v>NH</v>
       </c>
-      <c r="B40" s="5" t="str">
+      <c r="B42" s="5" t="str">
         <f>RAW!B30</f>
         <v xml:space="preserve"> New Hampshire</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C42" s="6">
         <f>RAW!C30</f>
         <v>1</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D42" s="15">
         <f>RAW!D30</f>
         <v>1</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E42" s="6">
         <f>RAW!E30</f>
         <v>1</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F42" s="6">
         <f>RAW!F30</f>
         <v>-1</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G42" s="6">
         <f>RAW!G30</f>
         <v>-1</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H42" s="6">
         <f>RAW!H30</f>
         <v>1</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I42" s="15">
         <f>RAW!I30</f>
         <v>-1</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J42" s="6">
         <f>RAW!J30</f>
         <v>0</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K42" s="6">
         <f>RAW!K30</f>
         <v>-1</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L42" s="6">
         <f>RAW!L30</f>
         <v>-1</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M42" s="6">
         <f>RAW!M30</f>
         <v>-1</v>
       </c>
-      <c r="N40" s="41">
+      <c r="N42" s="41">
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="O40" s="23">
+      <c r="O42" s="23">
         <f t="shared" si="6"/>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="P40" s="23">
+      <c r="P42" s="23">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="Q40" s="52" t="s">
+      <c r="Q42" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="S40" s="23">
+      <c r="S42" s="84">
         <f t="shared" si="3"/>
         <v>-0.8666666666666667</v>
       </c>
-      <c r="T40" s="23">
+      <c r="T42" s="23">
         <f t="shared" si="4"/>
         <v>-0.33333333333333337</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="51" t="str">
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" s="51" t="str">
         <f>RAW!A9</f>
         <v>DE</v>
       </c>
-      <c r="B41" s="5" t="str">
+      <c r="B43" s="5" t="str">
         <f>RAW!B9</f>
         <v xml:space="preserve"> Delaware</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C43" s="6">
         <f>RAW!C9</f>
         <v>1</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D43" s="15">
         <f>RAW!D9</f>
         <v>1</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E43" s="6">
         <f>RAW!E9</f>
         <v>1</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F43" s="6">
         <f>RAW!F9</f>
         <v>1</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G43" s="6">
         <f>RAW!G9</f>
         <v>1</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H43" s="6">
         <f>RAW!H9</f>
         <v>-1</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I43" s="15">
         <f>RAW!I9</f>
         <v>-1</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J43" s="6">
         <f>RAW!J9</f>
         <v>-1</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K43" s="6">
         <f>RAW!K9</f>
         <v>-1</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L43" s="6">
         <f>RAW!L9</f>
         <v>-1</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M43" s="6">
         <f>RAW!M9</f>
         <v>-1</v>
       </c>
-      <c r="N41" s="41">
+      <c r="N43" s="41">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="O41" s="23">
+      <c r="O43" s="23">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="P41" s="23">
+      <c r="P43" s="23">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="Q41" s="52" t="s">
+      <c r="Q43" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="S41" s="40">
+      <c r="S43" s="40">
         <f t="shared" si="3"/>
         <v>-1.6</v>
       </c>
-      <c r="T41" s="23">
+      <c r="T43" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="str">
+      <c r="V43" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" s="51" t="str">
         <f>RAW!A38</f>
         <v>OR</v>
       </c>
-      <c r="B42" s="5" t="str">
+      <c r="B44" s="5" t="str">
         <f>RAW!B38</f>
         <v xml:space="preserve"> Oregon</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C44" s="6">
         <f>RAW!C38</f>
         <v>-1</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D44" s="15">
         <f>RAW!D38</f>
         <v>-1</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E44" s="6">
         <f>RAW!E38</f>
         <v>-1</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F44" s="6">
         <f>RAW!F38</f>
         <v>-1</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G44" s="6">
         <f>RAW!G38</f>
         <v>-1</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H44" s="6">
         <f>RAW!H38</f>
         <v>-1</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I44" s="15">
         <f>RAW!I38</f>
         <v>-1</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J44" s="6">
         <f>RAW!J38</f>
         <v>-1</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K44" s="6">
         <f>RAW!K38</f>
         <v>-1</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L44" s="6">
         <f>RAW!L38</f>
         <v>-1</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M44" s="6">
         <f>RAW!M38</f>
         <v>-1</v>
       </c>
-      <c r="N42" s="41">
+      <c r="N44" s="41">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="O42" s="23">
+      <c r="O44" s="23">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="P42" s="23">
+      <c r="P44" s="23">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="Q42" s="52" t="s">
+      <c r="Q44" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="S42" s="23">
+      <c r="S44" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T42" s="23">
+      <c r="T44" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="51" t="str">
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45" s="51" t="str">
         <f>RAW!A40</f>
         <v>RI</v>
       </c>
-      <c r="B43" s="5" t="str">
+      <c r="B45" s="5" t="str">
         <f>RAW!B40</f>
         <v xml:space="preserve"> Rhode Island</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C45" s="6">
         <f>RAW!C40</f>
         <v>-1</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D45" s="15">
         <f>RAW!D40</f>
         <v>-1</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E45" s="6">
         <f>RAW!E40</f>
         <v>-1</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F45" s="6">
         <f>RAW!F40</f>
         <v>-1</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G45" s="6">
         <f>RAW!G40</f>
         <v>-1</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H45" s="6">
         <f>RAW!H40</f>
         <v>-1</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I45" s="15">
         <f>RAW!I40</f>
         <v>-1</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J45" s="6">
         <f>RAW!J40</f>
         <v>-1</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K45" s="6">
         <f>RAW!K40</f>
         <v>-1</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L45" s="6">
         <f>RAW!L40</f>
         <v>-1</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M45" s="6">
         <f>RAW!M40</f>
         <v>-1</v>
       </c>
-      <c r="N43" s="41">
+      <c r="N45" s="41">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="O43" s="23">
+      <c r="O45" s="23">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="P43" s="23">
+      <c r="P45" s="23">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="Q43" s="52" t="s">
+      <c r="Q45" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="S43" s="23">
+      <c r="S45" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T43" s="23">
+      <c r="T45" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="51" t="str">
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" s="51" t="str">
         <f>RAW!A46</f>
         <v>VT</v>
       </c>
-      <c r="B44" s="5" t="str">
+      <c r="B46" s="5" t="str">
         <f>RAW!B46</f>
         <v xml:space="preserve"> Vermont</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C46" s="6">
         <f>RAW!C46</f>
         <v>0</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D46" s="15">
         <f>RAW!D46</f>
         <v>0</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E46" s="6">
         <f>RAW!E46</f>
         <v>0</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F46" s="6">
         <f>RAW!F46</f>
         <v>-1</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G46" s="6">
         <f>RAW!G46</f>
         <v>-1</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H46" s="6">
         <f>RAW!H46</f>
         <v>-1</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I46" s="15">
         <f>RAW!I46</f>
         <v>-1</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J46" s="6">
         <f>RAW!J46</f>
         <v>-1</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K46" s="6">
         <f>RAW!K46</f>
         <v>-1</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L46" s="6">
         <f>RAW!L46</f>
         <v>-1</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M46" s="6">
         <f>RAW!M46</f>
         <v>-1</v>
       </c>
-      <c r="N44" s="41">
+      <c r="N46" s="41">
         <f t="shared" si="5"/>
         <v>-0.6</v>
       </c>
-      <c r="O44" s="23">
+      <c r="O46" s="23">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="P44" s="23">
+      <c r="P46" s="23">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="Q44" s="52" t="s">
+      <c r="Q46" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="S44" s="23">
+      <c r="S46" s="23">
         <f t="shared" si="3"/>
         <v>-0.4</v>
       </c>
-      <c r="T44" s="23">
+      <c r="T46" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="str">
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" s="51" t="str">
         <f>RAW!A48</f>
         <v>WA</v>
       </c>
-      <c r="B45" s="5" t="str">
+      <c r="B47" s="5" t="str">
         <f>RAW!B48</f>
         <v xml:space="preserve"> Washington</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C47" s="6">
         <f>RAW!C48</f>
         <v>-1</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D47" s="15">
         <f>RAW!D48</f>
         <v>-1</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E47" s="6">
         <f>RAW!E48</f>
         <v>-1</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F47" s="6">
         <f>RAW!F48</f>
         <v>-1</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G47" s="6">
         <f>RAW!G48</f>
         <v>-1</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H47" s="6">
         <f>RAW!H48</f>
         <v>0</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I47" s="15">
         <f>RAW!I48</f>
         <v>-1</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J47" s="6">
         <f>RAW!J48</f>
         <v>-1</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K47" s="6">
         <f>RAW!K48</f>
         <v>-1</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L47" s="6">
         <f>RAW!L48</f>
         <v>-1</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M47" s="6">
         <f>RAW!M48</f>
         <v>-1</v>
       </c>
-      <c r="N45" s="41">
+      <c r="N47" s="41">
         <f t="shared" si="5"/>
         <v>-0.8</v>
       </c>
-      <c r="O45" s="23">
+      <c r="O47" s="23">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="P45" s="23">
+      <c r="P47" s="23">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="Q45" s="52" t="s">
+      <c r="Q47" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="S45" s="23">
+      <c r="S47" s="23">
         <f t="shared" si="3"/>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="T45" s="23">
+      <c r="T47" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="51" t="str">
+      <c r="V47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48" s="51" t="str">
         <f>RAW!A14</f>
         <v>IL</v>
       </c>
-      <c r="B46" s="5" t="str">
+      <c r="B48" s="5" t="str">
         <f>RAW!B14</f>
         <v xml:space="preserve"> Illinois</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C48" s="6">
         <f>RAW!C14</f>
         <v>1</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D48" s="15">
         <f>RAW!D14</f>
         <v>1</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E48" s="6">
         <f>RAW!E14</f>
         <v>0</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F48" s="6">
         <f>RAW!F14</f>
         <v>0</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G48" s="6">
         <f>RAW!G14</f>
         <v>0</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H48" s="6">
         <f>RAW!H14</f>
         <v>2</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I48" s="15">
         <f>RAW!I14</f>
         <v>-2</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J48" s="6">
         <f>RAW!J14</f>
         <v>-1</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K48" s="6">
         <f>RAW!K14</f>
         <v>-1</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L48" s="6">
         <f>RAW!L14</f>
         <v>-2</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M48" s="6">
         <f>RAW!M14</f>
         <v>-3</v>
       </c>
-      <c r="N46" s="41">
+      <c r="N48" s="41">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="O46" s="23">
+      <c r="O48" s="23">
         <f t="shared" si="6"/>
         <v>-1.3333333333333333</v>
       </c>
-      <c r="P46" s="23">
+      <c r="P48" s="23">
         <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
-      <c r="Q46" s="52" t="s">
+      <c r="Q48" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="S46" s="40">
+      <c r="S48" s="40">
         <f t="shared" si="3"/>
         <v>-1.9333333333333331</v>
       </c>
-      <c r="T46" s="23">
+      <c r="T48" s="23">
         <f t="shared" si="4"/>
         <v>-1.1666666666666667</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="51" t="str">
+      <c r="V48" s="83">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49" s="51" t="str">
         <f>RAW!A33</f>
         <v>NY</v>
       </c>
-      <c r="B47" s="5" t="str">
+      <c r="B49" s="5" t="str">
         <f>RAW!B33</f>
         <v xml:space="preserve"> New York</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C49" s="6">
         <f>RAW!C33</f>
         <v>-1</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D49" s="15">
         <f>RAW!D33</f>
         <v>-3</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E49" s="6">
         <f>RAW!E33</f>
         <v>-2</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F49" s="6">
         <f>RAW!F33</f>
         <v>-4</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G49" s="6">
         <f>RAW!G33</f>
         <v>-6</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H49" s="6">
         <f>RAW!H33</f>
         <v>-3</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I49" s="15">
         <f>RAW!I33</f>
         <v>-2</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J49" s="6">
         <f>RAW!J33</f>
         <v>-2</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K49" s="6">
         <f>RAW!K33</f>
         <v>-1</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L49" s="6">
         <f>RAW!L33</f>
         <v>-3</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M49" s="6">
         <f>RAW!M33</f>
         <v>-2</v>
       </c>
-      <c r="N47" s="41">
+      <c r="N49" s="41">
         <f t="shared" si="5"/>
         <v>-3.6</v>
       </c>
-      <c r="O47" s="23">
+      <c r="O49" s="23">
         <f t="shared" si="6"/>
         <v>-1.6666666666666667</v>
       </c>
-      <c r="P47" s="23">
+      <c r="P49" s="23">
         <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
-      <c r="Q47" s="52" t="s">
+      <c r="Q49" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="S47" s="23">
+      <c r="S49" s="23">
         <f t="shared" si="3"/>
         <v>1.9333333333333333</v>
       </c>
-      <c r="T47" s="23">
+      <c r="T49" s="23">
         <f t="shared" si="4"/>
         <v>-0.83333333333333326</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="51" t="str">
+      <c r="V49">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" s="51" t="str">
         <f>RAW!A8</f>
         <v>CT</v>
       </c>
-      <c r="B48" s="5" t="str">
+      <c r="B50" s="5" t="str">
         <f>RAW!B8</f>
         <v xml:space="preserve"> Connecticut</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C50" s="6">
         <f>RAW!C8</f>
         <v>0</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D50" s="15">
         <f>RAW!D8</f>
         <v>1</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E50" s="6">
         <f>RAW!E8</f>
         <v>1</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F50" s="6">
         <f>RAW!F8</f>
         <v>-1</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G50" s="6">
         <f>RAW!G8</f>
         <v>-2</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H50" s="6">
         <f>RAW!H8</f>
         <v>-2</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I50" s="15">
         <f>RAW!I8</f>
         <v>-2</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J50" s="6">
         <f>RAW!J8</f>
         <v>-2</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K50" s="6">
         <f>RAW!K8</f>
         <v>-2</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L50" s="6">
         <f>RAW!L8</f>
         <v>-2</v>
       </c>
-      <c r="M48" s="6">
+      <c r="M50" s="6">
         <f>RAW!M8</f>
         <v>-2</v>
       </c>
-      <c r="N48" s="41">
+      <c r="N50" s="41">
         <f t="shared" si="5"/>
         <v>-0.6</v>
       </c>
-      <c r="O48" s="23">
+      <c r="O50" s="23">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="P48" s="23">
+      <c r="P50" s="23">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="Q48" s="52" t="s">
+      <c r="Q50" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="S48" s="40">
+      <c r="S50" s="40">
         <f t="shared" si="3"/>
         <v>-1.4</v>
       </c>
-      <c r="T48" s="23">
+      <c r="T50" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="51" t="str">
+      <c r="V50" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A51" s="51" t="str">
         <f>RAW!A21</f>
         <v>MD</v>
       </c>
-      <c r="B49" s="5" t="str">
+      <c r="B51" s="5" t="str">
         <f>RAW!B21</f>
         <v xml:space="preserve"> Maryland</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C51" s="6">
         <f>RAW!C21</f>
         <v>0</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D51" s="15">
         <f>RAW!D21</f>
         <v>-2</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E51" s="6">
         <f>RAW!E21</f>
         <v>-1</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F51" s="6">
         <f>RAW!F21</f>
         <v>-1</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G51" s="6">
         <f>RAW!G21</f>
         <v>-2</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H51" s="6">
         <f>RAW!H21</f>
         <v>-1</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I51" s="15">
         <f>RAW!I21</f>
         <v>-2</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J51" s="6">
         <f>RAW!J21</f>
         <v>-2</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K51" s="6">
         <f>RAW!K21</f>
         <v>-2</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L51" s="6">
         <f>RAW!L21</f>
         <v>-2</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M51" s="6">
         <f>RAW!M21</f>
         <v>-2</v>
       </c>
-      <c r="N49" s="41">
+      <c r="N51" s="41">
         <f t="shared" si="5"/>
         <v>-1.4</v>
       </c>
-      <c r="O49" s="23">
+      <c r="O51" s="23">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="P49" s="23">
+      <c r="P51" s="23">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="Q49" s="52" t="s">
+      <c r="Q51" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="S49" s="23">
+      <c r="S51" s="84">
         <f t="shared" si="3"/>
         <v>-0.60000000000000009</v>
       </c>
-      <c r="T49" s="23">
+      <c r="T51" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" s="51" t="str">
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" s="51" t="str">
         <f>RAW!A22</f>
         <v>MA</v>
       </c>
-      <c r="B50" s="5" t="str">
+      <c r="B52" s="5" t="str">
         <f>RAW!B22</f>
         <v xml:space="preserve"> Massachusetts</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C52" s="6">
         <f>RAW!C22</f>
         <v>-3</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D52" s="15">
         <f>RAW!D22</f>
         <v>-3</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E52" s="6">
         <f>RAW!E22</f>
         <v>-3</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F52" s="6">
         <f>RAW!F22</f>
         <v>-3</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G52" s="6">
         <f>RAW!G22</f>
         <v>-3</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H52" s="6">
         <f>RAW!H22</f>
         <v>-4</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I52" s="15">
         <f>RAW!I22</f>
         <v>-3</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J52" s="6">
         <f>RAW!J22</f>
         <v>-3</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K52" s="6">
         <f>RAW!K22</f>
         <v>-3</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L52" s="6">
         <f>RAW!L22</f>
         <v>-3</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M52" s="6">
         <f>RAW!M22</f>
         <v>-3</v>
       </c>
-      <c r="N50" s="41">
+      <c r="N52" s="41">
         <f t="shared" si="5"/>
         <v>-3.2</v>
       </c>
-      <c r="O50" s="23">
+      <c r="O52" s="23">
         <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="P50" s="23">
+      <c r="P52" s="23">
         <f t="shared" si="7"/>
         <v>-3</v>
       </c>
-      <c r="Q50" s="52" t="s">
+      <c r="Q52" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="S50" s="23">
+      <c r="S52" s="23">
         <f t="shared" si="3"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="T50" s="23">
+      <c r="T52" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="55" t="str">
+      <c r="V52">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="str">
         <f>RAW!A6</f>
         <v>CA</v>
       </c>
-      <c r="B51" s="56" t="str">
+      <c r="B53" s="56" t="str">
         <f>RAW!B6</f>
         <v xml:space="preserve"> California</v>
       </c>
-      <c r="C51" s="57">
+      <c r="C53" s="57">
         <f>RAW!C6</f>
         <v>-3</v>
       </c>
-      <c r="D51" s="58">
+      <c r="D53" s="58">
         <f>RAW!D6</f>
         <v>-5</v>
       </c>
-      <c r="E51" s="57">
+      <c r="E53" s="57">
         <f>RAW!E6</f>
         <v>-4</v>
       </c>
-      <c r="F51" s="57">
+      <c r="F53" s="57">
         <f>RAW!F6</f>
         <v>-3</v>
       </c>
-      <c r="G51" s="57">
+      <c r="G53" s="57">
         <f>RAW!G6</f>
         <v>-2</v>
       </c>
-      <c r="H51" s="57">
+      <c r="H53" s="57">
         <f>RAW!H6</f>
         <v>-4</v>
       </c>
-      <c r="I51" s="58">
+      <c r="I53" s="58">
         <f>RAW!I6</f>
         <v>-7</v>
       </c>
-      <c r="J51" s="57">
+      <c r="J53" s="57">
         <f>RAW!J6</f>
         <v>-9</v>
       </c>
-      <c r="K51" s="57">
+      <c r="K53" s="57">
         <f>RAW!K6</f>
         <v>-6</v>
       </c>
-      <c r="L51" s="57">
+      <c r="L53" s="57">
         <f>RAW!L6</f>
         <v>-12</v>
       </c>
-      <c r="M51" s="57">
+      <c r="M53" s="57">
         <f>RAW!M6</f>
         <v>-9</v>
       </c>
-      <c r="N51" s="59">
+      <c r="N53" s="59">
         <f t="shared" si="5"/>
         <v>-3.6</v>
       </c>
-      <c r="O51" s="60">
+      <c r="O53" s="60">
         <f t="shared" si="6"/>
         <v>-7.333333333333333</v>
       </c>
-      <c r="P51" s="60">
+      <c r="P53" s="60">
         <f t="shared" si="7"/>
         <v>-10.5</v>
       </c>
-      <c r="Q51" s="61" t="s">
+      <c r="Q53" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="S51" s="40">
+      <c r="S53" s="40">
         <f t="shared" si="3"/>
         <v>-3.7333333333333329</v>
       </c>
-      <c r="T51" s="40">
+      <c r="T53" s="40">
         <f t="shared" si="4"/>
         <v>-3.166666666666667</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="D52" s="15"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q52" s="62"/>
-    </row>
-    <row r="53" spans="1:20" s="86" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-    </row>
-    <row r="54" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V53" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="D54" s="15"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="M55" s="81"/>
-      <c r="N55" s="82" t="str">
-        <f>N1</f>
-        <v>'02-10</v>
-      </c>
-      <c r="O55" s="82" t="str">
-        <f t="shared" ref="O55:P55" si="8">O1</f>
-        <v>'12-16</v>
-      </c>
-      <c r="P55" s="83" t="str">
+      <c r="I54" s="78"/>
+      <c r="Q54" s="62"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A55" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="65"/>
+      <c r="C55" s="45">
+        <f>C3</f>
+        <v>2000</v>
+      </c>
+      <c r="D55" s="66" t="str">
+        <f>D$3</f>
+        <v>'02</v>
+      </c>
+      <c r="E55" s="45" t="str">
+        <f t="shared" ref="E55:M55" si="8">E$3</f>
+        <v>'04</v>
+      </c>
+      <c r="F55" s="45" t="str">
         <f t="shared" si="8"/>
-        <v>'18-20</v>
-      </c>
-      <c r="S55" s="22" t="str">
-        <f>S1</f>
-        <v>Δ1</v>
-      </c>
-      <c r="T55" s="22" t="str">
-        <f>T1</f>
-        <v>Δ2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M56" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="N56" s="23">
-        <f>SUM(N2:N31)</f>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="O56" s="23">
-        <f>SUM(O2:O31)</f>
-        <v>46.333333333333329</v>
-      </c>
-      <c r="P56" s="76">
-        <f>SUM(P2:P31)</f>
-        <v>35.5</v>
-      </c>
-      <c r="Q56" s="63"/>
-      <c r="S56" s="23">
-        <f>O56-N56</f>
-        <v>27.93333333333333</v>
-      </c>
-      <c r="T56" s="23">
-        <f>P56-O56</f>
-        <v>-10.833333333333329</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
-      <c r="M57" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="N57" s="23">
-        <f>SUM(N16:N31)</f>
-        <v>6.2</v>
-      </c>
-      <c r="O57" s="23">
-        <f t="shared" ref="O57:P57" si="9">SUM(O16:O31)</f>
-        <v>14.666666666666664</v>
-      </c>
-      <c r="P57" s="76">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="Q57" s="63"/>
-      <c r="S57" s="23">
-        <f t="shared" ref="S57:S60" si="10">O57-N57</f>
-        <v>8.466666666666665</v>
-      </c>
-      <c r="T57" s="23">
-        <f t="shared" ref="T57:T60" si="11">P57-O57</f>
-        <v>0.3333333333333357</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M58" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="N58" s="23">
-        <f>SUM(N32:N34)</f>
-        <v>1</v>
-      </c>
-      <c r="O58" s="23">
-        <f>SUM(O32:O34)</f>
-        <v>0</v>
-      </c>
-      <c r="P58" s="76">
-        <f>SUM(P32:P34)</f>
-        <v>-1.5</v>
-      </c>
-      <c r="S58" s="23">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-      <c r="T58" s="23">
-        <f t="shared" si="11"/>
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M59" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="N59" s="24">
-        <f>SUM(N35:N51)</f>
-        <v>-16.200000000000003</v>
-      </c>
-      <c r="O59" s="24">
-        <f>SUM(O35:O51)</f>
-        <v>-24.666666666666664</v>
-      </c>
-      <c r="P59" s="85">
-        <f>SUM(P35:P51)</f>
-        <v>-34.5</v>
-      </c>
-      <c r="S59" s="23">
-        <f t="shared" si="10"/>
-        <v>-8.4666666666666615</v>
-      </c>
-      <c r="T59" s="23">
-        <f t="shared" si="11"/>
-        <v>-9.8333333333333357</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M60" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="N60" s="60">
-        <f>N56+N58+N59</f>
-        <v>3.1999999999999957</v>
-      </c>
-      <c r="O60" s="60">
-        <f t="shared" ref="O60:P60" si="12">O56+O58+O59</f>
-        <v>21.666666666666664</v>
-      </c>
-      <c r="P60" s="77">
-        <f t="shared" si="12"/>
-        <v>-0.5</v>
-      </c>
-      <c r="S60" s="23">
-        <f t="shared" si="10"/>
-        <v>18.466666666666669</v>
-      </c>
-      <c r="T60" s="23">
-        <f t="shared" si="11"/>
-        <v>-22.166666666666664</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="N61" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T62" s="23"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A63" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" s="65"/>
-      <c r="C63" s="45">
-        <f>C1</f>
-        <v>2000</v>
-      </c>
-      <c r="D63" s="66" t="str">
-        <f>D$1</f>
-        <v>'02</v>
-      </c>
-      <c r="E63" s="45" t="str">
-        <f t="shared" ref="E63:M63" si="13">E$1</f>
-        <v>'04</v>
-      </c>
-      <c r="F63" s="45" t="str">
-        <f t="shared" si="13"/>
         <v>'06</v>
       </c>
-      <c r="G63" s="45" t="str">
-        <f t="shared" si="13"/>
+      <c r="G55" s="45" t="str">
+        <f t="shared" si="8"/>
         <v>'08</v>
       </c>
-      <c r="H63" s="45" t="str">
-        <f t="shared" si="13"/>
+      <c r="H55" s="45" t="str">
+        <f t="shared" si="8"/>
         <v>'10</v>
       </c>
-      <c r="I63" s="66" t="str">
-        <f t="shared" si="13"/>
+      <c r="I55" s="66" t="str">
+        <f t="shared" si="8"/>
         <v>'12</v>
       </c>
-      <c r="J63" s="45" t="str">
-        <f t="shared" si="13"/>
+      <c r="J55" s="45" t="str">
+        <f t="shared" si="8"/>
         <v>'14</v>
       </c>
-      <c r="K63" s="45" t="str">
-        <f t="shared" si="13"/>
+      <c r="K55" s="45" t="str">
+        <f t="shared" si="8"/>
         <v>'16</v>
       </c>
-      <c r="L63" s="45" t="str">
-        <f t="shared" si="13"/>
+      <c r="L55" s="45" t="str">
+        <f t="shared" si="8"/>
         <v>'18</v>
       </c>
-      <c r="M63" s="67" t="str">
-        <f t="shared" si="13"/>
+      <c r="M55" s="67" t="str">
+        <f t="shared" si="8"/>
         <v>'20</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A64" s="68" t="s">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A56" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="9" t="str">
+      <c r="B56" s="9" t="str">
         <f>RAW!B59</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C64" s="10">
+      <c r="C56" s="10">
         <f>RAW!C59</f>
         <v>214</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D56" s="17">
         <f>RAW!D59</f>
         <v>226</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E56" s="10">
         <f>RAW!E59</f>
         <v>220</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F56" s="10">
         <f>RAW!F59</f>
         <v>205</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G56" s="10">
         <f>RAW!G59</f>
         <v>199</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H56" s="10">
         <f>RAW!H59</f>
         <v>229</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I56" s="17">
         <f>RAW!I59</f>
         <v>216</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J56" s="10">
         <f>RAW!J59</f>
         <v>229</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K56" s="10">
         <f>RAW!K59</f>
         <v>221</v>
       </c>
-      <c r="L64" s="10">
+      <c r="L56" s="10">
         <f>RAW!L59</f>
         <v>203</v>
       </c>
-      <c r="M64" s="69">
+      <c r="M56" s="69">
         <f>RAW!M59</f>
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="68" t="s">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A57" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="9" t="str">
+      <c r="B57" s="9" t="str">
         <f>RAW!B61</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C65" s="10">
+      <c r="C57" s="10">
         <f>RAW!C61</f>
         <v>-3</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D57" s="17">
         <f>RAW!D61</f>
         <v>8</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E57" s="10">
         <f>RAW!E61</f>
         <v>2</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F57" s="10">
         <f>RAW!F61</f>
         <v>-12</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G57" s="10">
         <f>RAW!G61</f>
         <v>-18</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H57" s="10">
         <f>RAW!H61</f>
         <v>11</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I57" s="17">
         <f>RAW!I61</f>
         <v>-1</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J57" s="10">
         <f>RAW!J61</f>
         <v>11</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K57" s="10">
         <f>RAW!K61</f>
         <v>3</v>
       </c>
-      <c r="L65" s="10">
+      <c r="L57" s="10">
         <f>RAW!L61</f>
         <v>-14</v>
       </c>
-      <c r="M65" s="69">
+      <c r="M57" s="69">
         <f>RAW!M61</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="68"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="69"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="71" t="s">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A58" s="68"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="69"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="14" t="str">
-        <f>D$1</f>
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="14" t="str">
+        <f>D$3</f>
         <v>'02</v>
       </c>
-      <c r="E67" s="11" t="str">
-        <f t="shared" ref="E67:M67" si="14">E$1</f>
+      <c r="E59" s="11" t="str">
+        <f t="shared" ref="E59:M59" si="9">E$3</f>
         <v>'04</v>
       </c>
-      <c r="F67" s="11" t="str">
-        <f t="shared" si="14"/>
+      <c r="F59" s="11" t="str">
+        <f t="shared" si="9"/>
         <v>'06</v>
       </c>
-      <c r="G67" s="11" t="str">
-        <f t="shared" si="14"/>
+      <c r="G59" s="11" t="str">
+        <f t="shared" si="9"/>
         <v>'08</v>
       </c>
-      <c r="H67" s="11" t="str">
-        <f t="shared" si="14"/>
+      <c r="H59" s="11" t="str">
+        <f t="shared" si="9"/>
         <v>'10</v>
       </c>
-      <c r="I67" s="14" t="str">
-        <f t="shared" si="14"/>
+      <c r="I59" s="14" t="str">
+        <f t="shared" si="9"/>
         <v>'12</v>
       </c>
-      <c r="J67" s="11" t="str">
-        <f t="shared" si="14"/>
+      <c r="J59" s="11" t="str">
+        <f t="shared" si="9"/>
         <v>'14</v>
       </c>
-      <c r="K67" s="11" t="str">
-        <f t="shared" si="14"/>
+      <c r="K59" s="11" t="str">
+        <f t="shared" si="9"/>
         <v>'16</v>
       </c>
-      <c r="L67" s="11" t="str">
-        <f t="shared" si="14"/>
+      <c r="L59" s="11" t="str">
+        <f t="shared" si="9"/>
         <v>'18</v>
       </c>
-      <c r="M67" s="72" t="str">
-        <f t="shared" si="14"/>
+      <c r="M59" s="72" t="str">
+        <f t="shared" si="9"/>
         <v>'20</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="51" t="str">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A60" s="51" t="str">
         <f>RAW!A52</f>
         <v>REP</v>
       </c>
-      <c r="B68" s="5" t="str">
+      <c r="B60" s="90" t="str">
         <f>RAW!B52</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C68" s="6">
+      <c r="C60" s="91">
         <f>RAW!C52</f>
         <v>221</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D60" s="15">
         <f>RAW!D52</f>
         <v>229</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E60" s="91">
         <f>RAW!E52</f>
         <v>233</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F60" s="91">
         <f>RAW!F52</f>
         <v>202</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G60" s="91">
         <f>RAW!G52</f>
         <v>178</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H60" s="91">
         <f>RAW!H52</f>
         <v>242</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I60" s="15">
         <f>RAW!I52</f>
         <v>234</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J60" s="91">
         <f>RAW!J52</f>
         <v>247</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K60" s="91">
         <f>RAW!K52</f>
         <v>241</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L60" s="91">
         <f>RAW!L52</f>
         <v>199</v>
       </c>
-      <c r="M68" s="70">
+      <c r="M60" s="70">
         <f>RAW!M52</f>
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="53" t="str">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A61" s="53" t="str">
         <f>RAW!A53</f>
         <v>DEM</v>
       </c>
-      <c r="B69" s="7" t="str">
+      <c r="B61" s="7" t="str">
         <f>RAW!B53</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C69" s="8">
+      <c r="C61" s="8">
         <f>RAW!C53</f>
         <v>212</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D61" s="16">
         <f>RAW!D53</f>
         <v>205</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E61" s="8">
         <f>RAW!E53</f>
         <v>201</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F61" s="8">
         <f>RAW!F53</f>
         <v>233</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G61" s="8">
         <f>RAW!G53</f>
         <v>257</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H61" s="8">
         <f>RAW!H53</f>
         <v>193</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I61" s="16">
         <f>RAW!I53</f>
         <v>201</v>
       </c>
-      <c r="J69" s="8">
+      <c r="J61" s="8">
         <f>RAW!J53</f>
         <v>188</v>
       </c>
-      <c r="K69" s="8">
+      <c r="K61" s="8">
         <f>RAW!K53</f>
         <v>194</v>
       </c>
-      <c r="L69" s="8">
+      <c r="L61" s="8">
         <f>RAW!L53</f>
         <v>235</v>
       </c>
-      <c r="M69" s="73">
+      <c r="M61" s="73">
         <f>RAW!M53</f>
         <v>222</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="51" t="s">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A62" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="5" t="str">
+      <c r="B62" s="90" t="str">
         <f>RAW!B62</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C70" s="6">
+      <c r="C62" s="91">
         <f>RAW!C62</f>
         <v>3</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D62" s="15">
         <f>RAW!D62</f>
         <v>11</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E62" s="91">
         <f>RAW!E62</f>
         <v>15</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F62" s="91">
         <f>RAW!F62</f>
         <v>-15</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G62" s="91">
         <f>RAW!G62</f>
         <v>-39</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H62" s="91">
         <f>RAW!H62</f>
         <v>24</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I62" s="15">
         <f>RAW!I62</f>
         <v>16</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J62" s="91">
         <f>RAW!J62</f>
         <v>29</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K62" s="91">
         <f>RAW!K62</f>
         <v>23</v>
       </c>
-      <c r="L70" s="6">
+      <c r="L62" s="91">
         <f>RAW!L62</f>
         <v>-17</v>
       </c>
-      <c r="M70" s="70">
+      <c r="M62" s="70">
         <f>RAW!M62</f>
         <v>-4</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="69"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="71" t="s">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" s="68"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="69"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A64" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="14" t="str">
-        <f>D$1</f>
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="14" t="str">
+        <f>D$3</f>
         <v>'02</v>
       </c>
-      <c r="E72" s="11" t="str">
-        <f t="shared" ref="E72:M72" si="15">E$1</f>
+      <c r="E64" s="11" t="str">
+        <f t="shared" ref="E64:M64" si="10">E$3</f>
         <v>'04</v>
       </c>
-      <c r="F72" s="11" t="str">
-        <f t="shared" si="15"/>
+      <c r="F64" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>'06</v>
       </c>
-      <c r="G72" s="11" t="str">
-        <f t="shared" si="15"/>
+      <c r="G64" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>'08</v>
       </c>
-      <c r="H72" s="11" t="str">
-        <f t="shared" si="15"/>
+      <c r="H64" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>'10</v>
       </c>
-      <c r="I72" s="14" t="str">
-        <f t="shared" si="15"/>
+      <c r="I64" s="14" t="str">
+        <f t="shared" si="10"/>
         <v>'12</v>
       </c>
-      <c r="J72" s="11" t="str">
-        <f t="shared" si="15"/>
+      <c r="J64" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>'14</v>
       </c>
-      <c r="K72" s="11" t="str">
-        <f t="shared" si="15"/>
+      <c r="K64" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>'16</v>
       </c>
-      <c r="L72" s="11" t="str">
-        <f t="shared" si="15"/>
+      <c r="L64" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>'18</v>
       </c>
-      <c r="M72" s="72" t="str">
-        <f t="shared" si="15"/>
+      <c r="M64" s="72" t="str">
+        <f t="shared" si="10"/>
         <v>'20</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="51" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="5" t="str">
+      <c r="B65" s="90" t="str">
         <f>RAW!B56</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C73" s="6">
+      <c r="C65" s="91">
         <f>RAW!C56</f>
         <v>24</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D65" s="15">
         <f>RAW!D56</f>
         <v>25</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E65" s="91">
         <f>RAW!E56</f>
         <v>30</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F65" s="91">
         <f>RAW!F56</f>
         <v>21</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G65" s="91">
         <f>RAW!G56</f>
         <v>12</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H65" s="91">
         <f>RAW!H56</f>
         <v>34</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I65" s="15">
         <f>RAW!I56</f>
         <v>43</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J65" s="91">
         <f>RAW!J56</f>
         <v>42</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K65" s="91">
         <f>RAW!K56</f>
         <v>41</v>
       </c>
-      <c r="L73" s="6">
+      <c r="L65" s="91">
         <f>RAW!L56</f>
         <v>34</v>
       </c>
-      <c r="M73" s="70">
+      <c r="M65" s="70">
         <f>RAW!M56</f>
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="53" t="s">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="7" t="str">
+      <c r="B66" s="7" t="str">
         <f>RAW!B57</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C74" s="8">
+      <c r="C66" s="8">
         <f>RAW!C57</f>
         <v>-17</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D66" s="16">
         <f>RAW!D57</f>
         <v>-22</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E66" s="8">
         <f>RAW!E57</f>
         <v>-17</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F66" s="8">
         <f>RAW!F57</f>
         <v>-24</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G66" s="8">
         <f>RAW!G57</f>
         <v>-33</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H66" s="8">
         <f>RAW!H57</f>
         <v>-21</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I66" s="16">
         <f>RAW!I57</f>
         <v>-25</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J66" s="8">
         <f>RAW!J57</f>
         <v>-24</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K66" s="8">
         <f>RAW!K57</f>
         <v>-21</v>
       </c>
-      <c r="L74" s="8">
+      <c r="L66" s="8">
         <f>RAW!L57</f>
         <v>-38</v>
       </c>
-      <c r="M74" s="73">
+      <c r="M66" s="73">
         <f>RAW!M57</f>
         <v>-33</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="55" t="s">
+    <row r="67" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="56" t="str">
+      <c r="B67" s="56" t="str">
         <f>RAW!B58</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C75" s="57">
+      <c r="C67" s="57">
         <f>RAW!C58</f>
         <v>7</v>
       </c>
-      <c r="D75" s="74">
+      <c r="D67" s="74">
         <f>RAW!D58</f>
         <v>3</v>
       </c>
-      <c r="E75" s="57">
+      <c r="E67" s="57">
         <f>RAW!E58</f>
         <v>13</v>
       </c>
-      <c r="F75" s="57">
+      <c r="F67" s="57">
         <f>RAW!F58</f>
         <v>-3</v>
       </c>
-      <c r="G75" s="57">
+      <c r="G67" s="57">
         <f>RAW!G58</f>
         <v>-21</v>
       </c>
-      <c r="H75" s="57">
+      <c r="H67" s="57">
         <f>RAW!H58</f>
         <v>13</v>
       </c>
-      <c r="I75" s="74">
+      <c r="I67" s="74">
         <f>RAW!I58</f>
         <v>18</v>
       </c>
-      <c r="J75" s="57">
+      <c r="J67" s="57">
         <f>RAW!J58</f>
         <v>18</v>
       </c>
-      <c r="K75" s="57">
+      <c r="K67" s="57">
         <f>RAW!K58</f>
         <v>20</v>
       </c>
-      <c r="L75" s="57">
+      <c r="L67" s="57">
         <f>RAW!L58</f>
         <v>-4</v>
       </c>
-      <c r="M75" s="75">
+      <c r="M67" s="75">
         <f>RAW!M58</f>
         <v>-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q51">
-    <sortCondition descending="1" ref="O2:O51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:Q53">
+    <sortCondition descending="1" ref="O4:O53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14C6002-DD7F-094D-AC55-4398681BC2E6}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="85"/>
+      <c r="B1" s="86" t="str">
+        <f>Table1!N3</f>
+        <v>'02-10</v>
+      </c>
+      <c r="C1" s="86" t="str">
+        <f>Table1!O3</f>
+        <v>'12-16</v>
+      </c>
+      <c r="D1" s="88" t="str">
+        <f>Table1!P3</f>
+        <v>'18-20</v>
+      </c>
+      <c r="G1" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="89">
+        <f>SUM(Table1!N4:N33)</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C2" s="89">
+        <f>SUM(Table1!O4:O33)</f>
+        <v>46.333333333333329</v>
+      </c>
+      <c r="D2" s="76">
+        <f>SUM(Table1!P4:P33)</f>
+        <v>35.5</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="G2" s="23">
+        <f>C2-B2</f>
+        <v>27.93333333333333</v>
+      </c>
+      <c r="H2" s="23">
+        <f>D2-C2</f>
+        <v>-10.833333333333329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="89">
+        <f>SUM(Table1!N34:N36)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="89">
+        <f>SUM(Table1!O34:O36)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="76">
+        <f>SUM(Table1!P34:P36)</f>
+        <v>-1.5</v>
+      </c>
+      <c r="G3" s="23">
+        <f t="shared" ref="G3:H5" si="0">C3-B3</f>
+        <v>-1</v>
+      </c>
+      <c r="H3" s="23">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="24">
+        <f>SUM(Table1!N37:N53)</f>
+        <v>-16.200000000000003</v>
+      </c>
+      <c r="C4" s="24">
+        <f>SUM(Table1!O37:O53)</f>
+        <v>-24.666666666666664</v>
+      </c>
+      <c r="D4" s="82">
+        <f>SUM(Table1!P37:P53)</f>
+        <v>-34.5</v>
+      </c>
+      <c r="G4" s="23">
+        <f t="shared" si="0"/>
+        <v>-8.4666666666666615</v>
+      </c>
+      <c r="H4" s="23">
+        <f t="shared" si="0"/>
+        <v>-9.8333333333333357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="60">
+        <f>B2+B3+B4</f>
+        <v>3.1999999999999957</v>
+      </c>
+      <c r="C5" s="60">
+        <f>C2+C3+C4</f>
+        <v>21.666666666666664</v>
+      </c>
+      <c r="D5" s="77">
+        <f>D2+D3+D4</f>
+        <v>-0.5</v>
+      </c>
+      <c r="G5" s="23">
+        <f t="shared" si="0"/>
+        <v>18.466666666666669</v>
+      </c>
+      <c r="H5" s="23">
+        <f t="shared" si="0"/>
+        <v>-22.166666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2087AA14-550C-0D41-AA96-C6B0351F4B03}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="36">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C2" s="36">
+        <v>46.333333333333329</v>
+      </c>
+      <c r="D2" s="36">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="36">
+        <v>6.2</v>
+      </c>
+      <c r="C3" s="36">
+        <v>14.666666666666664</v>
+      </c>
+      <c r="D3" s="36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="38">
+        <v>-16.200000000000003</v>
+      </c>
+      <c r="C4" s="38">
+        <v>-24.666666666666664</v>
+      </c>
+      <c r="D4" s="38">
+        <v>-34.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="36">
+        <v>3.1999999999999957</v>
+      </c>
+      <c r="C5" s="36">
+        <v>21.666666666666664</v>
+      </c>
+      <c r="D5" s="36">
+        <v>-0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69D208C-5E19-6E46-A837-802512EDC505}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7168,96 +7415,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2087AA14-550C-0D41-AA96-C6B0351F4B03}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="36">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="C2" s="36">
-        <v>46.333333333333329</v>
-      </c>
-      <c r="D2" s="36">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="36">
-        <v>6.2</v>
-      </c>
-      <c r="C3" s="36">
-        <v>14.666666666666664</v>
-      </c>
-      <c r="D3" s="36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="38">
-        <v>-16.200000000000003</v>
-      </c>
-      <c r="C4" s="38">
-        <v>-24.666666666666664</v>
-      </c>
-      <c r="D4" s="38">
-        <v>-34.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="36">
-        <v>3.1999999999999957</v>
-      </c>
-      <c r="C5" s="36">
-        <v>21.666666666666664</v>
-      </c>
-      <c r="D5" s="36">
-        <v>-0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FA875C-1566-2D43-8637-203DA92E1C1B}">
   <dimension ref="A1:S70"/>
   <sheetViews>
@@ -7265,7 +7427,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11490,10 +11652,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924BABB7-C257-C348-A2C8-7BA5A1ACAB90}">
   <dimension ref="A1:M62"/>
   <sheetViews>
@@ -14056,5 +14219,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/analysis/US House (2012-20).xlsx
+++ b/data/analysis/US House (2012-20).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6253EE5-97C5-5548-8F48-07B0A8BBA929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782AFCEA-0184-8741-8783-20C58B5F7772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="500" windowWidth="27680" windowHeight="17500" activeTab="2" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" activeTab="3" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="9" r:id="rId1"/>
@@ -1009,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1135,9 +1135,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2477,17 +2474,17 @@
       <c r="A1" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -6786,11 +6783,11 @@
         <f>RAW!A52</f>
         <v>REP</v>
       </c>
-      <c r="B60" s="90" t="str">
+      <c r="B60" s="5" t="str">
         <f>RAW!B52</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C60" s="91">
+      <c r="C60" s="6">
         <f>RAW!C52</f>
         <v>221</v>
       </c>
@@ -6798,19 +6795,19 @@
         <f>RAW!D52</f>
         <v>229</v>
       </c>
-      <c r="E60" s="91">
+      <c r="E60" s="6">
         <f>RAW!E52</f>
         <v>233</v>
       </c>
-      <c r="F60" s="91">
+      <c r="F60" s="6">
         <f>RAW!F52</f>
         <v>202</v>
       </c>
-      <c r="G60" s="91">
+      <c r="G60" s="6">
         <f>RAW!G52</f>
         <v>178</v>
       </c>
-      <c r="H60" s="91">
+      <c r="H60" s="6">
         <f>RAW!H52</f>
         <v>242</v>
       </c>
@@ -6818,15 +6815,15 @@
         <f>RAW!I52</f>
         <v>234</v>
       </c>
-      <c r="J60" s="91">
+      <c r="J60" s="6">
         <f>RAW!J52</f>
         <v>247</v>
       </c>
-      <c r="K60" s="91">
+      <c r="K60" s="6">
         <f>RAW!K52</f>
         <v>241</v>
       </c>
-      <c r="L60" s="91">
+      <c r="L60" s="6">
         <f>RAW!L52</f>
         <v>199</v>
       </c>
@@ -6893,11 +6890,11 @@
       <c r="A62" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="90" t="str">
+      <c r="B62" s="5" t="str">
         <f>RAW!B62</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C62" s="91">
+      <c r="C62" s="6">
         <f>RAW!C62</f>
         <v>3</v>
       </c>
@@ -6905,19 +6902,19 @@
         <f>RAW!D62</f>
         <v>11</v>
       </c>
-      <c r="E62" s="91">
+      <c r="E62" s="6">
         <f>RAW!E62</f>
         <v>15</v>
       </c>
-      <c r="F62" s="91">
+      <c r="F62" s="6">
         <f>RAW!F62</f>
         <v>-15</v>
       </c>
-      <c r="G62" s="91">
+      <c r="G62" s="6">
         <f>RAW!G62</f>
         <v>-39</v>
       </c>
-      <c r="H62" s="91">
+      <c r="H62" s="6">
         <f>RAW!H62</f>
         <v>24</v>
       </c>
@@ -6925,15 +6922,15 @@
         <f>RAW!I62</f>
         <v>16</v>
       </c>
-      <c r="J62" s="91">
+      <c r="J62" s="6">
         <f>RAW!J62</f>
         <v>29</v>
       </c>
-      <c r="K62" s="91">
+      <c r="K62" s="6">
         <f>RAW!K62</f>
         <v>23</v>
       </c>
-      <c r="L62" s="91">
+      <c r="L62" s="6">
         <f>RAW!L62</f>
         <v>-17</v>
       </c>
@@ -7008,11 +7005,11 @@
       <c r="A65" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="90" t="str">
+      <c r="B65" s="5" t="str">
         <f>RAW!B56</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C65" s="91">
+      <c r="C65" s="6">
         <f>RAW!C56</f>
         <v>24</v>
       </c>
@@ -7020,19 +7017,19 @@
         <f>RAW!D56</f>
         <v>25</v>
       </c>
-      <c r="E65" s="91">
+      <c r="E65" s="6">
         <f>RAW!E56</f>
         <v>30</v>
       </c>
-      <c r="F65" s="91">
+      <c r="F65" s="6">
         <f>RAW!F56</f>
         <v>21</v>
       </c>
-      <c r="G65" s="91">
+      <c r="G65" s="6">
         <f>RAW!G56</f>
         <v>12</v>
       </c>
-      <c r="H65" s="91">
+      <c r="H65" s="6">
         <f>RAW!H56</f>
         <v>34</v>
       </c>
@@ -7040,15 +7037,15 @@
         <f>RAW!I56</f>
         <v>43</v>
       </c>
-      <c r="J65" s="91">
+      <c r="J65" s="6">
         <f>RAW!J56</f>
         <v>42</v>
       </c>
-      <c r="K65" s="91">
+      <c r="K65" s="6">
         <f>RAW!K56</f>
         <v>41</v>
       </c>
-      <c r="L65" s="91">
+      <c r="L65" s="6">
         <f>RAW!L56</f>
         <v>34</v>
       </c>
@@ -7213,11 +7210,11 @@
       <c r="A2" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="89">
+      <c r="B2" s="23">
         <f>SUM(Table1!N4:N33)</f>
         <v>18.399999999999999</v>
       </c>
-      <c r="C2" s="89">
+      <c r="C2" s="23">
         <f>SUM(Table1!O4:O33)</f>
         <v>46.333333333333329</v>
       </c>
@@ -7239,11 +7236,11 @@
       <c r="A3" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="89">
+      <c r="B3" s="23">
         <f>SUM(Table1!N34:N36)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="89">
+      <c r="C3" s="23">
         <f>SUM(Table1!O34:O36)</f>
         <v>0</v>
       </c>
@@ -7323,7 +7320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2087AA14-550C-0D41-AA96-C6B0351F4B03}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
@@ -7410,7 +7407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69D208C-5E19-6E46-A837-802512EDC505}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/data/analysis/US House (2012-20).xlsx
+++ b/data/analysis/US House (2012-20).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782AFCEA-0184-8741-8783-20C58B5F7772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1169236A-E344-CF43-8E9E-A011212023B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" activeTab="3" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
+    <workbookView xWindow="1420" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{243A2677-B725-5B4A-8946-B944A46BAF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="9" r:id="rId1"/>
@@ -628,7 +628,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -791,32 +791,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1005,11 +981,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1080,21 +1095,18 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1103,26 +1115,26 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1132,10 +1144,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2450,11 +2466,11 @@
   </sheetPr>
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="Q67" sqref="A1:Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2474,17 +2490,17 @@
       <c r="A1" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -2530,16 +2546,16 @@
       <c r="M3" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="Q3" s="89" t="s">
         <v>132</v>
       </c>
       <c r="R3" s="22"/>
@@ -2554,7 +2570,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="str">
+      <c r="A4" s="48" t="str">
         <f>RAW!A44</f>
         <v>TX</v>
       </c>
@@ -2618,7 +2634,7 @@
         <f t="shared" ref="P4:P35" si="2">AVERAGE(L4:M4)</f>
         <v>3.5</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="Q4" s="49" t="s">
         <v>122</v>
       </c>
       <c r="S4" s="23">
@@ -2634,7 +2650,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="str">
+      <c r="A5" s="48" t="str">
         <f>RAW!A36</f>
         <v>OH</v>
       </c>
@@ -2698,7 +2714,7 @@
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="Q5" s="52" t="s">
+      <c r="Q5" s="49" t="s">
         <v>122</v>
       </c>
       <c r="S5" s="23">
@@ -2714,7 +2730,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="str">
+      <c r="A6" s="48" t="str">
         <f>RAW!A39</f>
         <v>PA</v>
       </c>
@@ -2778,7 +2794,7 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="Q6" s="52" t="s">
+      <c r="Q6" s="49" t="s">
         <v>122</v>
       </c>
       <c r="S6" s="23">
@@ -2794,7 +2810,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="str">
+      <c r="A7" s="48" t="str">
         <f>RAW!A34</f>
         <v>NC</v>
       </c>
@@ -2858,7 +2874,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q7" s="52" t="s">
+      <c r="Q7" s="49" t="s">
         <v>122</v>
       </c>
       <c r="S7" s="23">
@@ -2874,7 +2890,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="str">
+      <c r="A8" s="48" t="str">
         <f>RAW!A10</f>
         <v>FL</v>
       </c>
@@ -2938,7 +2954,7 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="Q8" s="52" t="s">
+      <c r="Q8" s="49" t="s">
         <v>122</v>
       </c>
       <c r="S8" s="23">
@@ -2954,7 +2970,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="str">
+      <c r="A9" s="48" t="str">
         <f>RAW!A2</f>
         <v>AL</v>
       </c>
@@ -3018,7 +3034,7 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="Q9" s="52" t="s">
+      <c r="Q9" s="49" t="s">
         <v>122</v>
       </c>
       <c r="S9" s="23">
@@ -3034,7 +3050,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="str">
+      <c r="A10" s="48" t="str">
         <f>RAW!A15</f>
         <v>IN</v>
       </c>
@@ -3098,7 +3114,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q10" s="52" t="s">
+      <c r="Q10" s="49" t="s">
         <v>122</v>
       </c>
       <c r="S10" s="23">
@@ -3114,7 +3130,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="str">
+      <c r="A11" s="48" t="str">
         <f>RAW!A23</f>
         <v>MI</v>
       </c>
@@ -3178,7 +3194,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="52" t="s">
+      <c r="Q11" s="49" t="s">
         <v>122</v>
       </c>
       <c r="S11" s="23">
@@ -3194,7 +3210,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="str">
+      <c r="A12" s="48" t="str">
         <f>RAW!A41</f>
         <v>SC</v>
       </c>
@@ -3258,7 +3274,7 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="Q12" s="52" t="s">
+      <c r="Q12" s="49" t="s">
         <v>122</v>
       </c>
       <c r="S12" s="23">
@@ -3274,7 +3290,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="str">
+      <c r="A13" s="48" t="str">
         <f>RAW!A5</f>
         <v>AR</v>
       </c>
@@ -3338,7 +3354,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="52" t="s">
+      <c r="Q13" s="49" t="s">
         <v>125</v>
       </c>
       <c r="S13" s="23">
@@ -3354,7 +3370,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="str">
+      <c r="A14" s="48" t="str">
         <f>RAW!A11</f>
         <v>GA</v>
       </c>
@@ -3418,7 +3434,7 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="Q14" s="52" t="s">
+      <c r="Q14" s="49" t="s">
         <v>122</v>
       </c>
       <c r="S14" s="23">
@@ -3434,7 +3450,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="str">
+      <c r="A15" s="48" t="str">
         <f>RAW!A47</f>
         <v>VA</v>
       </c>
@@ -3498,7 +3514,7 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="Q15" s="52" t="s">
+      <c r="Q15" s="49" t="s">
         <v>122</v>
       </c>
       <c r="S15" s="23">
@@ -3514,7 +3530,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="str">
+      <c r="A16" s="48" t="str">
         <f>RAW!A37</f>
         <v>OK</v>
       </c>
@@ -3578,7 +3594,7 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="Q16" s="52" t="s">
+      <c r="Q16" s="49" t="s">
         <v>122</v>
       </c>
       <c r="S16" s="23">
@@ -3594,7 +3610,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="str">
+      <c r="A17" s="50" t="str">
         <f>RAW!A43</f>
         <v>TN</v>
       </c>
@@ -3658,7 +3674,7 @@
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="Q17" s="54" t="s">
+      <c r="Q17" s="51" t="s">
         <v>122</v>
       </c>
       <c r="S17" s="24">
@@ -3674,7 +3690,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="str">
+      <c r="A18" s="48" t="str">
         <f>RAW!A3</f>
         <v>AK</v>
       </c>
@@ -3738,7 +3754,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="52" t="s">
+      <c r="Q18" s="49" t="s">
         <v>123</v>
       </c>
       <c r="S18" s="23">
@@ -3754,7 +3770,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="str">
+      <c r="A19" s="48" t="str">
         <f>RAW!A13</f>
         <v>ID</v>
       </c>
@@ -3818,7 +3834,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="52" t="s">
+      <c r="Q19" s="49" t="s">
         <v>124</v>
       </c>
       <c r="S19" s="23">
@@ -3834,7 +3850,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="str">
+      <c r="A20" s="48" t="str">
         <f>RAW!A17</f>
         <v>KS</v>
       </c>
@@ -3898,7 +3914,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="52" t="s">
+      <c r="Q20" s="49" t="s">
         <v>129</v>
       </c>
       <c r="S20" s="23">
@@ -3914,7 +3930,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="str">
+      <c r="A21" s="48" t="str">
         <f>RAW!A18</f>
         <v>KY</v>
       </c>
@@ -3978,7 +3994,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="52" t="s">
+      <c r="Q21" s="49" t="s">
         <v>128</v>
       </c>
       <c r="S21" s="23">
@@ -3994,7 +4010,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="str">
+      <c r="A22" s="48" t="str">
         <f>RAW!A19</f>
         <v>LA</v>
       </c>
@@ -4058,7 +4074,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="52" t="s">
+      <c r="Q22" s="49" t="s">
         <v>122</v>
       </c>
       <c r="S22" s="23">
@@ -4074,7 +4090,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="str">
+      <c r="A23" s="48" t="str">
         <f>RAW!A25</f>
         <v>MS</v>
       </c>
@@ -4138,7 +4154,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q23" s="52" t="s">
+      <c r="Q23" s="49" t="s">
         <v>129</v>
       </c>
       <c r="S23" s="23">
@@ -4154,7 +4170,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="str">
+      <c r="A24" s="48" t="str">
         <f>RAW!A26</f>
         <v>MO</v>
       </c>
@@ -4218,7 +4234,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="52" t="s">
+      <c r="Q24" s="49" t="s">
         <v>128</v>
       </c>
       <c r="S24" s="23">
@@ -4234,7 +4250,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="str">
+      <c r="A25" s="48" t="str">
         <f>RAW!A27</f>
         <v>MT</v>
       </c>
@@ -4298,7 +4314,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q25" s="52" t="s">
+      <c r="Q25" s="49" t="s">
         <v>123</v>
       </c>
       <c r="S25" s="23">
@@ -4314,7 +4330,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="51" t="str">
+      <c r="A26" s="48" t="str">
         <f>RAW!A35</f>
         <v>ND</v>
       </c>
@@ -4378,7 +4394,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="52" t="s">
+      <c r="Q26" s="49" t="s">
         <v>123</v>
       </c>
       <c r="S26" s="23">
@@ -4394,7 +4410,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="str">
+      <c r="A27" s="48" t="str">
         <f>RAW!A42</f>
         <v>SD</v>
       </c>
@@ -4458,7 +4474,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q27" s="52" t="s">
+      <c r="Q27" s="49" t="s">
         <v>123</v>
       </c>
       <c r="S27" s="23">
@@ -4474,7 +4490,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="str">
+      <c r="A28" s="48" t="str">
         <f>RAW!A50</f>
         <v>WI</v>
       </c>
@@ -4538,7 +4554,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q28" s="52" t="s">
+      <c r="Q28" s="49" t="s">
         <v>122</v>
       </c>
       <c r="S28" s="23">
@@ -4554,7 +4570,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="51" t="str">
+      <c r="A29" s="48" t="str">
         <f>RAW!A51</f>
         <v>WY</v>
       </c>
@@ -4618,7 +4634,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q29" s="52" t="s">
+      <c r="Q29" s="49" t="s">
         <v>123</v>
       </c>
       <c r="S29" s="23">
@@ -4634,7 +4650,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="str">
+      <c r="A30" s="48" t="str">
         <f>RAW!A16</f>
         <v>IA</v>
       </c>
@@ -4698,7 +4714,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="52" t="s">
+      <c r="Q30" s="49" t="s">
         <v>128</v>
       </c>
       <c r="S30" s="23">
@@ -4714,7 +4730,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="str">
+      <c r="A31" s="48" t="str">
         <f>RAW!A28</f>
         <v>NE</v>
       </c>
@@ -4778,7 +4794,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q31" s="52" t="s">
+      <c r="Q31" s="49" t="s">
         <v>130</v>
       </c>
       <c r="S31" s="23">
@@ -4794,7 +4810,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="str">
+      <c r="A32" s="48" t="str">
         <f>RAW!A45</f>
         <v>UT</v>
       </c>
@@ -4858,7 +4874,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q32" s="52" t="s">
+      <c r="Q32" s="49" t="s">
         <v>122</v>
       </c>
       <c r="S32" s="23">
@@ -4874,7 +4890,7 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="str">
+      <c r="A33" s="50" t="str">
         <f>RAW!A49</f>
         <v>WV</v>
       </c>
@@ -4938,7 +4954,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q33" s="54" t="s">
+      <c r="Q33" s="51" t="s">
         <v>125</v>
       </c>
       <c r="S33" s="24">
@@ -4954,7 +4970,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="51" t="str">
+      <c r="A34" s="48" t="str">
         <f>RAW!A7</f>
         <v>CO</v>
       </c>
@@ -5018,7 +5034,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="52" t="s">
+      <c r="Q34" s="49" t="s">
         <v>126</v>
       </c>
       <c r="S34" s="23">
@@ -5034,7 +5050,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="51" t="str">
+      <c r="A35" s="48" t="str">
         <f>RAW!A32</f>
         <v>NM</v>
       </c>
@@ -5098,7 +5114,7 @@
         <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="Q35" s="52" t="s">
+      <c r="Q35" s="49" t="s">
         <v>126</v>
       </c>
       <c r="S35" s="23">
@@ -5114,7 +5130,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="53" t="str">
+      <c r="A36" s="50" t="str">
         <f>RAW!A29</f>
         <v>NV</v>
       </c>
@@ -5178,7 +5194,7 @@
         <f t="shared" ref="P36:P53" si="7">AVERAGE(L36:M36)</f>
         <v>-1</v>
       </c>
-      <c r="Q36" s="54" t="s">
+      <c r="Q36" s="51" t="s">
         <v>125</v>
       </c>
       <c r="S36" s="24">
@@ -5194,7 +5210,7 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="51" t="str">
+      <c r="A37" s="48" t="str">
         <f>RAW!A31</f>
         <v>NJ</v>
       </c>
@@ -5258,7 +5274,7 @@
         <f t="shared" si="7"/>
         <v>-3.5</v>
       </c>
-      <c r="Q37" s="52" t="s">
+      <c r="Q37" s="49" t="s">
         <v>127</v>
       </c>
       <c r="S37" s="23">
@@ -5274,7 +5290,7 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="51" t="str">
+      <c r="A38" s="48" t="str">
         <f>RAW!A4</f>
         <v>AZ</v>
       </c>
@@ -5338,10 +5354,10 @@
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-      <c r="Q38" s="52" t="s">
+      <c r="Q38" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="S38" s="84">
+      <c r="S38" s="81">
         <f t="shared" si="3"/>
         <v>-0.73333333333333339</v>
       </c>
@@ -5354,7 +5370,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="str">
+      <c r="A39" s="48" t="str">
         <f>RAW!A20</f>
         <v>ME</v>
       </c>
@@ -5418,7 +5434,7 @@
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="Q39" s="52" t="s">
+      <c r="Q39" s="49" t="s">
         <v>128</v>
       </c>
       <c r="S39" s="23">
@@ -5434,7 +5450,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="str">
+      <c r="A40" s="48" t="str">
         <f>RAW!A24</f>
         <v>MN</v>
       </c>
@@ -5498,7 +5514,7 @@
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-      <c r="Q40" s="52" t="s">
+      <c r="Q40" s="49" t="s">
         <v>126</v>
       </c>
       <c r="S40" s="23">
@@ -5514,7 +5530,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="51" t="str">
+      <c r="A41" s="48" t="str">
         <f>RAW!A12</f>
         <v>HI</v>
       </c>
@@ -5578,7 +5594,7 @@
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-      <c r="Q41" s="52" t="s">
+      <c r="Q41" s="49" t="s">
         <v>127</v>
       </c>
       <c r="S41" s="23">
@@ -5594,7 +5610,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="str">
+      <c r="A42" s="48" t="str">
         <f>RAW!A30</f>
         <v>NH</v>
       </c>
@@ -5658,10 +5674,10 @@
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="Q42" s="52" t="s">
+      <c r="Q42" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="S42" s="84">
+      <c r="S42" s="81">
         <f t="shared" si="3"/>
         <v>-0.8666666666666667</v>
       </c>
@@ -5674,7 +5690,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="51" t="str">
+      <c r="A43" s="48" t="str">
         <f>RAW!A9</f>
         <v>DE</v>
       </c>
@@ -5738,7 +5754,7 @@
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="Q43" s="52" t="s">
+      <c r="Q43" s="49" t="s">
         <v>123</v>
       </c>
       <c r="S43" s="40">
@@ -5749,12 +5765,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V43" s="83">
+      <c r="V43" s="80">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="51" t="str">
+      <c r="A44" s="48" t="str">
         <f>RAW!A38</f>
         <v>OR</v>
       </c>
@@ -5818,7 +5834,7 @@
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="Q44" s="52" t="s">
+      <c r="Q44" s="49" t="s">
         <v>128</v>
       </c>
       <c r="S44" s="23">
@@ -5834,7 +5850,7 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="51" t="str">
+      <c r="A45" s="48" t="str">
         <f>RAW!A40</f>
         <v>RI</v>
       </c>
@@ -5898,7 +5914,7 @@
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="Q45" s="52" t="s">
+      <c r="Q45" s="49" t="s">
         <v>125</v>
       </c>
       <c r="S45" s="23">
@@ -5914,7 +5930,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="51" t="str">
+      <c r="A46" s="48" t="str">
         <f>RAW!A46</f>
         <v>VT</v>
       </c>
@@ -5978,7 +5994,7 @@
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="Q46" s="52" t="s">
+      <c r="Q46" s="49" t="s">
         <v>123</v>
       </c>
       <c r="S46" s="23">
@@ -5994,7 +6010,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="51" t="str">
+      <c r="A47" s="48" t="str">
         <f>RAW!A48</f>
         <v>WA</v>
       </c>
@@ -6058,7 +6074,7 @@
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="Q47" s="52" t="s">
+      <c r="Q47" s="49" t="s">
         <v>124</v>
       </c>
       <c r="S47" s="23">
@@ -6074,7 +6090,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="51" t="str">
+      <c r="A48" s="48" t="str">
         <f>RAW!A14</f>
         <v>IL</v>
       </c>
@@ -6138,7 +6154,7 @@
         <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
-      <c r="Q48" s="52" t="s">
+      <c r="Q48" s="49" t="s">
         <v>125</v>
       </c>
       <c r="S48" s="40">
@@ -6149,12 +6165,12 @@
         <f t="shared" si="4"/>
         <v>-1.1666666666666667</v>
       </c>
-      <c r="V48" s="83">
+      <c r="V48" s="80">
         <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A49" s="51" t="str">
+      <c r="A49" s="48" t="str">
         <f>RAW!A33</f>
         <v>NY</v>
       </c>
@@ -6218,7 +6234,7 @@
         <f t="shared" si="7"/>
         <v>-2.5</v>
       </c>
-      <c r="Q49" s="52" t="s">
+      <c r="Q49" s="49" t="s">
         <v>129</v>
       </c>
       <c r="S49" s="23">
@@ -6234,7 +6250,7 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="51" t="str">
+      <c r="A50" s="48" t="str">
         <f>RAW!A8</f>
         <v>CT</v>
       </c>
@@ -6298,7 +6314,7 @@
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="Q50" s="52" t="s">
+      <c r="Q50" s="49" t="s">
         <v>126</v>
       </c>
       <c r="S50" s="40">
@@ -6309,12 +6325,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V50" s="83">
+      <c r="V50" s="80">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="str">
+      <c r="A51" s="48" t="str">
         <f>RAW!A21</f>
         <v>MD</v>
       </c>
@@ -6378,10 +6394,10 @@
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="Q51" s="52" t="s">
+      <c r="Q51" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="S51" s="84">
+      <c r="S51" s="81">
         <f t="shared" si="3"/>
         <v>-0.60000000000000009</v>
       </c>
@@ -6394,7 +6410,7 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A52" s="51" t="str">
+      <c r="A52" s="48" t="str">
         <f>RAW!A22</f>
         <v>MA</v>
       </c>
@@ -6458,7 +6474,7 @@
         <f t="shared" si="7"/>
         <v>-3</v>
       </c>
-      <c r="Q52" s="52" t="s">
+      <c r="Q52" s="49" t="s">
         <v>125</v>
       </c>
       <c r="S52" s="23">
@@ -6474,71 +6490,71 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="55" t="str">
+      <c r="A53" s="52" t="str">
         <f>RAW!A6</f>
         <v>CA</v>
       </c>
-      <c r="B53" s="56" t="str">
+      <c r="B53" s="53" t="str">
         <f>RAW!B6</f>
         <v xml:space="preserve"> California</v>
       </c>
-      <c r="C53" s="57">
+      <c r="C53" s="54">
         <f>RAW!C6</f>
         <v>-3</v>
       </c>
-      <c r="D53" s="58">
+      <c r="D53" s="55">
         <f>RAW!D6</f>
         <v>-5</v>
       </c>
-      <c r="E53" s="57">
+      <c r="E53" s="54">
         <f>RAW!E6</f>
         <v>-4</v>
       </c>
-      <c r="F53" s="57">
+      <c r="F53" s="54">
         <f>RAW!F6</f>
         <v>-3</v>
       </c>
-      <c r="G53" s="57">
+      <c r="G53" s="54">
         <f>RAW!G6</f>
         <v>-2</v>
       </c>
-      <c r="H53" s="57">
+      <c r="H53" s="54">
         <f>RAW!H6</f>
         <v>-4</v>
       </c>
-      <c r="I53" s="58">
+      <c r="I53" s="55">
         <f>RAW!I6</f>
         <v>-7</v>
       </c>
-      <c r="J53" s="57">
+      <c r="J53" s="54">
         <f>RAW!J6</f>
         <v>-9</v>
       </c>
-      <c r="K53" s="57">
+      <c r="K53" s="54">
         <f>RAW!K6</f>
         <v>-6</v>
       </c>
-      <c r="L53" s="57">
+      <c r="L53" s="54">
         <f>RAW!L6</f>
         <v>-12</v>
       </c>
-      <c r="M53" s="57">
+      <c r="M53" s="54">
         <f>RAW!M6</f>
         <v>-9</v>
       </c>
-      <c r="N53" s="59">
+      <c r="N53" s="56">
         <f t="shared" si="5"/>
         <v>-3.6</v>
       </c>
-      <c r="O53" s="60">
+      <c r="O53" s="57">
         <f t="shared" si="6"/>
         <v>-7.333333333333333</v>
       </c>
-      <c r="P53" s="60">
+      <c r="P53" s="57">
         <f t="shared" si="7"/>
         <v>-10.5</v>
       </c>
-      <c r="Q53" s="61" t="s">
+      <c r="Q53" s="58" t="s">
         <v>124</v>
       </c>
       <c r="S53" s="40">
@@ -6549,27 +6565,27 @@
         <f t="shared" si="4"/>
         <v>-3.166666666666667</v>
       </c>
-      <c r="V53" s="83">
+      <c r="V53" s="80">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
-      <c r="D54" s="15"/>
-      <c r="I54" s="78"/>
-      <c r="Q54" s="62"/>
+      <c r="D54" s="90"/>
+      <c r="I54" s="75"/>
+      <c r="Q54" s="59"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A55" s="64" t="s">
+      <c r="A55" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="65"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="45">
         <f>C3</f>
         <v>2000</v>
       </c>
-      <c r="D55" s="66" t="str">
+      <c r="D55" s="63" t="str">
         <f>D$3</f>
         <v>'02</v>
       </c>
@@ -6589,7 +6605,7 @@
         <f t="shared" si="8"/>
         <v>'10</v>
       </c>
-      <c r="I55" s="66" t="str">
+      <c r="I55" s="63" t="str">
         <f t="shared" si="8"/>
         <v>'12</v>
       </c>
@@ -6605,13 +6621,13 @@
         <f t="shared" si="8"/>
         <v>'18</v>
       </c>
-      <c r="M55" s="67" t="str">
+      <c r="M55" s="64" t="str">
         <f t="shared" si="8"/>
         <v>'20</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A56" s="68" t="s">
+      <c r="A56" s="65" t="s">
         <v>102</v>
       </c>
       <c r="B56" s="9" t="str">
@@ -6658,13 +6674,13 @@
         <f>RAW!L59</f>
         <v>203</v>
       </c>
-      <c r="M56" s="69">
+      <c r="M56" s="66">
         <f>RAW!M59</f>
         <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" s="68" t="s">
+      <c r="A57" s="65" t="s">
         <v>119</v>
       </c>
       <c r="B57" s="9" t="str">
@@ -6711,13 +6727,13 @@
         <f>RAW!L61</f>
         <v>-14</v>
       </c>
-      <c r="M57" s="69">
+      <c r="M57" s="66">
         <f>RAW!M61</f>
         <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A58" s="68"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
       <c r="D58" s="17"/>
@@ -6729,10 +6745,10 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
-      <c r="M58" s="69"/>
+      <c r="M58" s="66"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="68" t="s">
         <v>120</v>
       </c>
       <c r="B59" s="7"/>
@@ -6773,13 +6789,13 @@
         <f t="shared" si="9"/>
         <v>'18</v>
       </c>
-      <c r="M59" s="72" t="str">
+      <c r="M59" s="69" t="str">
         <f t="shared" si="9"/>
         <v>'20</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A60" s="51" t="str">
+      <c r="A60" s="48" t="str">
         <f>RAW!A52</f>
         <v>REP</v>
       </c>
@@ -6827,13 +6843,13 @@
         <f>RAW!L52</f>
         <v>199</v>
       </c>
-      <c r="M60" s="70">
+      <c r="M60" s="67">
         <f>RAW!M52</f>
         <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A61" s="53" t="str">
+      <c r="A61" s="50" t="str">
         <f>RAW!A53</f>
         <v>DEM</v>
       </c>
@@ -6881,13 +6897,13 @@
         <f>RAW!L53</f>
         <v>235</v>
       </c>
-      <c r="M61" s="73">
+      <c r="M61" s="70">
         <f>RAW!M53</f>
         <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="48" t="s">
         <v>115</v>
       </c>
       <c r="B62" s="5" t="str">
@@ -6934,13 +6950,13 @@
         <f>RAW!L62</f>
         <v>-17</v>
       </c>
-      <c r="M62" s="70">
+      <c r="M62" s="67">
         <f>RAW!M62</f>
         <v>-4</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A63" s="68"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
       <c r="D63" s="17"/>
@@ -6952,10 +6968,10 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
-      <c r="M63" s="69"/>
+      <c r="M63" s="66"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A64" s="71" t="s">
+      <c r="A64" s="68" t="s">
         <v>114</v>
       </c>
       <c r="B64" s="7"/>
@@ -6996,13 +7012,13 @@
         <f t="shared" si="10"/>
         <v>'18</v>
       </c>
-      <c r="M64" s="72" t="str">
+      <c r="M64" s="69" t="str">
         <f t="shared" si="10"/>
         <v>'20</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="48" t="s">
         <v>116</v>
       </c>
       <c r="B65" s="5" t="str">
@@ -7049,13 +7065,13 @@
         <f>RAW!L56</f>
         <v>34</v>
       </c>
-      <c r="M65" s="70">
+      <c r="M65" s="67">
         <f>RAW!M56</f>
         <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="50" t="s">
         <v>104</v>
       </c>
       <c r="B66" s="7" t="str">
@@ -7102,60 +7118,60 @@
         <f>RAW!L57</f>
         <v>-38</v>
       </c>
-      <c r="M66" s="73">
+      <c r="M66" s="70">
         <f>RAW!M57</f>
         <v>-33</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="55" t="s">
+      <c r="A67" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="56" t="str">
+      <c r="B67" s="53" t="str">
         <f>RAW!B58</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C67" s="57">
+      <c r="C67" s="54">
         <f>RAW!C58</f>
         <v>7</v>
       </c>
-      <c r="D67" s="74">
+      <c r="D67" s="71">
         <f>RAW!D58</f>
         <v>3</v>
       </c>
-      <c r="E67" s="57">
+      <c r="E67" s="54">
         <f>RAW!E58</f>
         <v>13</v>
       </c>
-      <c r="F67" s="57">
+      <c r="F67" s="54">
         <f>RAW!F58</f>
         <v>-3</v>
       </c>
-      <c r="G67" s="57">
+      <c r="G67" s="54">
         <f>RAW!G58</f>
         <v>-21</v>
       </c>
-      <c r="H67" s="57">
+      <c r="H67" s="54">
         <f>RAW!H58</f>
         <v>13</v>
       </c>
-      <c r="I67" s="74">
+      <c r="I67" s="71">
         <f>RAW!I58</f>
         <v>18</v>
       </c>
-      <c r="J67" s="57">
+      <c r="J67" s="54">
         <f>RAW!J58</f>
         <v>18</v>
       </c>
-      <c r="K67" s="57">
+      <c r="K67" s="54">
         <f>RAW!K58</f>
         <v>20</v>
       </c>
-      <c r="L67" s="57">
+      <c r="L67" s="54">
         <f>RAW!L58</f>
         <v>-4</v>
       </c>
-      <c r="M67" s="75">
+      <c r="M67" s="72">
         <f>RAW!M58</f>
         <v>-3</v>
       </c>
@@ -7186,28 +7202,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86" t="str">
+      <c r="A1" s="82"/>
+      <c r="B1" s="83" t="str">
         <f>Table1!N3</f>
         <v>'02-10</v>
       </c>
-      <c r="C1" s="86" t="str">
+      <c r="C1" s="83" t="str">
         <f>Table1!O3</f>
         <v>'12-16</v>
       </c>
-      <c r="D1" s="88" t="str">
+      <c r="D1" s="85" t="str">
         <f>Table1!P3</f>
         <v>'18-20</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="84" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="76" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="23">
@@ -7218,11 +7234,11 @@
         <f>SUM(Table1!O4:O33)</f>
         <v>46.333333333333329</v>
       </c>
-      <c r="D2" s="76">
+      <c r="D2" s="73">
         <f>SUM(Table1!P4:P33)</f>
         <v>35.5</v>
       </c>
-      <c r="E2" s="63"/>
+      <c r="E2" s="60"/>
       <c r="G2" s="23">
         <f>C2-B2</f>
         <v>27.93333333333333</v>
@@ -7233,7 +7249,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="76" t="s">
         <v>135</v>
       </c>
       <c r="B3" s="23">
@@ -7244,7 +7260,7 @@
         <f>SUM(Table1!O34:O36)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="73">
         <f>SUM(Table1!P34:P36)</f>
         <v>-1.5</v>
       </c>
@@ -7258,7 +7274,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="78" t="s">
         <v>136</v>
       </c>
       <c r="B4" s="24">
@@ -7269,7 +7285,7 @@
         <f>SUM(Table1!O37:O53)</f>
         <v>-24.666666666666664</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="79">
         <f>SUM(Table1!P37:P53)</f>
         <v>-34.5</v>
       </c>
@@ -7283,18 +7299,18 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="57">
         <f>B2+B3+B4</f>
         <v>3.1999999999999957</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="57">
         <f>C2+C3+C4</f>
         <v>21.666666666666664</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="74">
         <f>D2+D3+D4</f>
         <v>-0.5</v>
       </c>
@@ -7407,7 +7423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69D208C-5E19-6E46-A837-802512EDC505}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
